--- a/xlsx/core_measures_long.xlsx
+++ b/xlsx/core_measures_long.xlsx
@@ -618,7 +618,7 @@
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="21" customWidth="1" min="10" max="10"/>
     <col width="41" customWidth="1" min="11" max="11"/>
-    <col width="51" customWidth="1" min="12" max="12"/>
+    <col width="32" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="171" customWidth="1" min="14" max="14"/>
     <col width="30" customWidth="1" min="15" max="15"/>
@@ -881,7 +881,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>state of site</t>
+          <t>state_of_site_enrollment</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -983,7 +983,11 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>birth_date</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>%Y%m%d</t>
@@ -1032,7 +1036,11 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
@@ -1081,7 +1089,11 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>sex_at_birth</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
@@ -1132,7 +1144,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>gender_identity_long</t>
+          <t>gender_id</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -1190,7 +1202,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>gender identity_short</t>
+          <t>gender_id_condensed</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
@@ -1371,7 +1383,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>race_american_indian</t>
+          <t>race_AIAN</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -1430,7 +1442,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>race_hawaiian</t>
+          <t>race_hawaiian_OPI</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
@@ -1599,7 +1611,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>race_specify_american_indian_tribe</t>
+          <t>race_AI_tribe</t>
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
@@ -1650,7 +1662,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>race_specify_other</t>
+          <t>race_other_specified</t>
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
@@ -1709,7 +1721,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>hispanic</t>
+          <t>hispanic_latino</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1762,7 +1774,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>sexual_orientation</t>
+          <t>sex_orient_category</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1811,7 +1823,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>sexual_orientation_other</t>
+          <t>sex_orient_other</t>
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
@@ -1864,7 +1876,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>pregnant</t>
+          <t>ever_pregnant</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1974,7 +1986,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>unmarried_partner</t>
+          <t>living_as_married</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
@@ -2027,7 +2039,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>educ_category</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -2076,7 +2088,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>education_grade</t>
+          <t>educ_highest_grade</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -2125,7 +2137,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>education_other</t>
+          <t>educ_other_specified</t>
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
@@ -2182,7 +2194,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>iv_incarceration</t>
+          <t>intv_while_incarc</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -2231,7 +2243,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>incarceration_days</t>
+          <t>days_incarcerated_interval</t>
         </is>
       </c>
       <c r="M29" t="inlineStr"/>
@@ -2288,7 +2300,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>oud_meds_rx</t>
+          <t>ever_rx_moud</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -2337,7 +2349,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>buprenorphine_tab_mos</t>
+          <t>months_daily_bup</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
@@ -2386,7 +2398,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>sublocade_mos</t>
+          <t>months_sublocade</t>
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
@@ -2435,7 +2447,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>brixadi_weekly_mos</t>
+          <t>months_weekly_brixadi</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
@@ -2484,7 +2496,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>brixadi_monthly_mos</t>
+          <t>months_monthly_brixadi</t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
@@ -2533,7 +2545,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>probuphine_mos</t>
+          <t>months_probuphine_implant</t>
         </is>
       </c>
       <c r="M35" t="inlineStr"/>
@@ -2582,7 +2594,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>naltrexone_mos</t>
+          <t>months_daily_ntx</t>
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
@@ -2631,7 +2643,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>vivitrol_mos</t>
+          <t>months_monthly_vivitrol</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -2680,7 +2692,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>methadone_mos</t>
+          <t>months_methadone</t>
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
@@ -6764,7 +6776,7 @@
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>shifted_visit_dt</t>
+          <t>shifted_visit_date</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -6933,7 +6945,7 @@
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>last_drug_get_use_recover</t>
+          <t>last_getting_using_drugs</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -6990,7 +7002,7 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>last_drug_use_social_dysfunction</t>
+          <t>last_social_problems</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -7047,7 +7059,7 @@
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>last_drug_use_work_life_dysfunction</t>
+          <t>last_work_life_disruption</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
@@ -7104,7 +7116,7 @@
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>last_drug_use_withdrawal</t>
+          <t>last_withdrawal</t>
         </is>
       </c>
       <c r="M119" t="inlineStr"/>
@@ -7161,7 +7173,7 @@
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>last_time_opioid_use</t>
+          <t>last_used_opioids</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -7218,7 +7230,7 @@
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
-          <t>last_time_opioid_overdose</t>
+          <t>last_opioid_overdose</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -7275,7 +7287,7 @@
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>last_time_opioid_med_treatment</t>
+          <t>last_went_moud</t>
         </is>
       </c>
       <c r="M122" t="inlineStr"/>
@@ -7328,7 +7340,7 @@
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>opioid_overdose_ct</t>
+          <t>times_opioid_overdose</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -7381,7 +7393,7 @@
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
-          <t>opioid_overdose_naloxone_ct</t>
+          <t>times_naloxone</t>
         </is>
       </c>
       <c r="M124" t="inlineStr"/>
@@ -7434,7 +7446,7 @@
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>who_administered_naloxone</t>
+          <t>who_gave_naloxone</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -7487,7 +7499,7 @@
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>drugs_4hrs_prior_to_overdose</t>
+          <t>drugs_before_overdose</t>
         </is>
       </c>
       <c r="M126" t="inlineStr"/>
@@ -7540,7 +7552,7 @@
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
-          <t>emergency_service_after_overdose</t>
+          <t>times_ems_after_overdose</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -7589,7 +7601,7 @@
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
-          <t>emergency_dept_after_overdose_ct</t>
+          <t>times_er_after_overdose</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -7638,7 +7650,7 @@
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>hospital_admission_after_overdose_ct</t>
+          <t>times_hospital_after_overdose</t>
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
@@ -7687,7 +7699,7 @@
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>substance_use_treatment_referral_ct</t>
+          <t>tx_refer_after_overdose</t>
         </is>
       </c>
       <c r="M130" t="inlineStr"/>
@@ -7736,7 +7748,7 @@
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>drug_use_ct</t>
+          <t>days_drug_use</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -7785,7 +7797,7 @@
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
-          <t>alcohol_use_ct</t>
+          <t>days_alcohol_use</t>
         </is>
       </c>
       <c r="M132" t="inlineStr"/>
@@ -7834,7 +7846,7 @@
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
-          <t>alcohol_binge_ct</t>
+          <t>days_alcohol_binge</t>
         </is>
       </c>
       <c r="M133" t="inlineStr"/>
@@ -7883,7 +7895,7 @@
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
-          <t>marijuana_medical_use_ct</t>
+          <t>days_medical_marijuana</t>
         </is>
       </c>
       <c r="M134" t="inlineStr"/>
@@ -7932,7 +7944,7 @@
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
-          <t>marijuana_not_own_use_ct</t>
+          <t>days_other_marijuana</t>
         </is>
       </c>
       <c r="M135" t="inlineStr"/>
@@ -7981,7 +7993,7 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
-          <t>opioid_heroin_use_ct</t>
+          <t>days_heroin</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -8030,7 +8042,7 @@
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
-          <t>opioid_fentanyl_use_ct</t>
+          <t>days_fentanyl</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -8079,7 +8091,7 @@
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
-          <t>opioid_street_methadone_use_ct</t>
+          <t>days_non_rx_methadone</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -8128,7 +8140,7 @@
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
-          <t>opioid_suboxone_use_ct</t>
+          <t>days_non_rx_suboxone</t>
         </is>
       </c>
       <c r="M139" t="inlineStr"/>
@@ -8177,7 +8189,7 @@
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
-          <t>opioid_other_use_ct</t>
+          <t>days_other_opioids</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -8226,7 +8238,7 @@
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
-          <t>cocaine_use_ct</t>
+          <t>days_cocaine</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -8275,7 +8287,7 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
-          <t>speed_use_ct</t>
+          <t>days_amphetamines</t>
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
@@ -8324,7 +8336,7 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
-          <t>benzos_anti_anxiety_use_ct</t>
+          <t>days_benzo</t>
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
@@ -8373,7 +8385,7 @@
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
-          <t>drug_use_other_ct</t>
+          <t>days_other_drugs</t>
         </is>
       </c>
       <c r="M144" t="inlineStr"/>
@@ -8422,7 +8434,7 @@
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
-          <t>drug_use_other_desc</t>
+          <t>other_drug_describe</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -8471,7 +8483,7 @@
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
-          <t>place_of_no_drug_use_ct</t>
+          <t>days_confined_no_use</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -8520,7 +8532,7 @@
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
-          <t>activities_against_law_besides_drugs_ct</t>
+          <t>days_illegal_activity</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
@@ -8573,7 +8585,7 @@
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
-          <t>drug_possession_ct</t>
+          <t>times_drug_possession</t>
         </is>
       </c>
       <c r="M148" t="inlineStr"/>
@@ -8626,7 +8638,7 @@
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
-          <t>drunkenness_or_other_liquor_law_violations_ct</t>
+          <t>times_public_drunk</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -8679,7 +8691,7 @@
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
-          <t>driving_under_the_influence_or_while_intoxicated_ct</t>
+          <t>times_dui</t>
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
@@ -8732,7 +8744,7 @@
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
-          <t>possession_dealing_distribution_or_sale_of_drugs_ct</t>
+          <t>times_drug_dealing</t>
         </is>
       </c>
       <c r="M151" t="inlineStr"/>
@@ -8785,7 +8797,7 @@
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
-          <t>vandalism_or_property_destruction_ct</t>
+          <t>times_vandalism</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -8838,7 +8850,7 @@
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
-          <t>receiving_possessing_or_selling_stolen_goods_ct</t>
+          <t>times_stolen_goods</t>
         </is>
       </c>
       <c r="M153" t="inlineStr"/>
@@ -8891,7 +8903,7 @@
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
-          <t>forgery_fraud_or_embezzlement_ct</t>
+          <t>times_forgery</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -8944,7 +8956,7 @@
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
-          <t>shoplifting_ct</t>
+          <t>times_shoplift</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
@@ -8997,7 +9009,7 @@
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
-          <t>larceny_or_theft_ct</t>
+          <t>times_theft</t>
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
@@ -9050,7 +9062,7 @@
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
-          <t>burglary_or_breaking_and_entering_ct</t>
+          <t>times_burglary</t>
         </is>
       </c>
       <c r="M157" t="inlineStr"/>
@@ -9103,7 +9115,7 @@
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
-          <t>motor_vehicle_theft_ct</t>
+          <t>times_auto_theft</t>
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
@@ -9156,7 +9168,7 @@
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
-          <t>carjacking_ct</t>
+          <t>times_carjacking</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
@@ -9209,7 +9221,7 @@
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
-          <t>simple_assault_or_battery_ct</t>
+          <t>times_assault</t>
         </is>
       </c>
       <c r="M160" t="inlineStr"/>
@@ -9262,7 +9274,7 @@
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
-          <t>robbery_ct</t>
+          <t>times_robbery</t>
         </is>
       </c>
       <c r="M161" t="inlineStr"/>
@@ -9315,7 +9327,7 @@
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
-          <t>aggravated_assault_or_battery_ct</t>
+          <t>times_aggravated_assault</t>
         </is>
       </c>
       <c r="M162" t="inlineStr"/>
@@ -9368,7 +9380,7 @@
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
-          <t>forcible_rape_ct</t>
+          <t>times_rape</t>
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
@@ -9421,7 +9433,7 @@
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
-          <t>murder_homicide_or_no-negligent_manslaughter_ct</t>
+          <t>times_homicide</t>
         </is>
       </c>
       <c r="M164" t="inlineStr"/>
@@ -9474,7 +9486,7 @@
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
-          <t>arson_ct</t>
+          <t>times_arson</t>
         </is>
       </c>
       <c r="M165" t="inlineStr"/>
@@ -9527,7 +9539,7 @@
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
-          <t>prostitution_pimping_or_commercialized_sex_ct</t>
+          <t>times_prostitution</t>
         </is>
       </c>
       <c r="M166" t="inlineStr"/>
@@ -9580,7 +9592,7 @@
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
-          <t>other_unlawful_activities_ct</t>
+          <t>times_other_unlawful</t>
         </is>
       </c>
       <c r="M167" t="inlineStr"/>
@@ -9633,7 +9645,7 @@
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
-          <t>overall_charged_arrests_ct</t>
+          <t>number_charged_arrests</t>
         </is>
       </c>
       <c r="M168" t="inlineStr"/>
@@ -9682,7 +9694,7 @@
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
-          <t>drug_possession_arrests_ct</t>
+          <t>number_arrest_possession</t>
         </is>
       </c>
       <c r="M169" t="inlineStr"/>
@@ -9731,7 +9743,7 @@
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
-          <t>law_violations_arrests_ct</t>
+          <t>number_arrest_drunk</t>
         </is>
       </c>
       <c r="M170" t="inlineStr"/>
@@ -9780,7 +9792,7 @@
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
-          <t>driving_under_the_influence/intoxicated_arrests_ct</t>
+          <t>number_arrest_dui</t>
         </is>
       </c>
       <c r="M171" t="inlineStr"/>
@@ -9829,7 +9841,7 @@
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
-          <t>drug_activity_arrests_ct</t>
+          <t>number_arrest_drug_dealing</t>
         </is>
       </c>
       <c r="M172" t="inlineStr"/>
@@ -9878,7 +9890,7 @@
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
-          <t>vandalism_or_property_destruction_arrests_ct</t>
+          <t>number_arrest_vandalism</t>
         </is>
       </c>
       <c r="M173" t="inlineStr"/>
@@ -9927,7 +9939,7 @@
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
-          <t>stolen_goods_arrests_ct</t>
+          <t>number_arrest_stolen_goods</t>
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
@@ -9976,7 +9988,7 @@
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
-          <t>forgery_fraud_or_embezzlement_arrests_ct</t>
+          <t>number_arrest_forgery</t>
         </is>
       </c>
       <c r="M175" t="inlineStr"/>
@@ -10025,7 +10037,7 @@
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
-          <t>shoplifting_arrests_ct</t>
+          <t>number_arrest_shoplifting</t>
         </is>
       </c>
       <c r="M176" t="inlineStr"/>
@@ -10074,7 +10086,7 @@
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
-          <t>theft_larceny_arrests_ct</t>
+          <t>number_arrest_theft</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
@@ -10123,7 +10135,7 @@
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
-          <t>burglary_or_breaking_and_entering_arrests_ct</t>
+          <t>number_arrest_burglary</t>
         </is>
       </c>
       <c r="M178" t="inlineStr"/>
@@ -10172,7 +10184,7 @@
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
-          <t>vehicle_theft_arrests_ct</t>
+          <t>number_arrest_auto_theft</t>
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
@@ -10221,7 +10233,7 @@
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
-          <t>car_jacking_arrests_ct</t>
+          <t>number_arrest_carjacking</t>
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
@@ -10270,7 +10282,7 @@
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
-          <t>simple_assault_or_battery_arrests_ct</t>
+          <t>number_arrest_assault</t>
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
@@ -10319,7 +10331,7 @@
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
-          <t>robbery_arrests_ct</t>
+          <t>number_arrest_robbery</t>
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
@@ -10368,7 +10380,7 @@
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
-          <t>aggravated_assault_or_battery_arrests_ct</t>
+          <t>number_arrest_aggravated</t>
         </is>
       </c>
       <c r="M183" t="inlineStr"/>
@@ -10417,7 +10429,7 @@
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
-          <t>forcible_rape_arrests_ct</t>
+          <t>number_arrest_rape</t>
         </is>
       </c>
       <c r="M184" t="inlineStr"/>
@@ -10466,7 +10478,7 @@
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
-          <t>negligent_manslaughter_arrests_ct</t>
+          <t>number_arrest_homicide</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
@@ -10515,7 +10527,7 @@
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
-          <t>arson_arrests_ct</t>
+          <t>number_arrest_arson</t>
         </is>
       </c>
       <c r="M186" t="inlineStr"/>
@@ -10564,7 +10576,7 @@
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
-          <t>commercialized_sex_arrests_ct</t>
+          <t>number_arrest_prostitution</t>
         </is>
       </c>
       <c r="M187" t="inlineStr"/>
@@ -10613,7 +10625,7 @@
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
-          <t>other_charges_arrests_ct</t>
+          <t>number_arrest_other</t>
         </is>
       </c>
       <c r="M188" t="inlineStr"/>
@@ -10662,7 +10674,7 @@
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
-          <t>num_days_electronic_monitoring</t>
+          <t>days_electronic_monitoring</t>
         </is>
       </c>
       <c r="M189" t="inlineStr"/>
@@ -10711,7 +10723,7 @@
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
-          <t>num_days_house_arrest</t>
+          <t>days_house_arrest</t>
         </is>
       </c>
       <c r="M190" t="inlineStr"/>
@@ -10760,7 +10772,7 @@
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
-          <t>num_days_jail_time</t>
+          <t>days_jail</t>
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
@@ -10809,7 +10821,7 @@
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
-          <t>num_days_prison_time</t>
+          <t>days_prison</t>
         </is>
       </c>
       <c r="M192" t="inlineStr"/>
@@ -10866,7 +10878,7 @@
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
-          <t>current_jail_or_prison_ind</t>
+          <t>currently_incarcerated</t>
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
@@ -10919,7 +10931,7 @@
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
-          <t>length_of_jail_or_prison_time</t>
+          <t>length_current_incarceration</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -10968,7 +10980,7 @@
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
-          <t>num_days_parole</t>
+          <t>days_parole</t>
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
@@ -11017,7 +11029,7 @@
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
-          <t>num_days_probation</t>
+          <t>days_probation</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
@@ -11066,7 +11078,7 @@
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
-          <t>num_days_other_kind_of_community_supervision</t>
+          <t>days_other_supervision</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
@@ -11115,7 +11127,7 @@
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
-          <t>num_days_meeting_with_probation_or_parole_officer</t>
+          <t>days_met_probation_officer</t>
         </is>
       </c>
       <c r="M198" t="inlineStr"/>
@@ -11164,7 +11176,7 @@
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
-          <t>num_days_trouble_with_probation_or_parole_officer</t>
+          <t>days_trouble_probation_officer</t>
         </is>
       </c>
       <c r="M199" t="inlineStr"/>
@@ -11213,7 +11225,7 @@
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
-          <t>num_days_life_time_arrests</t>
+          <t>number_lifetime_arrests</t>
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
@@ -11262,7 +11274,7 @@
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
-          <t>age_at_first_time_arrest</t>
+          <t>age_first_arrest</t>
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
@@ -11311,7 +11323,7 @@
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
-          <t>lifetime_years_in_detention_jail_or_prison_time_ct</t>
+          <t>years_lifetime_incarceration</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
@@ -11364,7 +11376,7 @@
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
-          <t>lifetime_months_in_detention_jail_or_prison_time_ct</t>
+          <t>months_lifetime_incarceration</t>
         </is>
       </c>
       <c r="M203" t="inlineStr"/>
@@ -11417,7 +11429,7 @@
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
-          <t>lifetime_guity_and_sentenced_ct</t>
+          <t>times_guilty_sentenced</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
@@ -11466,7 +11478,7 @@
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
-          <t>first_time_adjudication_conviction_ct</t>
+          <t>age_first_convicted</t>
         </is>
       </c>
       <c r="M205" t="inlineStr"/>
@@ -11513,7 +11525,11 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>times_er_visits</t>
+        </is>
+      </c>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
@@ -11558,7 +11574,11 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>nights_hospital_detox</t>
+        </is>
+      </c>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
@@ -11603,7 +11623,11 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>nights_hospitalized</t>
+        </is>
+      </c>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
@@ -11648,7 +11672,11 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>nights_residential_detox</t>
+        </is>
+      </c>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
@@ -11693,7 +11721,11 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>nights_residential_sud_tx</t>
+        </is>
+      </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
@@ -11738,7 +11770,11 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>nights_residential_mh</t>
+        </is>
+      </c>
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
@@ -11783,7 +11819,11 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>nights_physical_rehab</t>
+        </is>
+      </c>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
@@ -11828,7 +11868,11 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>visits_primary_care</t>
+        </is>
+      </c>
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
@@ -11881,7 +11925,11 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>pc_reason_alc_drugs</t>
+        </is>
+      </c>
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
@@ -11934,7 +11982,11 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>pc_reason_mh</t>
+        </is>
+      </c>
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
@@ -11987,7 +12039,11 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>pc_reason_physical</t>
+        </is>
+      </c>
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
@@ -12040,7 +12096,11 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>pc_reason_other</t>
+        </is>
+      </c>
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
@@ -12085,7 +12145,11 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>pc_reason_other_specify</t>
+        </is>
+      </c>
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
@@ -12130,7 +12194,11 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>op_tx_days</t>
+        </is>
+      </c>
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
@@ -12175,7 +12243,11 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>op_tx_days_visited</t>
+        </is>
+      </c>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
@@ -12220,7 +12292,11 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>op_tx_days_online</t>
+        </is>
+      </c>
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
@@ -12265,7 +12341,11 @@
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>op_tx_days_doctor</t>
+        </is>
+      </c>
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
@@ -12310,7 +12390,11 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>op_tx_days_therapy</t>
+        </is>
+      </c>
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
@@ -12355,7 +12439,11 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>op_tx_days_moud_only</t>
+        </is>
+      </c>
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
@@ -12400,7 +12488,11 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>psych_visits</t>
+        </is>
+      </c>
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
@@ -12445,7 +12537,11 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>psych_visits_in_person</t>
+        </is>
+      </c>
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
@@ -12490,7 +12586,11 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>psych_visits_online</t>
+        </is>
+      </c>
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
@@ -12535,7 +12635,11 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>counselor_visits</t>
+        </is>
+      </c>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
@@ -12580,7 +12684,11 @@
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>counselor_visits_in_person</t>
+        </is>
+      </c>
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
@@ -12625,7 +12733,11 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>counselor_visits_online</t>
+        </is>
+      </c>
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
@@ -12670,7 +12782,11 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>healthcare_expense</t>
+        </is>
+      </c>
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
@@ -12723,7 +12839,11 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>received_sud_tx</t>
+        </is>
+      </c>
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
@@ -12772,7 +12892,11 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>sud_tx_organized</t>
+        </is>
+      </c>
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
@@ -12821,7 +12945,11 @@
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>sud_tx_satisfied</t>
+        </is>
+      </c>
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
@@ -12870,7 +12998,11 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>sud_tx_efficient</t>
+        </is>
+      </c>
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
@@ -12919,7 +13051,11 @@
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>sud_tx_personal</t>
+        </is>
+      </c>
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
@@ -12968,7 +13104,11 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>sud_tx_moud</t>
+        </is>
+      </c>
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
@@ -13021,7 +13161,11 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>oud_tx_not_appropriate</t>
+        </is>
+      </c>
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
@@ -13074,7 +13218,11 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>prefer_oud_meds</t>
+        </is>
+      </c>
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
@@ -13127,7 +13275,11 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>prefer_oud_detox</t>
+        </is>
+      </c>
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
@@ -13180,7 +13332,11 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>prefer_oud_op</t>
+        </is>
+      </c>
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
@@ -13233,7 +13389,11 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>prefer_oud_iop</t>
+        </is>
+      </c>
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
@@ -13286,7 +13446,11 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>prefer_oud_residential</t>
+        </is>
+      </c>
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
@@ -13339,7 +13503,11 @@
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>prefer_oud_other_tx</t>
+        </is>
+      </c>
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
@@ -13392,7 +13560,11 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>prefer_oud_other_specify</t>
+        </is>
+      </c>
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
@@ -13445,7 +13617,11 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>prefer_oud_no_treatment</t>
+        </is>
+      </c>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
@@ -13498,7 +13674,11 @@
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>prefer_oud_dk</t>
+        </is>
+      </c>
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
@@ -13547,7 +13727,11 @@
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>prefer_moud_type</t>
+        </is>
+      </c>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
@@ -13596,7 +13780,11 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>prefer_which_bup</t>
+        </is>
+      </c>
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
@@ -13645,7 +13833,11 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>prefer_which_naloxone</t>
+        </is>
+      </c>
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
@@ -13690,7 +13882,11 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>household_people</t>
+        </is>
+      </c>
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
@@ -13739,7 +13935,11 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>household_under_18</t>
+        </is>
+      </c>
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
@@ -13788,7 +13988,11 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>household_income</t>
+        </is>
+      </c>
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
@@ -13841,7 +14045,11 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>household_income_legal</t>
+        </is>
+      </c>
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
@@ -13898,7 +14106,11 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>household_public_assist_any</t>
+        </is>
+      </c>
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
@@ -13947,7 +14159,11 @@
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>household_public_assist_dollars</t>
+        </is>
+      </c>
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
@@ -13996,7 +14212,11 @@
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>household_nonemploy_any</t>
+        </is>
+      </c>
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
@@ -14045,7 +14265,11 @@
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>household_nonemploy_dollars</t>
+        </is>
+      </c>
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
@@ -14102,7 +14326,11 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>household_income_illegal_any</t>
+        </is>
+      </c>
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
@@ -14151,7 +14379,11 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>household_income_illegal_dollars</t>
+        </is>
+      </c>
       <c r="M260" t="inlineStr"/>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
@@ -14204,7 +14436,11 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>current_work_school</t>
+        </is>
+      </c>
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
@@ -14253,7 +14489,11 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>work_days</t>
+        </is>
+      </c>
       <c r="M262" t="inlineStr"/>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
@@ -14302,7 +14542,11 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>work_typical_days_week</t>
+        </is>
+      </c>
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
@@ -14351,7 +14595,11 @@
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>work_hours_week</t>
+        </is>
+      </c>
       <c r="M264" t="inlineStr"/>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
@@ -14400,7 +14648,11 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>work_hourly_wage</t>
+        </is>
+      </c>
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
@@ -14457,7 +14709,11 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>work_health_insurance</t>
+        </is>
+      </c>
       <c r="M266" t="inlineStr"/>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
@@ -14514,7 +14770,11 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>work_paid_time_off</t>
+        </is>
+      </c>
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
@@ -14571,7 +14831,11 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>work_pension</t>
+        </is>
+      </c>
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
@@ -14628,7 +14892,11 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>work_retirement_plan</t>
+        </is>
+      </c>
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
@@ -14677,7 +14945,11 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>work_occupation</t>
+        </is>
+      </c>
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
@@ -14734,7 +15006,11 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>have_health_insurance</t>
+        </is>
+      </c>
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
@@ -14791,7 +15067,11 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>insured_private</t>
+        </is>
+      </c>
       <c r="M272" t="inlineStr"/>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
@@ -14848,7 +15128,11 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>insured_medicare</t>
+        </is>
+      </c>
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
@@ -14905,7 +15189,11 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>insured_medigap</t>
+        </is>
+      </c>
       <c r="M274" t="inlineStr"/>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
@@ -14962,7 +15250,11 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>insured_medicaid</t>
+        </is>
+      </c>
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
@@ -15019,7 +15311,11 @@
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>insured_chip</t>
+        </is>
+      </c>
       <c r="M276" t="inlineStr"/>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
@@ -15076,7 +15372,11 @@
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>insured_military</t>
+        </is>
+      </c>
       <c r="M277" t="inlineStr"/>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
@@ -15133,7 +15433,11 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>insured_indian</t>
+        </is>
+      </c>
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
@@ -15190,7 +15494,11 @@
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>insured_state</t>
+        </is>
+      </c>
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
@@ -15247,7 +15555,11 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>insured_other_gov</t>
+        </is>
+      </c>
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
@@ -15304,7 +15616,11 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>insured_single_service</t>
+        </is>
+      </c>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
@@ -15361,7 +15677,11 @@
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>insured_dont_know</t>
+        </is>
+      </c>
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
@@ -15410,7 +15730,11 @@
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>days_uninsured</t>
+        </is>
+      </c>
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
@@ -15459,7 +15783,11 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>days_self_help</t>
+        </is>
+      </c>
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
@@ -15508,7 +15836,11 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>days_drugfree_activity</t>
+        </is>
+      </c>
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
@@ -15557,7 +15889,11 @@
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>days_homeless</t>
+        </is>
+      </c>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
@@ -15606,7 +15942,11 @@
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>days_shelter</t>
+        </is>
+      </c>
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
@@ -15655,7 +15995,11 @@
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>days_household_alcohol</t>
+        </is>
+      </c>
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
@@ -15704,7 +16048,11 @@
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>days_household_drug</t>
+        </is>
+      </c>
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
@@ -15753,7 +16101,11 @@
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>days_activities_substance_use</t>
+        </is>
+      </c>
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
@@ -15802,7 +16154,11 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>days_family_trouble</t>
+        </is>
+      </c>
       <c r="M291" t="inlineStr"/>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
@@ -15851,7 +16207,11 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>days_arguments</t>
+        </is>
+      </c>
       <c r="M292" t="inlineStr"/>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
@@ -15900,7 +16260,11 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>days_abused</t>
+        </is>
+      </c>
       <c r="M293" t="inlineStr"/>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
@@ -15957,7 +16321,11 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>narcan_received</t>
+        </is>
+      </c>
       <c r="M294" t="inlineStr"/>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
@@ -16014,7 +16382,11 @@
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>narcan_used</t>
+        </is>
+      </c>
       <c r="M295" t="inlineStr"/>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
@@ -16071,7 +16443,11 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>narcan_refilled</t>
+        </is>
+      </c>
       <c r="M296" t="inlineStr"/>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
@@ -16124,7 +16500,11 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>difficulty_chores</t>
+        </is>
+      </c>
       <c r="M297" t="inlineStr"/>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
@@ -16173,7 +16553,11 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>difficulty_stairs</t>
+        </is>
+      </c>
       <c r="M298" t="inlineStr"/>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
@@ -16222,7 +16606,11 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>difficulty_walking</t>
+        </is>
+      </c>
       <c r="M299" t="inlineStr"/>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
@@ -16271,7 +16659,11 @@
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>difficulty_traveling</t>
+        </is>
+      </c>
       <c r="M300" t="inlineStr"/>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
@@ -16320,7 +16712,11 @@
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>trouble_with_leisure</t>
+        </is>
+      </c>
       <c r="M301" t="inlineStr"/>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
@@ -16369,7 +16765,11 @@
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>trouble_with_family</t>
+        </is>
+      </c>
       <c r="M302" t="inlineStr"/>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
@@ -16418,7 +16818,11 @@
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>trouble_with_work</t>
+        </is>
+      </c>
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
@@ -16467,7 +16871,11 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>trouble_with_activities</t>
+        </is>
+      </c>
       <c r="M304" t="inlineStr"/>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
@@ -16516,7 +16924,11 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>past_week_fearful</t>
+        </is>
+      </c>
       <c r="M305" t="inlineStr"/>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
@@ -16565,7 +16977,11 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>past_week_anxiety</t>
+        </is>
+      </c>
       <c r="M306" t="inlineStr"/>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
@@ -16614,7 +17030,11 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>past_week_worried</t>
+        </is>
+      </c>
       <c r="M307" t="inlineStr"/>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
@@ -16663,7 +17083,11 @@
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>past_week_uneasy</t>
+        </is>
+      </c>
       <c r="M308" t="inlineStr"/>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
@@ -16712,7 +17136,11 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>past_week_worthless</t>
+        </is>
+      </c>
       <c r="M309" t="inlineStr"/>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
@@ -16761,7 +17189,11 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>past_week_helpless</t>
+        </is>
+      </c>
       <c r="M310" t="inlineStr"/>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
@@ -16810,7 +17242,11 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>past_week_depressed</t>
+        </is>
+      </c>
       <c r="M311" t="inlineStr"/>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
@@ -16859,7 +17295,11 @@
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>past_week_hopeless</t>
+        </is>
+      </c>
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
@@ -16908,7 +17348,11 @@
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>past_week_fatigued</t>
+        </is>
+      </c>
       <c r="M313" t="inlineStr"/>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
@@ -16957,7 +17401,11 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>past_week_tired</t>
+        </is>
+      </c>
       <c r="M314" t="inlineStr"/>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
@@ -17006,7 +17454,11 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>past_week_rundown</t>
+        </is>
+      </c>
       <c r="M315" t="inlineStr"/>
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
@@ -17055,7 +17507,11 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>fatigue_level</t>
+        </is>
+      </c>
       <c r="M316" t="inlineStr"/>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
@@ -17104,7 +17560,11 @@
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>sleep_quality</t>
+        </is>
+      </c>
       <c r="M317" t="inlineStr"/>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
@@ -17153,7 +17613,11 @@
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>sleep_refreshing</t>
+        </is>
+      </c>
       <c r="M318" t="inlineStr"/>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
@@ -17202,7 +17666,11 @@
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>sleep_problems</t>
+        </is>
+      </c>
       <c r="M319" t="inlineStr"/>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
@@ -17251,7 +17719,11 @@
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>sleep_difficulty</t>
+        </is>
+      </c>
       <c r="M320" t="inlineStr"/>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
@@ -17300,7 +17772,11 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>can_concentrate</t>
+        </is>
+      </c>
       <c r="M321" t="inlineStr"/>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
@@ -17349,7 +17825,11 @@
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>can_remember</t>
+        </is>
+      </c>
       <c r="M322" t="inlineStr"/>
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
@@ -17398,7 +17878,11 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>pain_daily_activity</t>
+        </is>
+      </c>
       <c r="M323" t="inlineStr"/>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
@@ -17447,7 +17931,11 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>pain_work_around_house</t>
+        </is>
+      </c>
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
@@ -17496,7 +17984,11 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>pain_social_activity</t>
+        </is>
+      </c>
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
@@ -17545,7 +18037,11 @@
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>pain_household_chores</t>
+        </is>
+      </c>
       <c r="M326" t="inlineStr"/>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
@@ -17590,7 +18086,11 @@
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>pain_intensity</t>
+        </is>
+      </c>
       <c r="M327" t="inlineStr"/>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
@@ -17641,7 +18141,11 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>last_time_multiple_partners</t>
+        </is>
+      </c>
       <c r="M328" t="inlineStr"/>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
@@ -17694,7 +18198,11 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>last_time_unprotected_sex</t>
+        </is>
+      </c>
       <c r="M329" t="inlineStr"/>
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
@@ -17747,7 +18255,11 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>last_time_sex_intoxicated</t>
+        </is>
+      </c>
       <c r="M330" t="inlineStr"/>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
@@ -17800,7 +18312,11 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>last_time_injection_drug</t>
+        </is>
+      </c>
       <c r="M331" t="inlineStr"/>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
@@ -17853,7 +18369,11 @@
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>last_time_attacked_weapon</t>
+        </is>
+      </c>
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
@@ -17906,7 +18426,11 @@
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>last_time_physical_abuse</t>
+        </is>
+      </c>
       <c r="M333" t="inlineStr"/>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
@@ -17959,7 +18483,11 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>last_time_sex_abuse</t>
+        </is>
+      </c>
       <c r="M334" t="inlineStr"/>
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
@@ -18012,7 +18540,11 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>last_time_emotional_abuse</t>
+        </is>
+      </c>
       <c r="M335" t="inlineStr"/>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
@@ -18065,7 +18597,11 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>last_time_ongoing_abuse</t>
+        </is>
+      </c>
       <c r="M336" t="inlineStr"/>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
@@ -18118,7 +18654,11 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>last_time_afraid_abuse</t>
+        </is>
+      </c>
       <c r="M337" t="inlineStr"/>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
@@ -18171,7 +18711,11 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>last_time_distressed_past</t>
+        </is>
+      </c>
       <c r="M338" t="inlineStr"/>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
@@ -18224,7 +18768,11 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>last_time_suicidal</t>
+        </is>
+      </c>
       <c r="M339" t="inlineStr"/>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
@@ -18281,7 +18829,11 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>ever_dx_hiv</t>
+        </is>
+      </c>
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
@@ -18338,7 +18890,11 @@
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>ever_dx_hcv</t>
+        </is>
+      </c>
       <c r="M341" t="inlineStr"/>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
@@ -18395,7 +18951,11 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>ever_dx_hepb</t>
+        </is>
+      </c>
       <c r="M342" t="inlineStr"/>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
@@ -18452,7 +19012,11 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>ever_dx_std</t>
+        </is>
+      </c>
       <c r="M343" t="inlineStr"/>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
@@ -18509,7 +19073,11 @@
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>ever_dx_tb</t>
+        </is>
+      </c>
       <c r="M344" t="inlineStr"/>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
@@ -18566,7 +19134,11 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>ever_dx_covid</t>
+        </is>
+      </c>
       <c r="M345" t="inlineStr"/>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
@@ -18619,7 +19191,11 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>first_dx_hiv</t>
+        </is>
+      </c>
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
@@ -18672,7 +19248,11 @@
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>first_dx_hcv</t>
+        </is>
+      </c>
       <c r="M347" t="inlineStr"/>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
@@ -18725,7 +19305,11 @@
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>first_dx_hepb</t>
+        </is>
+      </c>
       <c r="M348" t="inlineStr"/>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
@@ -18778,7 +19362,11 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>first_dx_std</t>
+        </is>
+      </c>
       <c r="M349" t="inlineStr"/>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
@@ -18831,7 +19419,11 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>first_dx_tb</t>
+        </is>
+      </c>
       <c r="M350" t="inlineStr"/>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
@@ -18884,7 +19476,11 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>first_dx_covid</t>
+        </is>
+      </c>
       <c r="M351" t="inlineStr"/>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">

--- a/xlsx/core_measures_long.xlsx
+++ b/xlsx/core_measures_long.xlsx
@@ -598,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S351"/>
+  <dimension ref="A1:S352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6748,22 +6748,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>shifted_visit_date</t>
+          <t>visit_month</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Visit Date (shifted)</t>
+          <t>Visit Month</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>This is the date of the visit (ie time point) after shifting by a random number 182 days before or 182 days after the actual visit date. The shifting is done on the individual level which retains the time interval between visits (and allows calculations of days between time points or other date fields which are shifted by the same number of days). To avoid issues with type conversion errors, the date is of type integer</t>
+          <t>Marks the intended visit time point. For example, if the baseline visit, this should be populated as Baseline.\n If a follow up, this should be populated as the Month and month number (eg., for a study with a Baseline and 3,6, and 12 month follow ups the values should be Baseline, Month 3, Month 6, Month 12, respectively.\nIMPORTANT: this field represents the intended month in the study design.\nSo, for example, if a participant comes back 2 months after Baseline for the Month 1 follow up, this field should still be populated with Month 1.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -6771,19 +6771,19 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>shifted_visit_dt</t>
+          <t>visit_month</t>
         </is>
       </c>
       <c r="J113" t="b">
         <v>1</v>
       </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>^Baseline$|^Month \d+$</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
@@ -6803,34 +6803,30 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>visit_type</t>
+          <t>shifted_visit_date</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Visit Type</t>
+          <t>Visit Date (shifted)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>The visit type/category (either baseline or follow up)</t>
+          <t>This is the date of the visit (ie time point) after shifting by a random number 182 days before or 182 days after the actual visit date. The shifting is done on the individual level which retains the time interval between visits (and allows calculations of days between time points or other date fields which are shifted by the same number of days). To avoid issues with type conversion errors, the date is of type integer</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Baseline|Follow-up</t>
-        </is>
-      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>visit_type</t>
+          <t>shifted_visit_dt</t>
         </is>
       </c>
       <c r="J114" t="b">
@@ -6838,7 +6834,11 @@
       </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>%Y%m%d</t>
+        </is>
+      </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
@@ -6853,17 +6853,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Substance Use</t>
+          <t>Record and linkage</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>last_drug_use</t>
+          <t>visit_type</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Last time drug use</t>
+          <t>Visit Type</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -6873,22 +6873,24 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[... you used alcohol or other drugs weekly or more often?  ] When was the last time you...</t>
+          <t>The visit type/category (either baseline or follow up)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
+          <t>Baseline|Follow-up</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>s1a</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
+          <t>visit_type</t>
+        </is>
+      </c>
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
@@ -6898,11 +6900,7 @@
           <t>table-schema-time-points</t>
         </is>
       </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
-        </is>
-      </c>
+      <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
@@ -6915,12 +6913,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>last_getting_using_drugs</t>
+          <t>last_drug_use</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Last time drug use: getting, using, or recovering</t>
+          <t>Last time drug use</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -6930,7 +6928,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[... You spent a lot of time either getting alcohol or other drugs, using alcohol or other drugs, or recovering from the effects of alcohol or other drugs (feeling sick)? ] When was the last time you...</t>
+          <t>[... you used alcohol or other drugs weekly or more often?  ] When was the last time you...</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -6942,7 +6940,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>s1b</t>
+          <t>s1a</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -6972,12 +6970,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>last_social_problems</t>
+          <t>last_getting_using_drugs</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Last time drug use: social dysfunction</t>
+          <t>Last time drug use: getting, using, or recovering</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -6987,7 +6985,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[... You kept using alcohol or other drugs even though it was causing social   problems, leading to fights, or getting you into trouble with other people? ] When was the last time you...</t>
+          <t>[... You spent a lot of time either getting alcohol or other drugs, using alcohol or other drugs, or recovering from the effects of alcohol or other drugs (feeling sick)? ] When was the last time you...</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -6999,7 +6997,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>s1c</t>
+          <t>s1b</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -7029,12 +7027,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>last_work_life_disruption</t>
+          <t>last_social_problems</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Last time drug use: work or life dysfunction</t>
+          <t>Last time drug use: social dysfunction</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -7044,7 +7042,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[… your use of alcohol or other drugs caused you to give up or reduce your involvement in activities at work, school, home or social events? ] When was the last time you...</t>
+          <t>[... You kept using alcohol or other drugs even though it was causing social   problems, leading to fights, or getting you into trouble with other people? ] When was the last time you...</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -7056,7 +7054,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>s1d</t>
+          <t>s1c</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -7086,12 +7084,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>last_withdrawal</t>
+          <t>last_work_life_disruption</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Last time drug use: withdrawal</t>
+          <t>Last time drug use: work or life dysfunction</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -7101,7 +7099,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[... You had withdrawal problems from alcohol or other drugs like shaky hands, throwing up, having trouble sitting still or sleeping, or you used any  alcohol or other drugs to stop being sick or avoid withdrawal problems? ] When was the last time you...</t>
+          <t>[… your use of alcohol or other drugs caused you to give up or reduce your involvement in activities at work, school, home or social events? ] When was the last time you...</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -7113,7 +7111,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>s1e</t>
+          <t>s1d</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -7143,12 +7141,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>last_used_opioids</t>
+          <t>last_withdrawal</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Last time drug use: any opioids</t>
+          <t>Last time drug use: withdrawal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -7158,7 +7156,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[... used any kind of heroin, fentanyl or other opioid?(such as codeine, Darvocet, Darvon, Demerol, Dilaudid, Karachi, OxyContin, Oxys, Percocet, Propoxyphene, morphine, opium, Talwin or Tylenol with codeine, Vicodin, Zohydro)?] When was the last time...</t>
+          <t>[... You had withdrawal problems from alcohol or other drugs like shaky hands, throwing up, having trouble sitting still or sleeping, or you used any  alcohol or other drugs to stop being sick or avoid withdrawal problems? ] When was the last time you...</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -7170,7 +7168,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>s2a</t>
+          <t>s1e</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -7200,12 +7198,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>last_opioid_overdose</t>
+          <t>last_used_opioids</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Last time drug use: opioid overdose</t>
+          <t>Last time drug use: any opioids</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -7215,7 +7213,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[... had an opioid overdose? [used enough of the drug that it produced a life-threatening reaction that required medical attention]] When was the last time...</t>
+          <t>[... used any kind of heroin, fentanyl or other opioid?(such as codeine, Darvocet, Darvon, Demerol, Dilaudid, Karachi, OxyContin, Oxys, Percocet, Propoxyphene, morphine, opium, Talwin or Tylenol with codeine, Vicodin, Zohydro)?] When was the last time...</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -7227,7 +7225,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>s2b</t>
+          <t>s2a</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -7257,12 +7255,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>last_went_moud</t>
+          <t>last_opioid_overdose</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Last time drug use: OUD medication-assisted treatment</t>
+          <t>Last time drug use: opioid overdose</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -7272,7 +7270,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[... went to any kind of medication assisted treatment for opioid use disorder?] When was the last time...</t>
+          <t>[... had an opioid overdose? [used enough of the drug that it produced a life-threatening reaction that required medical attention]] When was the last time...</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -7284,7 +7282,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>s2c</t>
+          <t>s2b</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -7314,30 +7312,34 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>times_opioid_overdose</t>
+          <t>last_went_moud</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Opioid Overdose Count</t>
+          <t>Last time drug use: OUD medication-assisted treatment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[...overdose on heroin, fentanyl or other opioids?  [Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention] ] During the past xx days (since last assessment), how many times did you (CAN CODE 0 IF NEVER ON S2b). . .</t>
+          <t>[... went to any kind of medication assisted treatment for opioid use disorder?] When was the last time...</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>s3a</t>
+          <t>s2c</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -7352,7 +7354,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
+          <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr"/>
@@ -7367,12 +7369,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>times_naloxone</t>
+          <t>times_opioid_overdose</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Opioid Overdose Count: Receiving Naloxone</t>
+          <t>Opioid Overdose Count</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -7382,7 +7384,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[...did you receive naloxone (Evzio or Narcan) to reverse your overdose?  ] During the past xx days (since last assessment), how many times did you (CAN CODE 0 IF NEVER ON S2b). . .</t>
+          <t>[...overdose on heroin, fentanyl or other opioids?  [Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention] ] During the past xx days (since last assessment), how many times did you (CAN CODE 0 IF NEVER ON S2b). . .</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -7390,7 +7392,7 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>s3b</t>
+          <t>s3a</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -7420,22 +7422,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>who_gave_naloxone</t>
+          <t>times_naloxone</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Person Who Administered Nalaxone for Overdose</t>
+          <t>Opioid Overdose Count: Receiving Naloxone</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>array</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Who administered the naloxone or Narcan? (SELECT ALL THAT APPLY)</t>
+          <t>[...did you receive naloxone (Evzio or Narcan) to reverse your overdose?  ] During the past xx days (since last assessment), how many times did you (CAN CODE 0 IF NEVER ON S2b). . .</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -7443,7 +7445,7 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>s3c</t>
+          <t>s3b</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -7458,7 +7460,7 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>TODO: expand fields to each of the possible selections</t>
+          <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr"/>
@@ -7473,12 +7475,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>drugs_before_overdose</t>
+          <t>who_gave_naloxone</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Drugs 4 hrs Before Overdose</t>
+          <t>Person Who Administered Nalaxone for Overdose</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -7488,7 +7490,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>What drugs had you taken in the 4 hours before you overdosed? (SELECT ALL THAT APPLY)</t>
+          <t>Who administered the naloxone or Narcan? (SELECT ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -7496,7 +7498,7 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>s3d</t>
+          <t>s3c</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -7526,22 +7528,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>times_ems_after_overdose</t>
+          <t>drugs_before_overdose</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Emergency Medical Service Following Overdose</t>
+          <t>Drugs 4 hrs Before Overdose</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>array</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[...receive emergency medical service following an overdose?] During the past xx days (since last assessment), how many times did you (CAN CODE 0 IF NEVER ON S2b). . .</t>
+          <t>What drugs had you taken in the 4 hours before you overdosed? (SELECT ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -7549,7 +7551,7 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>s3e</t>
+          <t>s3d</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -7562,7 +7564,11 @@
           <t>table-schema-time-points</t>
         </is>
       </c>
-      <c r="P127" t="inlineStr"/>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>TODO: expand fields to each of the possible selections</t>
+        </is>
+      </c>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="inlineStr"/>
@@ -7575,12 +7581,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>times_er_after_overdose</t>
+          <t>times_ems_after_overdose</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Emergency Department Visit Count Following Overdose</t>
+          <t>Emergency Medical Service Following Overdose</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -7590,7 +7596,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[...go to the emergency department following an overdose?] During the past xx days (since last assessment), how many times did you (CAN CODE 0 IF NEVER ON S2b). . .</t>
+          <t>[...receive emergency medical service following an overdose?] During the past xx days (since last assessment), how many times did you (CAN CODE 0 IF NEVER ON S2b). . .</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -7598,7 +7604,7 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>s3f</t>
+          <t>s3e</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -7624,12 +7630,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>times_hospital_after_overdose</t>
+          <t>times_er_after_overdose</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Hospital Admissions Count Following Overdose</t>
+          <t>Emergency Department Visit Count Following Overdose</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -7639,7 +7645,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[...get admitted to the hospital following an overdose?] During the past xx days (since last assessment), how many times did you (CAN CODE 0 IF NEVER ON S2b). . .</t>
+          <t>[...go to the emergency department following an overdose?] During the past xx days (since last assessment), how many times did you (CAN CODE 0 IF NEVER ON S2b). . .</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -7647,7 +7653,7 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>s3g</t>
+          <t>s3f</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -7673,12 +7679,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>tx_refer_after_overdose</t>
+          <t>times_hospital_after_overdose</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Substance Use Treatment Referral Count Following Overdose</t>
+          <t>Hospital Admissions Count Following Overdose</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -7688,7 +7694,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[...receive a referral to substance use treatment from the police, EMS, ED or hospital staff?] During the past xx days (since last assessment), how many times did you (CAN CODE 0 IF NEVER ON S2b). . .</t>
+          <t>[...get admitted to the hospital following an overdose?] During the past xx days (since last assessment), how many times did you (CAN CODE 0 IF NEVER ON S2b). . .</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -7696,7 +7702,7 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>s3h</t>
+          <t>s3g</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -7722,12 +7728,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>days_drug_use</t>
+          <t>tx_refer_after_overdose</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Drug Use Count</t>
+          <t>Substance Use Treatment Referral Count Following Overdose</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -7737,7 +7743,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[...on how many days did you use any heroin, fentanyl, opioids, alcohol, marijuana or other illicit drugs?    ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[...receive a referral to substance use treatment from the police, EMS, ED or hospital staff?] During the past xx days (since last assessment), how many times did you (CAN CODE 0 IF NEVER ON S2b). . .</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -7745,7 +7751,7 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>s4a</t>
+          <t>s3h</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -7771,12 +7777,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>days_alcohol_use</t>
+          <t>days_drug_use</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Alcohol Use Count</t>
+          <t>Drug Use Count</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -7786,7 +7792,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[...how many times did you drink any kind of alcohol (beer, gin, rum, scotch, tequila, whiskey, wine or mixed drinks)?    ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[...on how many days did you use any heroin, fentanyl, opioids, alcohol, marijuana or other illicit drugs?    ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
@@ -7794,7 +7800,7 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>s4b</t>
+          <t>s4a</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -7820,12 +7826,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>days_alcohol_binge</t>
+          <t>days_alcohol_use</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Alcohol Use Count: Binge Drinking</t>
+          <t>Alcohol Use Count</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -7835,7 +7841,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[...how many times did you have 5 or more drinks?    ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[...how many times did you drink any kind of alcohol (beer, gin, rum, scotch, tequila, whiskey, wine or mixed drinks)?    ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
@@ -7843,7 +7849,7 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>s4c</t>
+          <t>s4b</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -7869,12 +7875,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>days_medical_marijuana</t>
+          <t>days_alcohol_binge</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Marijuana use count: medical</t>
+          <t>Alcohol Use Count: Binge Drinking</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -7884,7 +7890,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[...how many times did you use medical marijuana that was obtained from a dispensary with your own recommendation card or prescription?    ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[...how many times did you have 5 or more drinks?    ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -7892,7 +7898,7 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>s4d</t>
+          <t>s4c</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -7918,12 +7924,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>days_other_marijuana</t>
+          <t>days_medical_marijuana</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Marijuana use count: Not own</t>
+          <t>Marijuana use count: medical</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -7933,7 +7939,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[... how many times did you use other marijuana, including hashish, edibles, tinctures or concentrated drops, blunts or other forms of THC (cannabis, herb, pot, reefer, weed), or medical marijuana that was not your own?     ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[...how many times did you use medical marijuana that was obtained from a dispensary with your own recommendation card or prescription?    ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -7941,7 +7947,7 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>s4e</t>
+          <t>s4d</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -7967,12 +7973,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>days_heroin</t>
+          <t>days_other_marijuana</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Opioid use count: Heroin</t>
+          <t>Marijuana use count: Not own</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -7982,7 +7988,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[... how many times did you use heroin (alone or mixed with other drugs)?     ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[... how many times did you use other marijuana, including hashish, edibles, tinctures or concentrated drops, blunts or other forms of THC (cannabis, herb, pot, reefer, weed), or medical marijuana that was not your own?     ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -7990,7 +7996,7 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>s4f</t>
+          <t>s4e</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -8016,12 +8022,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>days_fentanyl</t>
+          <t>days_heroin</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Opioid use count: Fentanyl</t>
+          <t>Opioid use count: Heroin</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -8031,7 +8037,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[... how many times did you use fentanyl (alone or mixed with other drugs)?    ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[... how many times did you use heroin (alone or mixed with other drugs)?     ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -8039,7 +8045,7 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>s4g</t>
+          <t>s4f</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -8065,12 +8071,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>days_non_rx_methadone</t>
+          <t>days_fentanyl</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Opioid use count: Street Methadone</t>
+          <t>Opioid use count: Fentanyl</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -8080,7 +8086,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[... how many times did you use nonprescription or street methadone?     ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[... how many times did you use fentanyl (alone or mixed with other drugs)?    ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -8088,7 +8094,7 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>s4h</t>
+          <t>s4g</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -8114,12 +8120,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>days_non_rx_suboxone</t>
+          <t>days_non_rx_methadone</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Opioid use count: Suboxone</t>
+          <t>Opioid use count: Street Methadone</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -8129,7 +8135,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[... how many times did you use use nonprescription or street Suboxone?       ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[... how many times did you use nonprescription or street methadone?     ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -8137,7 +8143,7 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>s4j</t>
+          <t>s4h</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -8163,12 +8169,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>days_other_opioids</t>
+          <t>days_non_rx_suboxone</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Opioid use count: other</t>
+          <t>Opioid use count: Suboxone</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -8178,7 +8184,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[... how many times did you use other opioids, opiates, painkillers, or other analgesics (such as codeine, Darvocet, Darvon, Demerol, Dilaudid, Karachi, OxyContin, Oxys, Percocet, Propoxyphene, morphine, opium, Talwin or Tylenol with codeine, Vicodin, Zohydro)?       ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[... how many times did you use use nonprescription or street Suboxone?       ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -8186,7 +8192,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>s4k</t>
+          <t>s4j</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -8212,12 +8218,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>days_cocaine</t>
+          <t>days_other_opioids</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Cocaine use count</t>
+          <t>Opioid use count: other</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -8227,7 +8233,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[... how many times did you use crack, smoked rock, freebase, or other forms of cocaine?       ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[... how many times did you use other opioids, opiates, painkillers, or other analgesics (such as codeine, Darvocet, Darvon, Demerol, Dilaudid, Karachi, OxyContin, Oxys, Percocet, Propoxyphene, morphine, opium, Talwin or Tylenol with codeine, Vicodin, Zohydro)?       ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -8235,7 +8241,7 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>s4m</t>
+          <t>s4k</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -8261,12 +8267,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>days_amphetamines</t>
+          <t>days_cocaine</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Speed use count</t>
+          <t>Cocaine use count</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -8276,7 +8282,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[... how many times did you use any methamphetamines, amphetamines, or other forms of speed?       ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[... how many times did you use crack, smoked rock, freebase, or other forms of cocaine?       ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -8284,7 +8290,7 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>s4n</t>
+          <t>s4m</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -8310,12 +8316,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>days_benzo</t>
+          <t>days_amphetamines</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Benzodiazapine, anti-anxiety, and tranquilizer use count</t>
+          <t>Speed use count</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -8325,7 +8331,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[... how many times did you use any benzodiazepines, anti-anxiety drugs or tranquilizers (such as Ativan, Equanil, Dalmane, Deprol, Diazepam, Klonopin, Librium, Lortab, Meprobamate, Miltown, Prosom, Serax, Traxene, Valium, Verseed, Xanax)?      ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[... how many times did you use any methamphetamines, amphetamines, or other forms of speed?       ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
@@ -8333,7 +8339,7 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>s4p</t>
+          <t>s4n</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -8359,12 +8365,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>days_other_drugs</t>
+          <t>days_benzo</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Drug use count: other</t>
+          <t>Benzodiazapine, anti-anxiety, and tranquilizer use count</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -8374,7 +8380,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[...on how many days did you use any other drug that has not been mentioned (such as hallucinogens, downers)? ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[... how many times did you use any benzodiazepines, anti-anxiety drugs or tranquilizers (such as Ativan, Equanil, Dalmane, Deprol, Diazepam, Klonopin, Librium, Lortab, Meprobamate, Miltown, Prosom, Serax, Traxene, Valium, Verseed, Xanax)?      ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
@@ -8382,7 +8388,7 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>s4z</t>
+          <t>s4p</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -8408,22 +8414,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>other_drug_describe</t>
+          <t>days_other_drugs</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Drug use: description of other drugs</t>
+          <t>Drug use count: other</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[...on how many days did you use any other drug that has not been mentioned (such as hallucinogens, downers)? (Please describe )] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
+          <t>[...on how many days did you use any other drug that has not been mentioned (such as hallucinogens, downers)? ] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
@@ -8431,7 +8437,7 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>s4z_describe</t>
+          <t>s4z</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -8457,22 +8463,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>days_confined_no_use</t>
+          <t>other_drug_describe</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Place of No Opioid Use (Jail, Hospital, etc)</t>
+          <t>Drug use: description of other drugs</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>During the past 90 days (prior to entering jail or prison/ since your last assessment), on how many days have you been in a jail, hospital or other place where you could not use heroin, fentanyl, other opioids, alcohol, marijuana or other drugs? (USE 0 FOR NONE)</t>
+          <t>[...on how many days did you use any other drug that has not been mentioned (such as hallucinogens, downers)? (Please describe )] During the past xx days (since last assessment), on how many days did you. . . [Write 0 days if no use]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -8480,7 +8486,7 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>s4z_describe</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -8501,17 +8507,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Justice Involvement</t>
+          <t>Substance Use</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>days_illegal_activity</t>
+          <t>days_confined_no_use</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Activities against law besides drugs</t>
+          <t>Place of No Opioid Use (Jail, Hospital, etc)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -8521,7 +8527,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>During the past 90 days (since last assessment), on how many days were you involved in any activities that might get you into trouble or be against the law besides drug use? [IF 0, GO TO J2]</t>
+          <t>During the past 90 days (prior to entering jail or prison/ since your last assessment), on how many days have you been in a jail, hospital or other place where you could not use heroin, fentanyl, other opioids, alcohol, marijuana or other drugs? (USE 0 FOR NONE)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -8529,7 +8535,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>j1</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -8542,11 +8548,7 @@
           <t>table-schema-time-points</t>
         </is>
       </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>[IF 0, GO TO J2]</t>
-        </is>
-      </c>
+      <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr"/>
@@ -8559,12 +8561,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>times_drug_possession</t>
+          <t>days_illegal_activity</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Drug possession</t>
+          <t>Activities against law besides drugs</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -8574,7 +8576,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[... been in possession of small amounts of drugs? (drug possession)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>During the past 90 days (since last assessment), on how many days were you involved in any activities that might get you into trouble or be against the law besides drug use? [IF 0, GO TO J2]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -8582,7 +8584,7 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>j1a1</t>
+          <t>j1</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -8597,7 +8599,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>(common charge names associated with behavior for reference only)</t>
+          <t>[IF 0, GO TO J2]</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr"/>
@@ -8612,12 +8614,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>times_public_drunk</t>
+          <t>times_drug_possession</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Drunkenness or other liquor law violations</t>
+          <t>Drug possession</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -8627,7 +8629,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[... been drunk or high in public? (drunkenness or other liquor law violations)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... been in possession of small amounts of drugs? (drug possession)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
@@ -8635,7 +8637,7 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>j1a2</t>
+          <t>j1a1</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -8665,12 +8667,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>times_dui</t>
+          <t>times_public_drunk</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Driving under the influence or while intoxicated</t>
+          <t>Drunkenness or other liquor law violations</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -8680,7 +8682,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[... driven a vehicle while under the influence of alcohol or drugs? (driving under the influence or while intoxicated)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... been drunk or high in public? (drunkenness or other liquor law violations)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
@@ -8688,7 +8690,7 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>j1a3</t>
+          <t>j1a2</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -8718,12 +8720,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>times_drug_dealing</t>
+          <t>times_dui</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Possession, dealing, distribution or sale of drugs</t>
+          <t>Driving under the influence or while intoxicated</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -8733,7 +8735,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[...sold, distributed or helped to make illegal drugs?  (possession, dealing, distribution or sale of drugs)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... driven a vehicle while under the influence of alcohol or drugs? (driving under the influence or while intoxicated)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -8741,7 +8743,7 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>j1a4</t>
+          <t>j1a3</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -8771,12 +8773,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>times_vandalism</t>
+          <t>times_drug_dealing</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Vandalism or property destruction</t>
+          <t>Possession, dealing, distribution or sale of drugs</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -8786,7 +8788,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[... purposely damaged or destroyed property that did not belong to you? (vandalism or property destruction)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[...sold, distributed or helped to make illegal drugs?  (possession, dealing, distribution or sale of drugs)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -8794,7 +8796,7 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>j1a5</t>
+          <t>j1a4</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -8824,12 +8826,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>times_stolen_goods</t>
+          <t>times_vandalism</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Receiving, possessing or selling stolen goods</t>
+          <t>Vandalism or property destruction</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -8839,7 +8841,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[... bought, received, possessed or sold any stolen goods? (receiving, possessing or selling stolen goods)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... purposely damaged or destroyed property that did not belong to you? (vandalism or property destruction)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -8847,7 +8849,7 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>j1a6</t>
+          <t>j1a5</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -8877,12 +8879,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>times_forgery</t>
+          <t>times_stolen_goods</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Forgery, fraud or embezzlement</t>
+          <t>Receiving, possessing or selling stolen goods</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -8892,7 +8894,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[... passed bad checks, forged or altered a prescription, or took money illegally from an employer?  (forgery, fraud or embezzlement)     ] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... bought, received, possessed or sold any stolen goods? (receiving, possessing or selling stolen goods)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -8900,7 +8902,7 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>j1a7</t>
+          <t>j1a6</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -8930,12 +8932,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>times_shoplift</t>
+          <t>times_forgery</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Shoplifting</t>
+          <t>Forgery, fraud or embezzlement</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -8945,7 +8947,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[... taken something from a store without paying for it? (shoplifting)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... passed bad checks, forged or altered a prescription, or took money illegally from an employer?  (forgery, fraud or embezzlement)     ] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -8953,7 +8955,7 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>j1a8</t>
+          <t>j1a7</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -8983,12 +8985,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>times_theft</t>
+          <t>times_shoplift</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Larceny or theft</t>
+          <t>Shoplifting</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -8998,7 +9000,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[... other than from a store, taken money or property that didn't belong to you? (larceny or theft)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... taken something from a store without paying for it? (shoplifting)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -9006,7 +9008,7 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>j1a9</t>
+          <t>j1a8</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -9036,12 +9038,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>times_burglary</t>
+          <t>times_theft</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Burglary or breaking and entering</t>
+          <t>Larceny or theft</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -9051,7 +9053,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[... broken into a house or building to steal something or just to look around? (burglary or breaking and entering)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... other than from a store, taken money or property that didn't belong to you? (larceny or theft)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -9059,7 +9061,7 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>j1a10</t>
+          <t>j1a9</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -9089,12 +9091,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>times_auto_theft</t>
+          <t>times_burglary</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Motor vehicle theft</t>
+          <t>Burglary or breaking and entering</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -9104,7 +9106,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[... taken a car without people in it that didn't belong to you? (motor vehicle theft)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... broken into a house or building to steal something or just to look around? (burglary or breaking and entering)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -9112,7 +9114,7 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>j1a11</t>
+          <t>j1a10</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -9142,12 +9144,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>times_carjacking</t>
+          <t>times_auto_theft</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Carjacking</t>
+          <t>Motor vehicle theft</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -9157,7 +9159,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[... taken a car from someone who was in it? (carjacking)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... taken a car without people in it that didn't belong to you? (motor vehicle theft)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -9165,7 +9167,7 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>j1a12</t>
+          <t>j1a11</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -9195,12 +9197,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>times_assault</t>
+          <t>times_carjacking</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Simple assault or battery</t>
+          <t>Carjacking</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -9210,7 +9212,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[... hit someone or gotten into a physical fight? (simple assault or battery)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... taken a car from someone who was in it? (carjacking)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -9218,7 +9220,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>j1a13</t>
+          <t>j1a12</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -9248,12 +9250,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>times_robbery</t>
+          <t>times_assault</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Robbery</t>
+          <t>Simple assault or battery</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -9263,7 +9265,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[... used a weapon, force, or strong-arm methods to get money or things from a person? (robbery)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... hit someone or gotten into a physical fight? (simple assault or battery)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -9271,7 +9273,7 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>j1a14</t>
+          <t>j1a13</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -9301,12 +9303,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>times_aggravated_assault</t>
+          <t>times_robbery</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Aggravated assault or battery</t>
+          <t>Robbery</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -9316,7 +9318,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[... hurt someone badly enough they needed bandages or a doctor? (aggravated assault or battery)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... used a weapon, force, or strong-arm methods to get money or things from a person? (robbery)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -9324,7 +9326,7 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>j1a15</t>
+          <t>j1a14</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -9354,12 +9356,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>times_rape</t>
+          <t>times_aggravated_assault</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Forcible rape</t>
+          <t>Aggravated assault or battery</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -9369,7 +9371,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[... made someone have sex with you by force when they did not want to have sex? (forcible rape)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... hurt someone badly enough they needed bandages or a doctor? (aggravated assault or battery)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -9377,7 +9379,7 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>j1a16</t>
+          <t>j1a15</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -9407,12 +9409,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>times_homicide</t>
+          <t>times_rape</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Murder, homicide or no-negligent manslaughter</t>
+          <t>Forcible rape</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -9422,7 +9424,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[... been involved in the death or murder of another person, including accidents? (murder, homicide or no-negligent manslaughter)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... made someone have sex with you by force when they did not want to have sex? (forcible rape)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -9430,7 +9432,7 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>j1a17</t>
+          <t>j1a16</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -9460,12 +9462,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>times_arson</t>
+          <t>times_homicide</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Arson</t>
+          <t>Murder, homicide or no-negligent manslaughter</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -9475,7 +9477,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[... intentionally set a building, car or other property on fire? (arson)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... been involved in the death or murder of another person, including accidents? (murder, homicide or no-negligent manslaughter)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -9483,7 +9485,7 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>j1a18</t>
+          <t>j1a17</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -9513,12 +9515,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>times_prostitution</t>
+          <t>times_arson</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Prostitution, pimping or commercialized sex</t>
+          <t>Arson</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -9528,7 +9530,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>[... traded sex for food, drugs or money? (prostitution, pimping or commercialized sex)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... intentionally set a building, car or other property on fire? (arson)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -9536,7 +9538,7 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>j1a19</t>
+          <t>j1a18</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -9566,12 +9568,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>times_other_unlawful</t>
+          <t>times_prostitution</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Other unlawful activities</t>
+          <t>Prostitution, pimping or commercialized sex</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -9581,7 +9583,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>[... done something else that would have gotten you into trouble with the police if they had known about it? (carrying a weapon, gang involvement, domestic violence, trespass, gambling, distributing the peace, disorderly conduct, paraphernalia, runaway, curfew, truancy,  ) (PLEASE DESCRIBE)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
+          <t>[... traded sex for food, drugs or money? (prostitution, pimping or commercialized sex)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -9589,7 +9591,7 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>j1a99</t>
+          <t>j1a19</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -9619,12 +9621,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>number_charged_arrests</t>
+          <t>times_other_unlawful</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Overall charged arrests</t>
+          <t>Other unlawful activities</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -9634,7 +9636,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>During the past 90 days (since last assessment), how many times were you arrested and charged?</t>
+          <t>[... done something else that would have gotten you into trouble with the police if they had known about it? (carrying a weapon, gang involvement, domestic violence, trespass, gambling, distributing the peace, disorderly conduct, paraphernalia, runaway, curfew, truancy,  ) (PLEASE DESCRIBE)] During the past xx days (since last assessment), how many times have you...(common charge names associated with behavior for reference only)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -9642,7 +9644,7 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>j2</t>
+          <t>j1a99</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -9655,7 +9657,11 @@
           <t>table-schema-time-points</t>
         </is>
       </c>
-      <c r="P168" t="inlineStr"/>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>(common charge names associated with behavior for reference only)</t>
+        </is>
+      </c>
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
@@ -9668,12 +9674,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>number_arrest_possession</t>
+          <t>number_charged_arrests</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Drug possession arrests</t>
+          <t>Overall charged arrests</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -9683,7 +9689,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>[Number of arrests for drug possession (for small amounts)] During the past 90 days (since last assessment)</t>
+          <t>During the past 90 days (since last assessment), how many times were you arrested and charged?</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -9691,7 +9697,7 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>j2a</t>
+          <t>j2</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -9717,12 +9723,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>number_arrest_drunk</t>
+          <t>number_arrest_possession</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Law violations arrests</t>
+          <t>Drug possession arrests</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -9732,7 +9738,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>[Number of arrests for drunkenness or other liquor law violations] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for drug possession (for small amounts)] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -9740,7 +9746,7 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>j2b</t>
+          <t>j2a</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -9766,12 +9772,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>number_arrest_dui</t>
+          <t>number_arrest_drunk</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Driving under the influence/intoxicated arrests</t>
+          <t>Law violations arrests</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -9781,7 +9787,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>[Number of arrests for driving under the influence or while intoxicated] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for drunkenness or other liquor law violations] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -9789,7 +9795,7 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>j2c</t>
+          <t>j2b</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -9815,12 +9821,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>number_arrest_drug_dealing</t>
+          <t>number_arrest_dui</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Drug activity arrests</t>
+          <t>Driving under the influence/intoxicated arrests</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -9830,7 +9836,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>[Number of arrests for possession, dealing, distribution or sale of drugs] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for driving under the influence or while intoxicated] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -9838,7 +9844,7 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>j2d</t>
+          <t>j2c</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -9864,12 +9870,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>number_arrest_vandalism</t>
+          <t>number_arrest_drug_dealing</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Vandalism or property destruction arrests</t>
+          <t>Drug activity arrests</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -9879,7 +9885,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>[Number of arrests for vandalism or property destruction] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for possession, dealing, distribution or sale of drugs] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -9887,7 +9893,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>j2e</t>
+          <t>j2d</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -9913,12 +9919,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>number_arrest_stolen_goods</t>
+          <t>number_arrest_vandalism</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Stolen goods arrests</t>
+          <t>Vandalism or property destruction arrests</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -9928,7 +9934,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>[Number of arrests for receiving, possessing or selling stolen goods] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for vandalism or property destruction] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -9936,7 +9942,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>j2f</t>
+          <t>j2e</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -9962,12 +9968,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>number_arrest_forgery</t>
+          <t>number_arrest_stolen_goods</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Forgery, fraud or embezzlement arrests</t>
+          <t>Stolen goods arrests</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -9977,7 +9983,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>[Number of arrests for forgery, fraud or embezzlement] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for receiving, possessing or selling stolen goods] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -9985,7 +9991,7 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>j2g</t>
+          <t>j2f</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -10011,12 +10017,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>number_arrest_shoplifting</t>
+          <t>number_arrest_forgery</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Shoplifting arrests</t>
+          <t>Forgery, fraud or embezzlement arrests</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -10026,7 +10032,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>[Number of arrests for shoplifting] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for forgery, fraud or embezzlement] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -10034,7 +10040,7 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>j2h</t>
+          <t>j2g</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -10060,12 +10066,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>number_arrest_theft</t>
+          <t>number_arrest_shoplifting</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Theft/larceny arrests</t>
+          <t>Shoplifting arrests</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -10075,7 +10081,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>[Number of arrests for larceny or theft] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for shoplifting] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -10083,7 +10089,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>j2i</t>
+          <t>j2h</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -10109,12 +10115,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>number_arrest_burglary</t>
+          <t>number_arrest_theft</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Burglary or breaking and entering arrests</t>
+          <t>Theft/larceny arrests</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -10124,7 +10130,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>[Number of arrests for burglary or breaking and entering] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for larceny or theft] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -10132,7 +10138,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>j2j</t>
+          <t>j2i</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -10158,12 +10164,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>number_arrest_auto_theft</t>
+          <t>number_arrest_burglary</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Vehicle theft arrests</t>
+          <t>Burglary or breaking and entering arrests</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -10173,7 +10179,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>[Number of arrests for motor vehicle theft] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for burglary or breaking and entering] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -10181,7 +10187,7 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>j2k</t>
+          <t>j2j</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -10207,12 +10213,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>number_arrest_carjacking</t>
+          <t>number_arrest_auto_theft</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Car jacking arrests</t>
+          <t>Vehicle theft arrests</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -10222,7 +10228,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>[Number of arrests for car jacking] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for motor vehicle theft] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -10230,7 +10236,7 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>j2l</t>
+          <t>j2k</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -10256,12 +10262,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>number_arrest_assault</t>
+          <t>number_arrest_carjacking</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Simple assault or battery arrests</t>
+          <t>Car jacking arrests</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -10271,7 +10277,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>[Number of arrests for simple assault or battery] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for car jacking] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -10279,7 +10285,7 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>j2m</t>
+          <t>j2l</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -10305,12 +10311,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>number_arrest_robbery</t>
+          <t>number_arrest_assault</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Robbery arrests</t>
+          <t>Simple assault or battery arrests</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -10320,7 +10326,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>[Number of arrests for robbery] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for simple assault or battery] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -10328,7 +10334,7 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>j2n</t>
+          <t>j2m</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -10354,12 +10360,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>number_arrest_aggravated</t>
+          <t>number_arrest_robbery</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Aggravated assault or battery arrests</t>
+          <t>Robbery arrests</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -10369,7 +10375,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>[Number of arrests for aggravated assault or battery] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for robbery] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -10377,7 +10383,7 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>j2o</t>
+          <t>j2n</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -10403,12 +10409,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>number_arrest_rape</t>
+          <t>number_arrest_aggravated</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Forcible rape arrests</t>
+          <t>Aggravated assault or battery arrests</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -10418,7 +10424,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>[Number of arrests for forcible rape] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for aggravated assault or battery] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -10426,7 +10432,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>j2p</t>
+          <t>j2o</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -10452,12 +10458,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>number_arrest_homicide</t>
+          <t>number_arrest_rape</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Negligent manslaughter arrests</t>
+          <t>Forcible rape arrests</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -10467,7 +10473,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>[Number of arrests for murder, homicide or non-negligent manslaughter] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for forcible rape] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -10475,7 +10481,7 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>j2q</t>
+          <t>j2p</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -10501,12 +10507,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>number_arrest_arson</t>
+          <t>number_arrest_homicide</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Arson arrests</t>
+          <t>Negligent manslaughter arrests</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -10516,7 +10522,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>[Number of arrests for arson] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for murder, homicide or non-negligent manslaughter] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -10524,7 +10530,7 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>j2r</t>
+          <t>j2q</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -10550,12 +10556,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>number_arrest_prostitution</t>
+          <t>number_arrest_arson</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Commercialized sex arrests</t>
+          <t>Arson arrests</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -10565,7 +10571,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>[Number of arrests for prostitution, pimping or commercialized sex] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for arson] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -10573,7 +10579,7 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>j2s</t>
+          <t>j2r</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -10599,12 +10605,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>number_arrest_other</t>
+          <t>number_arrest_prostitution</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Other charges arrests</t>
+          <t>Commercialized sex arrests</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -10614,7 +10620,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>[Number of arrests for other charges (carrying a weapon, gang involvement, domestic violence, trespass, gambling, disturbing the peace, disorderly conduct, paraphernalia, runaway, curfew, truancy) ] During the past 90 days (since last assessment)</t>
+          <t>[Number of arrests for prostitution, pimping or commercialized sex] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -10622,7 +10628,7 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>j2t</t>
+          <t>j2s</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -10648,12 +10654,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>days_electronic_monitoring</t>
+          <t>number_arrest_other</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Electronic monitoring</t>
+          <t>Other charges arrests</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -10663,7 +10669,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>[...on electronic monitoring?] During the past xx days (since last assessment), how many days have you been ...</t>
+          <t>[Number of arrests for other charges (carrying a weapon, gang involvement, domestic violence, trespass, gambling, disturbing the peace, disorderly conduct, paraphernalia, runaway, curfew, truancy) ] During the past 90 days (since last assessment)</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -10671,7 +10677,7 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>j3a</t>
+          <t>j2t</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -10697,12 +10703,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>days_house_arrest</t>
+          <t>days_electronic_monitoring</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>House arrest</t>
+          <t>Electronic monitoring</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -10712,7 +10718,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>[...on house arrest?] During the past xx days (since last assessment), how many days have you been ...</t>
+          <t>[...on electronic monitoring?] During the past xx days (since last assessment), how many days have you been ...</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -10720,7 +10726,7 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>j3b</t>
+          <t>j3a</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -10746,12 +10752,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>days_jail</t>
+          <t>days_house_arrest</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Jail time</t>
+          <t>House arrest</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -10761,7 +10767,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>[...in jail?] During the past xx days (since last assessment), how many days have you been ...</t>
+          <t>[...on house arrest?] During the past xx days (since last assessment), how many days have you been ...</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -10769,7 +10775,7 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>j3c</t>
+          <t>j3b</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -10795,12 +10801,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>days_prison</t>
+          <t>days_jail</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Prison time</t>
+          <t>Jail time</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -10810,7 +10816,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>[...in prison?] During the past xx days (since last assessment), how many days have you been ...</t>
+          <t>[...in jail?] During the past xx days (since last assessment), how many days have you been ...</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -10818,7 +10824,7 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>j3d</t>
+          <t>j3c</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -10844,38 +10850,30 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>currently_incarcerated</t>
+          <t>days_prison</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Current jail or prison</t>
+          <t>Prison time</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Are you currently in jail or prison? (CAN MARK IF OBVIOUS)</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>[...in prison?] During the past xx days (since last assessment), how many days have you been ...</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>j3e</t>
+          <t>j3d</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -10888,11 +10886,7 @@
           <t>table-schema-time-points</t>
         </is>
       </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>MBK: added Unknown to satisfy a small amount of respondents for one hub.</t>
-        </is>
-      </c>
+      <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="inlineStr"/>
@@ -10905,30 +10899,38 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>length_current_incarceration</t>
+          <t>currently_incarcerated</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Length of jail or prison time</t>
+          <t>Current jail or prison</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>How long have you been in jail or prison? (just this episode)</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+          <t>Are you currently in jail or prison? (CAN MARK IF OBVIOUS)</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>j3f</t>
+          <t>j3e</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -10941,7 +10943,11 @@
           <t>table-schema-time-points</t>
         </is>
       </c>
-      <c r="P194" t="inlineStr"/>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>MBK: added Unknown to satisfy a small amount of respondents for one hub.</t>
+        </is>
+      </c>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="inlineStr"/>
       <c r="S194" t="inlineStr"/>
@@ -10954,12 +10960,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>days_parole</t>
+          <t>length_current_incarceration</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Parole</t>
+          <t>Length of jail or prison time</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -10969,7 +10975,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>[...been on parole?] During the past xx days (since last assessment), how many days have you...</t>
+          <t>How long have you been in jail or prison? (just this episode)</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -10977,7 +10983,7 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>j4a</t>
+          <t>j3f</t>
         </is>
       </c>
       <c r="J195" t="inlineStr"/>
@@ -11003,12 +11009,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>days_probation</t>
+          <t>days_parole</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Probation</t>
+          <t>Parole</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -11018,7 +11024,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>[...been on probation?] During the past xx days (since last assessment), how many days have you...</t>
+          <t>[...been on parole?] During the past xx days (since last assessment), how many days have you...</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -11026,7 +11032,7 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>j4b</t>
+          <t>j4a</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -11052,12 +11058,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>days_other_supervision</t>
+          <t>days_probation</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Other kind of community supervision</t>
+          <t>Probation</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -11067,7 +11073,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>[...been on any other kind of community supervision?] During the past xx days (since last assessment), how many days have you...</t>
+          <t>[...been on probation?] During the past xx days (since last assessment), how many days have you...</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -11075,7 +11081,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>j4c</t>
+          <t>j4b</t>
         </is>
       </c>
       <c r="J197" t="inlineStr"/>
@@ -11101,12 +11107,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>days_met_probation_officer</t>
+          <t>days_other_supervision</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Meeting with probation or parole officer</t>
+          <t>Other kind of community supervision</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -11116,7 +11122,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>[...met with your probation or parole officer?] During the past xx days (since last assessment), how many days have you...</t>
+          <t>[...been on any other kind of community supervision?] During the past xx days (since last assessment), how many days have you...</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -11124,7 +11130,7 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>j4d</t>
+          <t>j4c</t>
         </is>
       </c>
       <c r="J198" t="inlineStr"/>
@@ -11150,12 +11156,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>days_trouble_probation_officer</t>
+          <t>days_met_probation_officer</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Trouble with probation or parole officer</t>
+          <t>Meeting with probation or parole officer</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -11165,7 +11171,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>[...been in trouble with your probation or parole officer?] During the past xx days (since last assessment), how many days have you...</t>
+          <t>[...met with your probation or parole officer?] During the past xx days (since last assessment), how many days have you...</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -11173,7 +11179,7 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>j4e</t>
+          <t>j4d</t>
         </is>
       </c>
       <c r="J199" t="inlineStr"/>
@@ -11199,12 +11205,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>number_lifetime_arrests</t>
+          <t>days_trouble_probation_officer</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Life time arrests</t>
+          <t>Trouble with probation or parole officer</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -11214,7 +11220,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>[...how many times in your life have you been arrested including as a juvenile?] During your lifetime...</t>
+          <t>[...been in trouble with your probation or parole officer?] During the past xx days (since last assessment), how many days have you...</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -11222,7 +11228,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>j5a</t>
+          <t>j4e</t>
         </is>
       </c>
       <c r="J200" t="inlineStr"/>
@@ -11248,12 +11254,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>age_first_arrest</t>
+          <t>number_lifetime_arrests</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>First time arrest</t>
+          <t>Life time arrests</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -11263,7 +11269,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>[...how old were you the first time you were arrested? ] During your lifetime...</t>
+          <t>[...how many times in your life have you been arrested including as a juvenile?] During your lifetime...</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -11271,7 +11277,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>j5b</t>
+          <t>j5a</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -11297,22 +11303,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>years_lifetime_incarceration</t>
+          <t>age_first_arrest</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Lifetime years in detention, jail, or prison time</t>
+          <t>First time arrest</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>[...how much total time have you spent in detention, jail or prison during your lifetime?] During your lifetime...</t>
+          <t>[...how old were you the first time you were arrested? ] During your lifetime...</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -11320,7 +11326,7 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>j5c_years</t>
+          <t>j5b</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -11333,11 +11339,7 @@
           <t>table-schema-time-points</t>
         </is>
       </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>MBK: changed from integer to number to allow partial years/months</t>
-        </is>
-      </c>
+      <c r="P202" t="inlineStr"/>
       <c r="Q202" t="inlineStr"/>
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="inlineStr"/>
@@ -11350,12 +11352,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>months_lifetime_incarceration</t>
+          <t>years_lifetime_incarceration</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Lifetime months in detention, jail, or prison time</t>
+          <t>Lifetime years in detention, jail, or prison time</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -11373,7 +11375,7 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>j5c_months</t>
+          <t>j5c_years</t>
         </is>
       </c>
       <c r="J203" t="inlineStr"/>
@@ -11403,22 +11405,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>times_guilty_sentenced</t>
+          <t>months_lifetime_incarceration</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Lifetime guity and sentenced</t>
+          <t>Lifetime months in detention, jail, or prison time</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>[...how many times have you been found guilty and sentenced (including adjudications as a youth or convictions as an adult)?] During your lifetime...</t>
+          <t>[...how much total time have you spent in detention, jail or prison during your lifetime?] During your lifetime...</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -11426,7 +11428,7 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>j5d</t>
+          <t>j5c_months</t>
         </is>
       </c>
       <c r="J204" t="inlineStr"/>
@@ -11439,7 +11441,11 @@
           <t>table-schema-time-points</t>
         </is>
       </c>
-      <c r="P204" t="inlineStr"/>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>MBK: changed from integer to number to allow partial years/months</t>
+        </is>
+      </c>
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr"/>
       <c r="S204" t="inlineStr"/>
@@ -11452,12 +11458,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>age_first_convicted</t>
+          <t>times_guilty_sentenced</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>First time adjudication conviction</t>
+          <t>Lifetime guity and sentenced</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -11467,7 +11473,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>[...how old were you the first time you were adjudicated or convicted?] During your lifetime...</t>
+          <t>[...how many times have you been found guilty and sentenced (including adjudications as a youth or convictions as an adult)?] During your lifetime...</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -11475,7 +11481,7 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>j5e</t>
+          <t>j5d</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -11496,17 +11502,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Utilization of Services</t>
+          <t>Justice Involvement</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>times_er_visits</t>
+          <t>age_first_convicted</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Emergency room:  Number of visits</t>
+          <t>First time adjudication conviction</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -11516,7 +11522,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>[...times have you had to go to an emergency room without being admitted to the hospital?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
+          <t>[...how old were you the first time you were adjudicated or convicted?] During your lifetime...</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -11524,7 +11530,7 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>u1</t>
+          <t>j5e</t>
         </is>
       </c>
       <c r="J206" t="inlineStr"/>
@@ -11550,12 +11556,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>nights_hospital_detox</t>
+          <t>times_er_visits</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Hospital detox program: Number of nights</t>
+          <t>Emergency room:  Number of visits</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -11565,7 +11571,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>[...nights were you in a hospital detoxification program for your alcohol and other drug use (across all episodes)?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
+          <t>[...times have you had to go to an emergency room without being admitted to the hospital?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -11573,7 +11579,7 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>u2</t>
+          <t>u1</t>
         </is>
       </c>
       <c r="J207" t="inlineStr"/>
@@ -11599,12 +11605,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>nights_hospitalized</t>
+          <t>nights_hospital_detox</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Hospitalization:  Number of nights</t>
+          <t>Hospital detox program: Number of nights</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -11614,7 +11620,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>[...nights were you in a hospital for any other reason than detoxification?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
+          <t>[...nights were you in a hospital detoxification program for your alcohol and other drug use (across all episodes)?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -11622,7 +11628,7 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>u3</t>
+          <t>u2</t>
         </is>
       </c>
       <c r="J208" t="inlineStr"/>
@@ -11648,12 +11654,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>nights_residential_detox</t>
+          <t>nights_hospitalized</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Residential detox: Number of nights</t>
+          <t>Hospitalization:  Number of nights</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -11663,7 +11669,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>[...nights were you in a non-hospital or social detoxification program from alcohol or other drugs (also called residential detox)?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
+          <t>[...nights were you in a hospital for any other reason than detoxification?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -11671,7 +11677,7 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>u4</t>
+          <t>u3</t>
         </is>
       </c>
       <c r="J209" t="inlineStr"/>
@@ -11697,12 +11703,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>nights_residential_sud_tx</t>
+          <t>nights_residential_detox</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Residential treatment program for alcohol/drugs: Number of nights</t>
+          <t>Residential detox: Number of nights</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -11712,7 +11718,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>[...nights were you in a residential treatment program for alcohol or drug use?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
+          <t>[...nights were you in a non-hospital or social detoxification program from alcohol or other drugs (also called residential detox)?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -11720,7 +11726,7 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>u5a</t>
+          <t>u4</t>
         </is>
       </c>
       <c r="J210" t="inlineStr"/>
@@ -11746,12 +11752,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>nights_residential_mh</t>
+          <t>nights_residential_sud_tx</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Residential treatment program for mental health: Number of nights</t>
+          <t>Residential treatment program for alcohol/drugs: Number of nights</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -11761,7 +11767,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>[...nights were you in a residential treatment program for mental health?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
+          <t>[...nights were you in a residential treatment program for alcohol or drug use?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -11769,7 +11775,7 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>u5b</t>
+          <t>u5a</t>
         </is>
       </c>
       <c r="J211" t="inlineStr"/>
@@ -11795,12 +11801,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>nights_physical_rehab</t>
+          <t>nights_residential_mh</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Rehab facility for physical health: Number of nights</t>
+          <t>Residential treatment program for mental health: Number of nights</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -11810,7 +11816,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>[...nights were you in a residential, nursing home, or other rehabilitation facility for your physical health?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
+          <t>[...nights were you in a residential treatment program for mental health?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -11818,7 +11824,7 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>u5c</t>
+          <t>u5b</t>
         </is>
       </c>
       <c r="J212" t="inlineStr"/>
@@ -11844,12 +11850,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>visits_primary_care</t>
+          <t>nights_physical_rehab</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Primary care provider:  Number of visits</t>
+          <t>Rehab facility for physical health: Number of nights</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -11859,7 +11865,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>[...times have you visited a primary care provier (physician, nurse, nurse practitioner, or physician's assistant)?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
+          <t>[...nights were you in a residential, nursing home, or other rehabilitation facility for your physical health?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -11867,7 +11873,7 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>u6</t>
+          <t>u5c</t>
         </is>
       </c>
       <c r="J213" t="inlineStr"/>
@@ -11893,38 +11899,30 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>pc_reason_alc_drugs</t>
+          <t>visits_primary_care</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Primary care visit reason: Alcohol/drug use</t>
+          <t>Primary care provider:  Number of visits</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>[Alcohol or other drug use?] Why did you visit a primary care provider? (ADD SKIP LOGIC)</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>[...times have you visited a primary care provier (physician, nurse, nurse practitioner, or physician's assistant)?] During the past xx days (since last assessment), how many . . . [Write 0 days if you have not had this experience]</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>u6a</t>
+          <t>u6</t>
         </is>
       </c>
       <c r="J214" t="inlineStr"/>
@@ -11950,12 +11948,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>pc_reason_mh</t>
+          <t>pc_reason_alc_drugs</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Primary care visit reason: Mental health</t>
+          <t>Primary care visit reason: Alcohol/drug use</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -11965,7 +11963,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>[Mental health?] Why did you visit a primary care provider? (ADD SKIP LOGIC)</t>
+          <t>[Alcohol or other drug use?] Why did you visit a primary care provider? (ADD SKIP LOGIC)</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -11981,7 +11979,7 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>u6b</t>
+          <t>u6a</t>
         </is>
       </c>
       <c r="J215" t="inlineStr"/>
@@ -12007,12 +12005,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>pc_reason_physical</t>
+          <t>pc_reason_mh</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Primary care visit reason:  Physical health</t>
+          <t>Primary care visit reason: Mental health</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -12022,7 +12020,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>[Physical health?] Why did you visit a primary care provider? (ADD SKIP LOGIC)</t>
+          <t>[Mental health?] Why did you visit a primary care provider? (ADD SKIP LOGIC)</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -12038,7 +12036,7 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>u6c</t>
+          <t>u6b</t>
         </is>
       </c>
       <c r="J216" t="inlineStr"/>
@@ -12064,12 +12062,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>pc_reason_other</t>
+          <t>pc_reason_physical</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Primary care visit reason:  Some other reason (specify)</t>
+          <t>Primary care visit reason:  Physical health</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -12079,7 +12077,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>[Some other reason?] Why did you visit a primary care provider? (ADD SKIP LOGIC)</t>
+          <t>[Physical health?] Why did you visit a primary care provider? (ADD SKIP LOGIC)</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -12095,7 +12093,7 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>u6d</t>
+          <t>u6c</t>
         </is>
       </c>
       <c r="J217" t="inlineStr"/>
@@ -12121,30 +12119,38 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>pc_reason_other_specify</t>
+          <t>pc_reason_other</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Primary care visit reason: Specify other reason</t>
+          <t>Primary care visit reason:  Some other reason (specify)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>[Specify other reason you visited primary care provider] Why did you visit a primary care provider? (ADD SKIP LOGIC)</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
+          <t>[Some other reason?] Why did you visit a primary care provider? (ADD SKIP LOGIC)</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>u6d_specify</t>
+          <t>u6d</t>
         </is>
       </c>
       <c r="J218" t="inlineStr"/>
@@ -12170,22 +12176,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>op_tx_days</t>
+          <t>pc_reason_other_specify</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Outpatient treament program for alcohol/substance use: Number of days</t>
+          <t>Primary care visit reason: Specify other reason</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>[...days did you participate in any other outpatient treatment program specializing in alcohol or substance use? (OTHER THAN U1-6)                 ] Other than times you already mentioned in &lt;reference to u6&gt;, during the past 3 months (since last assessment), how many...</t>
+          <t>[Specify other reason you visited primary care provider] Why did you visit a primary care provider? (ADD SKIP LOGIC)</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -12193,7 +12199,7 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>u7</t>
+          <t>u6d_specify</t>
         </is>
       </c>
       <c r="J219" t="inlineStr"/>
@@ -12219,12 +12225,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>op_tx_days_visited</t>
+          <t>op_tx_days</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Outpatient treatment program: Number of days physically visiting program</t>
+          <t>Outpatient treament program for alcohol/substance use: Number of days</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -12234,7 +12240,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>How many of these days did you physically visit the (outpatient treatment) program?</t>
+          <t>[...days did you participate in any other outpatient treatment program specializing in alcohol or substance use? (OTHER THAN U1-6)                 ] Other than times you already mentioned in &lt;reference to u6&gt;, during the past 3 months (since last assessment), how many...</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -12242,7 +12248,7 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>u7a</t>
+          <t>u7</t>
         </is>
       </c>
       <c r="J220" t="inlineStr"/>
@@ -12268,12 +12274,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>op_tx_days_online</t>
+          <t>op_tx_days_visited</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Outpatient treatment program: Number of days participating online</t>
+          <t>Outpatient treatment program: Number of days physically visiting program</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -12283,7 +12289,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>How many of these days did you participate (in the outpatient tx program) online (e.g., smart phone, computer, or tablet)?</t>
+          <t>How many of these days did you physically visit the (outpatient treatment) program?</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -12291,7 +12297,7 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>u7b</t>
+          <t>u7a</t>
         </is>
       </c>
       <c r="J221" t="inlineStr"/>
@@ -12317,12 +12323,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>op_tx_days_doctor</t>
+          <t>op_tx_days_online</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Outpatient treatment program: Number of days seeing doctor</t>
+          <t>Outpatient treatment program: Number of days participating online</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -12332,7 +12338,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>How many of these days did you see a doctor (at the outpatient treatment program)?</t>
+          <t>How many of these days did you participate (in the outpatient tx program) online (e.g., smart phone, computer, or tablet)?</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -12340,7 +12346,7 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>u7c</t>
+          <t>u7b</t>
         </is>
       </c>
       <c r="J222" t="inlineStr"/>
@@ -12366,12 +12372,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>op_tx_days_therapy</t>
+          <t>op_tx_days_doctor</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Outpatient treatment program: Number of days participating in therapy</t>
+          <t>Outpatient treatment program: Number of days seeing doctor</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -12381,7 +12387,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>How many of these days did you only participate in individual or group therapy?</t>
+          <t>How many of these days did you see a doctor (at the outpatient treatment program)?</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -12389,7 +12395,7 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>u7d</t>
+          <t>u7c</t>
         </is>
       </c>
       <c r="J223" t="inlineStr"/>
@@ -12415,12 +12421,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>op_tx_days_moud_only</t>
+          <t>op_tx_days_therapy</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Outpatient treatment program: Number of days for medication management</t>
+          <t>Outpatient treatment program: Number of days participating in therapy</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -12430,7 +12436,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>How many of these days were for medication management only?</t>
+          <t>How many of these days did you only participate in individual or group therapy?</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -12438,7 +12444,7 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>u7e</t>
+          <t>u7d</t>
         </is>
       </c>
       <c r="J224" t="inlineStr"/>
@@ -12464,12 +12470,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>psych_visits</t>
+          <t>op_tx_days_moud_only</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Psychiatrist/psychologist:  Number of total visits</t>
+          <t>Outpatient treatment program: Number of days for medication management</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -12479,7 +12485,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Other than times you already mentioned above, during the past 3 months (since last assessment), how many times have you seen a psychiatrist (MD) or psychologist (Ph.D., Psy.D)?</t>
+          <t>How many of these days were for medication management only?</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -12487,7 +12493,7 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>u8</t>
+          <t>u7e</t>
         </is>
       </c>
       <c r="J225" t="inlineStr"/>
@@ -12513,12 +12519,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>psych_visits_in_person</t>
+          <t>psych_visits</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Psychiatrist/psychologist: Number of in-person visits</t>
+          <t>Psychiatrist/psychologist:  Number of total visits</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -12528,7 +12534,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>How many of these times did you physically visit the program (psychiatrist/psychologist)?</t>
+          <t>Other than times you already mentioned above, during the past 3 months (since last assessment), how many times have you seen a psychiatrist (MD) or psychologist (Ph.D., Psy.D)?</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -12536,7 +12542,7 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>u8a</t>
+          <t>u8</t>
         </is>
       </c>
       <c r="J226" t="inlineStr"/>
@@ -12562,12 +12568,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>psych_visits_online</t>
+          <t>psych_visits_in_person</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Psychiatrist/psychologist: Number of online visits</t>
+          <t>Psychiatrist/psychologist: Number of in-person visits</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -12577,7 +12583,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>How many of these times did you participate online (phone, computer, or tablet; with a psychiatrist/psychologist)?</t>
+          <t>How many of these times did you physically visit the program (psychiatrist/psychologist)?</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -12585,7 +12591,7 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>u8b</t>
+          <t>u8a</t>
         </is>
       </c>
       <c r="J227" t="inlineStr"/>
@@ -12611,12 +12617,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>counselor_visits</t>
+          <t>psych_visits_online</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Counselor/social worker: Number of total visits</t>
+          <t>Psychiatrist/psychologist: Number of online visits</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -12626,7 +12632,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Other than times you already mentioned above, during the past 3 months (since last assessment), how many times have you seen any other kind or counselor or social worker?</t>
+          <t>How many of these times did you participate online (phone, computer, or tablet; with a psychiatrist/psychologist)?</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -12634,7 +12640,7 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>u9</t>
+          <t>u8b</t>
         </is>
       </c>
       <c r="J228" t="inlineStr"/>
@@ -12660,12 +12666,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>counselor_visits_in_person</t>
+          <t>counselor_visits</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Counselor/social worker: Number of in-person visits</t>
+          <t>Counselor/social worker: Number of total visits</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -12675,7 +12681,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>[...did you physically visit the program (counselor/social worker)?] How many of these times did you...</t>
+          <t>Other than times you already mentioned above, during the past 3 months (since last assessment), how many times have you seen any other kind or counselor or social worker?</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -12683,7 +12689,7 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>u9a</t>
+          <t>u9</t>
         </is>
       </c>
       <c r="J229" t="inlineStr"/>
@@ -12709,12 +12715,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>counselor_visits_online</t>
+          <t>counselor_visits_in_person</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Counselor/social worker: Number of online visits</t>
+          <t>Counselor/social worker: Number of in-person visits</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -12724,7 +12730,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>...did you participate online (phone, computer, or tablet; with a counselor/social worker)?</t>
+          <t>[...did you physically visit the program (counselor/social worker)?] How many of these times did you...</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -12732,7 +12738,7 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>u9b</t>
+          <t>u9a</t>
         </is>
       </c>
       <c r="J230" t="inlineStr"/>
@@ -12758,22 +12764,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>healthcare_expense</t>
+          <t>counselor_visits_online</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Healthcare cost</t>
+          <t>Counselor/social worker: Number of online visits</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>In the past xx days (since last assessment), how much money have you spent on all healthcare (e.g., copayments or prescriptions)?</t>
+          <t>...did you participate online (phone, computer, or tablet; with a counselor/social worker)?</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -12781,7 +12787,7 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>u13</t>
+          <t>u9b</t>
         </is>
       </c>
       <c r="J231" t="inlineStr"/>
@@ -12807,38 +12813,30 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>received_sud_tx</t>
+          <t>healthcare_expense</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Substance use treatment</t>
+          <t>Healthcare cost</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Have you received any substance use treatment in the past xx days (since last assessment)?</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>In the past xx days (since last assessment), how much money have you spent on all healthcare (e.g., copayments or prescriptions)?</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>u14</t>
+          <t>u13</t>
         </is>
       </c>
       <c r="J232" t="inlineStr"/>
@@ -12864,34 +12862,38 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>sud_tx_organized</t>
+          <t>received_sud_tx</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Substance use tx provider:  Well-organized</t>
+          <t>Substance use treatment</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>[The provider is organized and well-run.] Considering the substance use treatment from your most recent substance abuse treatment provider in the past xx days (since last assessment), please indicate how much you agree with each of the following statements</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Strongly agree|Somewhat agree|Neutral|Somewhat disagree|Strongly disagree</t>
-        </is>
-      </c>
+          <t>Have you received any substance use treatment in the past xx days (since last assessment)?</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>u14a</t>
+          <t>u14</t>
         </is>
       </c>
       <c r="J233" t="inlineStr"/>
@@ -12917,12 +12919,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>sud_tx_satisfied</t>
+          <t>sud_tx_organized</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Substance use tx provider:  Satisfaction</t>
+          <t>Substance use tx provider:  Well-organized</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -12932,7 +12934,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>[You are satisfied with this provider.] Considering the substance use treatment from your most recent substance abuse treatment provider in the past xx days (since last assessment), please indicate how much you agree with each of the following statements</t>
+          <t>[The provider is organized and well-run.] Considering the substance use treatment from your most recent substance abuse treatment provider in the past xx days (since last assessment), please indicate how much you agree with each of the following statements</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -12944,7 +12946,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>u14b</t>
+          <t>u14a</t>
         </is>
       </c>
       <c r="J234" t="inlineStr"/>
@@ -12970,12 +12972,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>sud_tx_efficient</t>
+          <t>sud_tx_satisfied</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Substance use tx provider:  Efficient staff</t>
+          <t>Substance use tx provider:  Satisfaction</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -12985,7 +12987,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>[The staff are efficient at doing their job.] Considering the substance use treatment from your most recent substance abuse treatment provider in the past xx days (since last assessment), please indicate how much you agree with each of the following statements</t>
+          <t>[You are satisfied with this provider.] Considering the substance use treatment from your most recent substance abuse treatment provider in the past xx days (since last assessment), please indicate how much you agree with each of the following statements</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -12997,7 +12999,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>u14c</t>
+          <t>u14b</t>
         </is>
       </c>
       <c r="J235" t="inlineStr"/>
@@ -13023,12 +13025,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>sud_tx_personal</t>
+          <t>sud_tx_efficient</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Substance use tx provider:  Personal counseling</t>
+          <t>Substance use tx provider:  Efficient staff</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -13038,7 +13040,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>[You can get plenty of personal counseling at this provider.] Considering the substance use treatment from your most recent substance abuse treatment provider in the past xx days (since last assessment), please indicate how much you agree with each of the following statements</t>
+          <t>[The staff are efficient at doing their job.] Considering the substance use treatment from your most recent substance abuse treatment provider in the past xx days (since last assessment), please indicate how much you agree with each of the following statements</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -13050,7 +13052,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>u14d</t>
+          <t>u14c</t>
         </is>
       </c>
       <c r="J236" t="inlineStr"/>
@@ -13076,12 +13078,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>sud_tx_moud</t>
+          <t>sud_tx_personal</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Substance use tx provider:  Medication assistance for opioid use</t>
+          <t>Substance use tx provider:  Personal counseling</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -13091,7 +13093,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>[You can get plenty of medication assistance for opioid use at this provider.] Considering the substance use treatment from your most recent substance abuse treatment provider in the past xx days (since last assessment), please indicate how much you agree with each of the following statements</t>
+          <t>[You can get plenty of personal counseling at this provider.] Considering the substance use treatment from your most recent substance abuse treatment provider in the past xx days (since last assessment), please indicate how much you agree with each of the following statements</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -13103,7 +13105,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>u14e</t>
+          <t>u14d</t>
         </is>
       </c>
       <c r="J237" t="inlineStr"/>
@@ -13124,43 +13126,39 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Treatment Preferences</t>
+          <t>Utilization of Services</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>oud_tx_not_appropriate</t>
+          <t>sud_tx_moud</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Not candidate for OUD treatment</t>
+          <t>Substance use tx provider:  Medication assistance for opioid use</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>If respondent is not a candidate for OUD treatment, mark here and skip this set of items:</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr"/>
+          <t>[You can get plenty of medication assistance for opioid use at this provider.] Considering the substance use treatment from your most recent substance abuse treatment provider in the past xx days (since last assessment), please indicate how much you agree with each of the following statements</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Strongly agree|Somewhat agree|Neutral|Somewhat disagree|Strongly disagree</t>
+        </is>
+      </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>m1</t>
+          <t>u14e</t>
         </is>
       </c>
       <c r="J238" t="inlineStr"/>
@@ -13186,12 +13184,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>prefer_oud_meds</t>
+          <t>oud_tx_not_appropriate</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Preferred type of OUD treatment:  OUD medication</t>
+          <t>Not candidate for OUD treatment</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -13201,7 +13199,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>[OUD medication (e.g. methadone, buprenorphine/Suboxone, naltrexone/Vivitrol) [Ask M3]] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
+          <t>If respondent is not a candidate for OUD treatment, mark here and skip this set of items:</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -13217,7 +13215,7 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>m2_meds</t>
+          <t>m1</t>
         </is>
       </c>
       <c r="J239" t="inlineStr"/>
@@ -13243,12 +13241,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>prefer_oud_detox</t>
+          <t>prefer_oud_meds</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Preferred type of OUD treatment:  Detox</t>
+          <t>Preferred type of OUD treatment:  OUD medication</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -13258,7 +13256,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>[Detox] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
+          <t>[OUD medication (e.g. methadone, buprenorphine/Suboxone, naltrexone/Vivitrol) [Ask M3]] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -13274,7 +13272,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>m2_detox</t>
+          <t>m2_meds</t>
         </is>
       </c>
       <c r="J240" t="inlineStr"/>
@@ -13300,12 +13298,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>prefer_oud_op</t>
+          <t>prefer_oud_detox</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Preferred type of OUD treatment:  Outpatient counseling</t>
+          <t>Preferred type of OUD treatment:  Detox</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -13315,7 +13313,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>[Outpatient counseling] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
+          <t>[Detox] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -13331,7 +13329,7 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>m2_outpt_counsel</t>
+          <t>m2_detox</t>
         </is>
       </c>
       <c r="J241" t="inlineStr"/>
@@ -13357,12 +13355,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>prefer_oud_iop</t>
+          <t>prefer_oud_op</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Preferred type of OUD treatment:  Intensive outpatient</t>
+          <t>Preferred type of OUD treatment:  Outpatient counseling</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -13372,7 +13370,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>[Intensive outpatientâ€¯Â ] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
+          <t>[Outpatient counseling] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -13388,7 +13386,7 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>m2_outpt_intensive</t>
+          <t>m2_outpt_counsel</t>
         </is>
       </c>
       <c r="J242" t="inlineStr"/>
@@ -13414,12 +13412,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>prefer_oud_residential</t>
+          <t>prefer_oud_iop</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Preferred type of OUD treatment:  Residential treatment</t>
+          <t>Preferred type of OUD treatment:  Intensive outpatient</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -13429,7 +13427,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>[Residential treatmentÂ ] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
+          <t>[Intensive outpatientâ€¯Â ] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -13445,7 +13443,7 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>m2_residential</t>
+          <t>m2_outpt_intensive</t>
         </is>
       </c>
       <c r="J243" t="inlineStr"/>
@@ -13471,12 +13469,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>prefer_oud_other_tx</t>
+          <t>prefer_oud_residential</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Preferred type of OUD treatment:  Other treatment</t>
+          <t>Preferred type of OUD treatment:  Residential treatment</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -13486,7 +13484,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>[Other ] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
+          <t>[Residential treatmentÂ ] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -13502,7 +13500,7 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>m2_other</t>
+          <t>m2_residential</t>
         </is>
       </c>
       <c r="J244" t="inlineStr"/>
@@ -13528,12 +13526,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>prefer_oud_other_specify</t>
+          <t>prefer_oud_other_tx</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Preferred type of OUD treatment:  Other treatment specified</t>
+          <t>Preferred type of OUD treatment:  Other treatment</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -13543,7 +13541,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>[Other (specify)] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
+          <t>[Other ] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -13559,7 +13557,7 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>m2_other_specify</t>
+          <t>m2_other</t>
         </is>
       </c>
       <c r="J245" t="inlineStr"/>
@@ -13585,12 +13583,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>prefer_oud_no_treatment</t>
+          <t>prefer_oud_other_specify</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Preferred type of OUD treatment:  No treatment</t>
+          <t>Preferred type of OUD treatment:  Other treatment specified</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -13600,7 +13598,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>[No treatmentÂ ] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
+          <t>[Other (specify)] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -13616,7 +13614,7 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>m2_none</t>
+          <t>m2_other_specify</t>
         </is>
       </c>
       <c r="J246" t="inlineStr"/>
@@ -13642,12 +13640,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>prefer_oud_dk</t>
+          <t>prefer_oud_no_treatment</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Preferred type of OUD treatment:  Don't know or no preference</t>
+          <t>Preferred type of OUD treatment:  No treatment</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -13657,7 +13655,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>[Donâ€™t know / No preferenceÂ ] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
+          <t>[No treatmentÂ ] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -13673,7 +13671,7 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>m2_dont_know</t>
+          <t>m2_none</t>
         </is>
       </c>
       <c r="J247" t="inlineStr"/>
@@ -13699,34 +13697,38 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>prefer_moud_type</t>
+          <t>prefer_oud_dk</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Preferred OUD medication</t>
+          <t>Preferred type of OUD treatment:  Don't know or no preference</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Which OUD medication treatment type would you most prefer to receive if it were available to you now? (SELECT ONLY ONE) [SKIP LOGIC:  If M3=2, ask M4. If M3=3, ask M5. Otherwise go to next set of questions.]</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Methadone|Buprenorphine/Suboxone|Naltrexone/Vivitrol|Don't know/No preference</t>
-        </is>
-      </c>
+          <t>[Donâ€™t know / No preferenceÂ ] Which type of opioid use disorder (OUD) treatment would you most prefer to receive if it were available to you now? (CHECK ALL THAT APPLY)</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>m3</t>
+          <t>m2_dont_know</t>
         </is>
       </c>
       <c r="J248" t="inlineStr"/>
@@ -13752,12 +13754,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>prefer_which_bup</t>
+          <t>prefer_moud_type</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Type of buprenorphine preferred</t>
+          <t>Preferred OUD medication</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -13767,19 +13769,19 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Which type of buprenorphine? (SELECT ONLY ONE)</t>
+          <t>Which OUD medication treatment type would you most prefer to receive if it were available to you now? (SELECT ONLY ONE) [SKIP LOGIC:  If M3=2, ask M4. If M3=3, ask M5. Otherwise go to next set of questions.]</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr">
         <is>
-          <t>I would prefer to receive daily buprenorphine-naloxone sublingual tablets or films (Suboxone)|I would prefer to receive monthly or weekly buprenorphine injections (e.g., Sublocade, Brixadi)|I would prefer to receive the 6-month buprenorphine implant|Don't know/No preference</t>
+          <t>Methadone|Buprenorphine/Suboxone|Naltrexone/Vivitrol|Don't know/No preference</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>m4</t>
+          <t>m3</t>
         </is>
       </c>
       <c r="J249" t="inlineStr"/>
@@ -13805,12 +13807,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>prefer_which_naloxone</t>
+          <t>prefer_which_bup</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Type of naltrexone preferred</t>
+          <t>Type of buprenorphine preferred</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -13820,19 +13822,19 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Which type of naltrexone? (SELECT ONLY ONE)</t>
+          <t>Which type of buprenorphine? (SELECT ONLY ONE)</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="inlineStr">
         <is>
-          <t>I would prefer to receive daily naltrexone oral (Revia)|I would prefer to receive monthly naltrexone injections (Vivitrol)|Don't know/No preference</t>
+          <t>I would prefer to receive daily buprenorphine-naloxone sublingual tablets or films (Suboxone)|I would prefer to receive monthly or weekly buprenorphine injections (e.g., Sublocade, Brixadi)|I would prefer to receive the 6-month buprenorphine implant|Don't know/No preference</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>m5</t>
+          <t>m4</t>
         </is>
       </c>
       <c r="J250" t="inlineStr"/>
@@ -13853,35 +13855,39 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>Treatment Preferences</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>household_people</t>
+          <t>prefer_which_naloxone</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>People in household</t>
+          <t>Type of naltrexone preferred</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>[How many people, including yourself, are there in your household?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
+          <t>Which type of naltrexone? (SELECT ONLY ONE)</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>I would prefer to receive daily naltrexone oral (Revia)|I would prefer to receive monthly naltrexone injections (Vivitrol)|Don't know/No preference</t>
+        </is>
+      </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>d7a</t>
+          <t>m5</t>
         </is>
       </c>
       <c r="J251" t="inlineStr"/>
@@ -13894,11 +13900,7 @@
           <t>table-schema-time-points</t>
         </is>
       </c>
-      <c r="P251" t="inlineStr">
-        <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o3</t>
-        </is>
-      </c>
+      <c r="P251" t="inlineStr"/>
       <c r="Q251" t="inlineStr"/>
       <c r="R251" t="inlineStr"/>
       <c r="S251" t="inlineStr"/>
@@ -13911,12 +13913,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>household_under_18</t>
+          <t>household_people</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>People under 18 years old in household</t>
+          <t>People in household</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -13926,7 +13928,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>[How many of the people in your household are under the age of 18?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
+          <t>[How many people, including yourself, are there in your household?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -13934,7 +13936,7 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>d7b</t>
+          <t>d7a</t>
         </is>
       </c>
       <c r="J252" t="inlineStr"/>
@@ -13949,7 +13951,7 @@
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o4</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o3</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr"/>
@@ -13964,22 +13966,22 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>household_income</t>
+          <t>household_under_18</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Total household income</t>
+          <t>People under 18 years old in household</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>[During the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;, what was the total income of everyone in your household together that provided you with support?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
+          <t>[How many of the people in your household are under the age of 18?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -13987,7 +13989,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>d7c</t>
+          <t>d7b</t>
         </is>
       </c>
       <c r="J253" t="inlineStr"/>
@@ -14002,7 +14004,7 @@
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o5</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o4</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr"/>
@@ -14017,34 +14019,30 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>household_income_legal</t>
+          <t>household_income</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Total household income from legal sources</t>
+          <t>Total household income</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>[During the past 12 months, which of the following is the category that your total household income from legal sources would be in?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
+          <t>[During the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;, what was the total income of everyone in your household together that provided you with support?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Less than $12,500|$12,500 - $20,000|$20,001 - $30,000|$30,001 - $40,000|$40,001 - $50,000|$50,001 - $100,000|More than $100,000</t>
-        </is>
-      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>d7d</t>
+          <t>d7c</t>
         </is>
       </c>
       <c r="J254" t="inlineStr"/>
@@ -14059,7 +14057,7 @@
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o6</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o5</t>
         </is>
       </c>
       <c r="Q254" t="inlineStr"/>
@@ -14074,38 +14072,34 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>household_public_assist_any</t>
+          <t>household_income_legal</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Public assistance for household</t>
+          <t>Total household income from legal sources</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>[During the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;, did your household receive any public assistance like unemployment, food stamps / TANF, subsidized housing, or supplemental security income?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr"/>
+          <t>[During the past 12 months, which of the following is the category that your total household income from legal sources would be in?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Less than $12,500|$12,500 - $20,000|$20,001 - $30,000|$30,001 - $40,000|$40,001 - $50,000|$50,001 - $100,000|More than $100,000</t>
+        </is>
+      </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>d7d1</t>
+          <t>d7d</t>
         </is>
       </c>
       <c r="J255" t="inlineStr"/>
@@ -14120,7 +14114,7 @@
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>If No, then skip to d7e1. The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o7</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o6</t>
         </is>
       </c>
       <c r="Q255" t="inlineStr"/>
@@ -14135,30 +14129,38 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>household_public_assist_dollars</t>
+          <t>household_public_assist_any</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Total household money from public assistance</t>
+          <t>Public assistance for household</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>[During the past xx days (since last assessment), approximately how much money has your household all together received from public assistance sources like unemployment, food stamps (TANF), subsidized housing, supplemental security income?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
+          <t>[During the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;, did your household receive any public assistance like unemployment, food stamps / TANF, subsidized housing, or supplemental security income?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>d7d2</t>
+          <t>d7d1</t>
         </is>
       </c>
       <c r="J256" t="inlineStr"/>
@@ -14173,7 +14175,7 @@
       </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o8</t>
+          <t>If No, then skip to d7e1. The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o7</t>
         </is>
       </c>
       <c r="Q256" t="inlineStr"/>
@@ -14188,22 +14190,22 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>household_nonemploy_any</t>
+          <t>household_public_assist_dollars</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Other non-employmnet income sources</t>
+          <t>Total household money from public assistance</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>[During the past xx days (since last assessment), did your household receive any other non-employment income sources like retirement, pension, alimony, child support, or interest?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
+          <t>[During the past xx days (since last assessment), approximately how much money has your household all together received from public assistance sources like unemployment, food stamps (TANF), subsidized housing, supplemental security income?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -14211,7 +14213,7 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>d7e1</t>
+          <t>d7d2</t>
         </is>
       </c>
       <c r="J257" t="inlineStr"/>
@@ -14226,7 +14228,7 @@
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>If No, [GO TO D7f1] The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o9</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o8</t>
         </is>
       </c>
       <c r="Q257" t="inlineStr"/>
@@ -14241,22 +14243,22 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>household_nonemploy_dollars</t>
+          <t>household_nonemploy_any</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Total household money from other non-employment income sources</t>
+          <t>Other non-employmnet income sources</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>[During the past xx days (since last assessment), approximately how much money has your household all together received from other non-employment sources like retirement, pension, alimony, child support, interest?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
+          <t>[During the past xx days (since last assessment), did your household receive any other non-employment income sources like retirement, pension, alimony, child support, or interest?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -14264,7 +14266,7 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>d7e2</t>
+          <t>d7e1</t>
         </is>
       </c>
       <c r="J258" t="inlineStr"/>
@@ -14279,7 +14281,7 @@
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o10</t>
+          <t>If No, [GO TO D7f1] The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o9</t>
         </is>
       </c>
       <c r="Q258" t="inlineStr"/>
@@ -14294,38 +14296,30 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>household_income_illegal_any</t>
+          <t>household_nonemploy_dollars</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Non-employment income with risk of legal or other trouble</t>
+          <t>Total household money from other non-employment income sources</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>[During the past xx days (since last assessment), outside of employment described above, did you receive any other income from activities that might get you into trouble or be against the law, like dealing, gambling, or theft?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>[During the past xx days (since last assessment), approximately how much money has your household all together received from other non-employment sources like retirement, pension, alimony, child support, interest?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>d7f1</t>
+          <t>d7e2</t>
         </is>
       </c>
       <c r="J259" t="inlineStr"/>
@@ -14340,7 +14334,7 @@
       </c>
       <c r="P259" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o11</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o10</t>
         </is>
       </c>
       <c r="Q259" t="inlineStr"/>
@@ -14355,30 +14349,38 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>household_income_illegal_dollars</t>
+          <t>household_income_illegal_any</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Total household money with risk of causing  legal or other trouble activities</t>
+          <t>Non-employment income with risk of legal or other trouble</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>[During the past xx days (since last assessment), outside of employment described above, how much money did you earn from activities that might get you into trouble or be against the law, like dealing, gambling, or theft? ] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
+          <t>[During the past xx days (since last assessment), outside of employment described above, did you receive any other income from activities that might get you into trouble or be against the law, like dealing, gambling, or theft?] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>d7f2</t>
+          <t>d7f1</t>
         </is>
       </c>
       <c r="J260" t="inlineStr"/>
@@ -14393,7 +14395,7 @@
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o12</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o11</t>
         </is>
       </c>
       <c r="Q260" t="inlineStr"/>
@@ -14408,34 +14410,30 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>current_work_school</t>
+          <t>household_income_illegal_dollars</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Current school or work situation description</t>
+          <t>Total household money with risk of causing  legal or other trouble activities</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Which one of the following statements best describes your work or school situation currently? (CLARIFY AND CODE) [For D8, include work under the table but not any other illegal work or income]</t>
+          <t>[During the past xx days (since last assessment), outside of employment described above, how much money did you earn from activities that might get you into trouble or be against the law, like dealing, gambling, or theft? ] The next few questions are about your HOUSEHOLD in the past &lt;if baseline: 90 days/90 days prior to entering jail; if follow up: xx days (since last assessment/interview/contact/visit)&gt;.  Your household includes people you live with, and with whom you share your income and expenses â€“ husband, wife, children, relatives, and others.</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Working full-time, 35 hours or more a week|Working part-time, less than 35 hours a week|Have a job where you are paid one day at a time (day labor)|Have a job, but not at work because of treatment, extended illness, maternity leave, furlough or strike|Have a job, but not at work because it is seasonal work|Unemployed or laid off and looking for work|Unemployed or laid off and not looking for work|Full-time homemaker (keeping house)|In school or training|In school or training, but not currently going to classes|Retired|In jail, prison or detention|Too disabled for work|In the military|Doing volunteer work|Some other work situation</t>
-        </is>
-      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>d8</t>
+          <t>d7f2</t>
         </is>
       </c>
       <c r="J261" t="inlineStr"/>
@@ -14450,7 +14448,7 @@
       </c>
       <c r="P261" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o13</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o12</t>
         </is>
       </c>
       <c r="Q261" t="inlineStr"/>
@@ -14465,30 +14463,34 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>work_days</t>
+          <t>current_work_school</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Number of days worked</t>
+          <t>Current school or work situation description</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>During the past xx days (since last assessment), on how many days have you worked?</t>
+          <t>Which one of the following statements best describes your work or school situation currently? (CLARIFY AND CODE) [For D8, include work under the table but not any other illegal work or income]</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Working full-time, 35 hours or more a week|Working part-time, less than 35 hours a week|Have a job where you are paid one day at a time (day labor)|Have a job, but not at work because of treatment, extended illness, maternity leave, furlough or strike|Have a job, but not at work because it is seasonal work|Unemployed or laid off and looking for work|Unemployed or laid off and not looking for work|Full-time homemaker (keeping house)|In school or training|In school or training, but not currently going to classes|Retired|In jail, prison or detention|Too disabled for work|In the military|Doing volunteer work|Some other work situation</t>
+        </is>
+      </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>d8a</t>
+          <t>d8</t>
         </is>
       </c>
       <c r="J262" t="inlineStr"/>
@@ -14503,7 +14505,7 @@
       </c>
       <c r="P262" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o14</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o13</t>
         </is>
       </c>
       <c r="Q262" t="inlineStr"/>
@@ -14518,12 +14520,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>work_typical_days_week</t>
+          <t>work_days</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Days per week worked</t>
+          <t>Number of days worked</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -14533,7 +14535,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>During the past xx days (since last assessment), how many days per week do you typically work?</t>
+          <t>During the past xx days (since last assessment), on how many days have you worked?</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -14541,7 +14543,7 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>d8b</t>
+          <t>d8a</t>
         </is>
       </c>
       <c r="J263" t="inlineStr"/>
@@ -14556,7 +14558,7 @@
       </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o15</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o14</t>
         </is>
       </c>
       <c r="Q263" t="inlineStr"/>
@@ -14571,12 +14573,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>work_hours_week</t>
+          <t>work_typical_days_week</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Hours per week worked</t>
+          <t>Days per week worked</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -14586,7 +14588,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>During the past xx days (since last assessment), How many hours per week do you usually work?</t>
+          <t>During the past xx days (since last assessment), how many days per week do you typically work?</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
@@ -14594,7 +14596,7 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>d8b1</t>
+          <t>d8b</t>
         </is>
       </c>
       <c r="J264" t="inlineStr"/>
@@ -14609,7 +14611,7 @@
       </c>
       <c r="P264" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o16</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o15</t>
         </is>
       </c>
       <c r="Q264" t="inlineStr"/>
@@ -14624,22 +14626,22 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>work_hourly_wage</t>
+          <t>work_hours_week</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Hourly rate</t>
+          <t>Hours per week worked</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>During the past xx days (since last assessment), approximately how much do you make per hour? [If someone is working multiple jobs, take the average amount per hour across the job]</t>
+          <t>During the past xx days (since last assessment), How many hours per week do you usually work?</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
@@ -14647,7 +14649,7 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>d8c</t>
+          <t>d8b1</t>
         </is>
       </c>
       <c r="J265" t="inlineStr"/>
@@ -14662,7 +14664,7 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o17</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o16</t>
         </is>
       </c>
       <c r="Q265" t="inlineStr"/>
@@ -14677,38 +14679,30 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>work_health_insurance</t>
+          <t>work_hourly_wage</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Health insurance from work</t>
+          <t>Hourly rate</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>[Health Insurance] Do any of the places that you work offer you the following benefits? (MARK ALL THAT APPLY)</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>During the past xx days (since last assessment), approximately how much do you make per hour? [If someone is working multiple jobs, take the average amount per hour across the job]</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>d8d_health_insurance</t>
+          <t>d8c</t>
         </is>
       </c>
       <c r="J266" t="inlineStr"/>
@@ -14723,7 +14717,7 @@
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o18</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o17</t>
         </is>
       </c>
       <c r="Q266" t="inlineStr"/>
@@ -14738,12 +14732,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>work_paid_time_off</t>
+          <t>work_health_insurance</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Paid time off from work</t>
+          <t>Health insurance from work</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -14753,7 +14747,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>[Paid time off] Do any of the places that you work offer you the following benefits? (MARK ALL THAT APPLY)</t>
+          <t>[Health Insurance] Do any of the places that you work offer you the following benefits? (MARK ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -14769,7 +14763,7 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>d8d_paid_time_off</t>
+          <t>d8d_health_insurance</t>
         </is>
       </c>
       <c r="J267" t="inlineStr"/>
@@ -14784,7 +14778,7 @@
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o19</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o18</t>
         </is>
       </c>
       <c r="Q267" t="inlineStr"/>
@@ -14799,12 +14793,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>work_pension</t>
+          <t>work_paid_time_off</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Benefit or pension plan from work</t>
+          <t>Paid time off from work</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -14814,7 +14808,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>[Defined benefit plan or pension] Do any of the places that you work offer you the following benefits? (MARK ALL THAT APPLY)</t>
+          <t>[Paid time off] Do any of the places that you work offer you the following benefits? (MARK ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -14830,7 +14824,7 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>d8d_benefit_plan</t>
+          <t>d8d_paid_time_off</t>
         </is>
       </c>
       <c r="J268" t="inlineStr"/>
@@ -14845,7 +14839,7 @@
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o20</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o19</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr"/>
@@ -14860,12 +14854,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>work_retirement_plan</t>
+          <t>work_pension</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Retirement plan from work</t>
+          <t>Benefit or pension plan from work</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -14875,7 +14869,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>[An arrangement such as a 401(k) or 403(b) plan, under which your employer contributes money towards your retirement every pay period] Do any of the places that you work offer you the following benefits? (MARK ALL THAT APPLY)</t>
+          <t>[Defined benefit plan or pension] Do any of the places that you work offer you the following benefits? (MARK ALL THAT APPLY)</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -14891,7 +14885,7 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>d8d_retirement_plan</t>
+          <t>d8d_benefit_plan</t>
         </is>
       </c>
       <c r="J269" t="inlineStr"/>
@@ -14906,7 +14900,7 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o21</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o20</t>
         </is>
       </c>
       <c r="Q269" t="inlineStr"/>
@@ -14921,30 +14915,38 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>work_occupation</t>
+          <t>work_retirement_plan</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Occupation</t>
+          <t>Retirement plan from work</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>What is your occupation?</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
+          <t>[An arrangement such as a 401(k) or 403(b) plan, under which your employer contributes money towards your retirement every pay period] Do any of the places that you work offer you the following benefits? (MARK ALL THAT APPLY)</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>d8e</t>
+          <t>d8d_retirement_plan</t>
         </is>
       </c>
       <c r="J270" t="inlineStr"/>
@@ -14959,7 +14961,7 @@
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o22</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o21</t>
         </is>
       </c>
       <c r="Q270" t="inlineStr"/>
@@ -14974,38 +14976,30 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>have_health_insurance</t>
+          <t>work_occupation</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Currently covered by health insurance</t>
+          <t>Occupation</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Are you currently covered by health insurance or some other kind of health care plan?</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>What is your occupation?</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>d9</t>
+          <t>d8e</t>
         </is>
       </c>
       <c r="J271" t="inlineStr"/>
@@ -15020,7 +15014,7 @@
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o22</t>
         </is>
       </c>
       <c r="Q271" t="inlineStr"/>
@@ -15035,12 +15029,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>insured_private</t>
+          <t>have_health_insurance</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Private health insurance plan coverage</t>
+          <t>Currently covered by health insurance</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -15050,7 +15044,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>[Private health insurance] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
+          <t>Are you currently covered by health insurance or some other kind of health care plan?</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -15066,7 +15060,7 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>d9a_private</t>
+          <t>d9</t>
         </is>
       </c>
       <c r="J272" t="inlineStr"/>
@@ -15096,12 +15090,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>insured_medicare</t>
+          <t>insured_private</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Medicare plan coverage</t>
+          <t>Private health insurance plan coverage</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -15111,7 +15105,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>[Medicare] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
+          <t>[Private health insurance] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -15127,7 +15121,7 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>d9a_medicare</t>
+          <t>d9a_private</t>
         </is>
       </c>
       <c r="J273" t="inlineStr"/>
@@ -15142,7 +15136,7 @@
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o24</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
         </is>
       </c>
       <c r="Q273" t="inlineStr"/>
@@ -15157,12 +15151,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>insured_medigap</t>
+          <t>insured_medicare</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Medigap plan coverage</t>
+          <t>Medicare plan coverage</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -15172,7 +15166,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>[Medigap] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
+          <t>[Medicare] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -15188,7 +15182,7 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>d9a_medigap</t>
+          <t>d9a_medicare</t>
         </is>
       </c>
       <c r="J274" t="inlineStr"/>
@@ -15203,7 +15197,7 @@
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o25</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o24</t>
         </is>
       </c>
       <c r="Q274" t="inlineStr"/>
@@ -15218,12 +15212,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>insured_medicaid</t>
+          <t>insured_medigap</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Medicaid plan coverage</t>
+          <t>Medigap plan coverage</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -15233,7 +15227,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>[Medicaid ({If Available, Display State Plan Name})] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
+          <t>[Medigap] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -15249,7 +15243,7 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>d9a_medicaid</t>
+          <t>d9a_medigap</t>
         </is>
       </c>
       <c r="J275" t="inlineStr"/>
@@ -15264,7 +15258,7 @@
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o26</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o25</t>
         </is>
       </c>
       <c r="Q275" t="inlineStr"/>
@@ -15279,12 +15273,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>insured_chip</t>
+          <t>insured_medicaid</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Children's Health Insurance coverage</t>
+          <t>Medicaid plan coverage</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -15294,7 +15288,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>[SCHIP (CHIP/Childrenâ€™s Health Insurance Program)] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
+          <t>[Medicaid ({If Available, Display State Plan Name})] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -15310,7 +15304,7 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>d9a_schip</t>
+          <t>d9a_medicaid</t>
         </is>
       </c>
       <c r="J276" t="inlineStr"/>
@@ -15325,7 +15319,7 @@
       </c>
       <c r="P276" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o27</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o26</t>
         </is>
       </c>
       <c r="Q276" t="inlineStr"/>
@@ -15340,12 +15334,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>insured_military</t>
+          <t>insured_chip</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Military plan coverage</t>
+          <t>Children's Health Insurance coverage</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -15355,7 +15349,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>[Military Health Care (Tricare/VA/CHAMP-VA)] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
+          <t>[SCHIP (CHIP/Childrenâ€™s Health Insurance Program)] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -15371,7 +15365,7 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>d9a_military</t>
+          <t>d9a_schip</t>
         </is>
       </c>
       <c r="J277" t="inlineStr"/>
@@ -15386,7 +15380,7 @@
       </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o28</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o27</t>
         </is>
       </c>
       <c r="Q277" t="inlineStr"/>
@@ -15401,12 +15395,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>insured_indian</t>
+          <t>insured_military</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Indian Health Service coverage</t>
+          <t>Military plan coverage</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -15416,7 +15410,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>[Indian Health Service] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
+          <t>[Military Health Care (Tricare/VA/CHAMP-VA)] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -15432,7 +15426,7 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>d9a_indian</t>
+          <t>d9a_military</t>
         </is>
       </c>
       <c r="J278" t="inlineStr"/>
@@ -15447,7 +15441,7 @@
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o29</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o28</t>
         </is>
       </c>
       <c r="Q278" t="inlineStr"/>
@@ -15462,12 +15456,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>insured_state</t>
+          <t>insured_indian</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>State health coverage</t>
+          <t>Indian Health Service coverage</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -15477,7 +15471,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>[State-Sponsored Health Plan ({If Available, Display State Plan Name})] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
+          <t>[Indian Health Service] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -15493,7 +15487,7 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>d9a_state</t>
+          <t>d9a_indian</t>
         </is>
       </c>
       <c r="J279" t="inlineStr"/>
@@ -15508,7 +15502,7 @@
       </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o30</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o29</t>
         </is>
       </c>
       <c r="Q279" t="inlineStr"/>
@@ -15523,12 +15517,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>insured_other_gov</t>
+          <t>insured_state</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Other government coverage</t>
+          <t>State health coverage</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -15538,7 +15532,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>[Other government program] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
+          <t>[State-Sponsored Health Plan ({If Available, Display State Plan Name})] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -15554,7 +15548,7 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>d9a_other_government</t>
+          <t>d9a_state</t>
         </is>
       </c>
       <c r="J280" t="inlineStr"/>
@@ -15569,7 +15563,7 @@
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o31</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o30</t>
         </is>
       </c>
       <c r="Q280" t="inlineStr"/>
@@ -15584,12 +15578,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>insured_single_service</t>
+          <t>insured_other_gov</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Single service coverage</t>
+          <t>Other government coverage</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -15599,7 +15593,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>[Single service plan (e.g., dental, vision, prescriptions)] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
+          <t>[Other government program] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -15615,7 +15609,7 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>d9a_single_service</t>
+          <t>d9a_other_government</t>
         </is>
       </c>
       <c r="J281" t="inlineStr"/>
@@ -15630,7 +15624,7 @@
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o32</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o31</t>
         </is>
       </c>
       <c r="Q281" t="inlineStr"/>
@@ -15645,12 +15639,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>insured_dont_know</t>
+          <t>insured_single_service</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Don't know about coverage</t>
+          <t>Single service coverage</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -15660,7 +15654,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>[Don't know] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
+          <t>[Single service plan (e.g., dental, vision, prescriptions)] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -15676,7 +15670,7 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>d9a_dont_know</t>
+          <t>d9a_single_service</t>
         </is>
       </c>
       <c r="J282" t="inlineStr"/>
@@ -15691,7 +15685,7 @@
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o33</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o32</t>
         </is>
       </c>
       <c r="Q282" t="inlineStr"/>
@@ -15706,30 +15700,38 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>days_uninsured</t>
+          <t>insured_dont_know</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Days uninsured</t>
+          <t>Don't know about coverage</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>During the past xx days (since last assessment), on how many days were you uninsured?</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
+          <t>[Don't know] What kind of health insurance or health care coverage do you have?  Include those that pay for only one type of service (such as nursing home care, accidents, or dental care).  Exclude private plans that only provide extra cash while hospitalized.  If you have more than one kind of health insurance, tell me all plans that you have. [MARK ALL THAT APPLY]</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>d10</t>
+          <t>d9a_dont_know</t>
         </is>
       </c>
       <c r="J283" t="inlineStr"/>
@@ -15744,7 +15746,7 @@
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o34</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o33</t>
         </is>
       </c>
       <c r="Q283" t="inlineStr"/>
@@ -15759,12 +15761,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>days_self_help</t>
+          <t>days_uninsured</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Number of days at self help group</t>
+          <t>Days uninsured</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -15774,7 +15776,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>[Been to self-help group meetings (such as AA, NA, CA, or SMART Recovery) for your alcohol or other drug use? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
+          <t>During the past xx days (since last assessment), on how many days were you uninsured?</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -15782,7 +15784,7 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>d11a</t>
+          <t>d10</t>
         </is>
       </c>
       <c r="J284" t="inlineStr"/>
@@ -15797,7 +15799,7 @@
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o35</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o34</t>
         </is>
       </c>
       <c r="Q284" t="inlineStr"/>
@@ -15812,12 +15814,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>days_drugfree_activity</t>
+          <t>days_self_help</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Number of days at non-alcoholic, structured activities</t>
+          <t>Number of days at self help group</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -15827,7 +15829,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>[Been in other structured activities where no one was using alcohol or drugs? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
+          <t>[Been to self-help group meetings (such as AA, NA, CA, or SMART Recovery) for your alcohol or other drug use? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -15835,7 +15837,7 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>d11b</t>
+          <t>d11a</t>
         </is>
       </c>
       <c r="J285" t="inlineStr"/>
@@ -15850,7 +15852,7 @@
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o36</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o35</t>
         </is>
       </c>
       <c r="Q285" t="inlineStr"/>
@@ -15865,12 +15867,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>days_homeless</t>
+          <t>days_drugfree_activity</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Number of days being homeless</t>
+          <t>Number of days at non-alcoholic, structured activities</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -15880,7 +15882,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>[Been homeless or had to stay with someone else to avoid being homeless? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
+          <t>[Been in other structured activities where no one was using alcohol or drugs? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
@@ -15888,7 +15890,7 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>d11c</t>
+          <t>d11b</t>
         </is>
       </c>
       <c r="J286" t="inlineStr"/>
@@ -15903,7 +15905,7 @@
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o37</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o36</t>
         </is>
       </c>
       <c r="Q286" t="inlineStr"/>
@@ -15918,12 +15920,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>days_shelter</t>
+          <t>days_homeless</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Number of days in homeless shelter</t>
+          <t>Number of days being homeless</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -15933,7 +15935,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>[Lived in a homeless shelter or emergency housing? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
+          <t>[Been homeless or had to stay with someone else to avoid being homeless? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
         </is>
       </c>
       <c r="F287" t="inlineStr"/>
@@ -15941,7 +15943,7 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>d11d</t>
+          <t>d11c</t>
         </is>
       </c>
       <c r="J287" t="inlineStr"/>
@@ -15956,7 +15958,7 @@
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o38</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o37</t>
         </is>
       </c>
       <c r="Q287" t="inlineStr"/>
@@ -15971,12 +15973,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>days_household_alcohol</t>
+          <t>days_shelter</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Number of days in household with alcohol use</t>
+          <t>Number of days in homeless shelter</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -15986,7 +15988,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>[Lived where other people were using alcohol? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
+          <t>[Lived in a homeless shelter or emergency housing? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
@@ -15994,7 +15996,7 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>d11e</t>
+          <t>d11d</t>
         </is>
       </c>
       <c r="J288" t="inlineStr"/>
@@ -16009,7 +16011,7 @@
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o39</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o38</t>
         </is>
       </c>
       <c r="Q288" t="inlineStr"/>
@@ -16024,12 +16026,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>days_household_drug</t>
+          <t>days_household_alcohol</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Number of days in household with drug use</t>
+          <t>Number of days in household with alcohol use</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -16039,7 +16041,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>[Lived where other people were using drugs? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
+          <t>[Lived where other people were using alcohol? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
@@ -16047,7 +16049,7 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>d11f</t>
+          <t>d11e</t>
         </is>
       </c>
       <c r="J289" t="inlineStr"/>
@@ -16062,7 +16064,7 @@
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o40</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o39</t>
         </is>
       </c>
       <c r="Q289" t="inlineStr"/>
@@ -16077,12 +16079,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>days_activities_substance_use</t>
+          <t>days_household_drug</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Number of days of formal activities with alcohol</t>
+          <t>Number of days in household with drug use</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -16092,7 +16094,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>[Been to formal activities where people were using alcohol or drugs?] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
+          <t>[Lived where other people were using drugs? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -16100,7 +16102,7 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>d11g</t>
+          <t>d11f</t>
         </is>
       </c>
       <c r="J290" t="inlineStr"/>
@@ -16115,7 +16117,7 @@
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o41</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o40</t>
         </is>
       </c>
       <c r="Q290" t="inlineStr"/>
@@ -16130,12 +16132,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>days_family_trouble</t>
+          <t>days_activities_substance_use</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Number of days of home or family trouble</t>
+          <t>Number of days of formal activities with alcohol</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -16145,7 +16147,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>[Gotten into trouble at home or with your family for any reason? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
+          <t>[Been to formal activities where people were using alcohol or drugs?] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
@@ -16153,7 +16155,7 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>d11h</t>
+          <t>d11g</t>
         </is>
       </c>
       <c r="J291" t="inlineStr"/>
@@ -16168,7 +16170,7 @@
       </c>
       <c r="P291" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o42</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o41</t>
         </is>
       </c>
       <c r="Q291" t="inlineStr"/>
@@ -16183,12 +16185,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>days_arguments</t>
+          <t>days_family_trouble</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Number of days of  abusive behavior in arguments</t>
+          <t>Number of days of home or family trouble</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -16198,7 +16200,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>[Had an argument in which you swore, cursed, threatened another person, threw something, or pushed or hit another person in any way? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
+          <t>[Gotten into trouble at home or with your family for any reason? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
@@ -16206,7 +16208,7 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>d11i</t>
+          <t>d11h</t>
         </is>
       </c>
       <c r="J292" t="inlineStr"/>
@@ -16221,7 +16223,7 @@
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o43</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o42</t>
         </is>
       </c>
       <c r="Q292" t="inlineStr"/>
@@ -16236,12 +16238,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>days_abused</t>
+          <t>days_arguments</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Number of days being physically, emotionally, sexually abused</t>
+          <t>Number of days of  abusive behavior in arguments</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -16251,7 +16253,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>[Been attacked with a weapon, beaten, sexually abused or emotionally abused?] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
+          <t>[Had an argument in which you swore, cursed, threatened another person, threw something, or pushed or hit another person in any way? ] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -16259,7 +16261,7 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>d11j</t>
+          <t>d11i</t>
         </is>
       </c>
       <c r="J293" t="inlineStr"/>
@@ -16274,7 +16276,7 @@
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o44</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o43</t>
         </is>
       </c>
       <c r="Q293" t="inlineStr"/>
@@ -16289,38 +16291,30 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>narcan_received</t>
+          <t>days_abused</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Received Narcan kit</t>
+          <t>Number of days being physically, emotionally, sexually abused</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>[At your most recent release from [jail/prison], did you receive a Naloxone rescue kit (â€œNarcan kitâ€) to save yourself or someone else in the event of an opioid overdose? [Overdose definition = use enough of the drug to cause a life-threatening reaction that requires medical attention]] If respondent was in jail/prison during the past 3 months but not currently, ask:</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>[Been attacked with a weapon, beaten, sexually abused or emotionally abused?] During the past xx days (since last assessment), on how many days have you . . .  [NOTE: MAX DAYS = 90]</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>d11j</t>
         </is>
       </c>
       <c r="J294" t="inlineStr"/>
@@ -16335,7 +16329,7 @@
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o45</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o44</t>
         </is>
       </c>
       <c r="Q294" t="inlineStr"/>
@@ -16350,12 +16344,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>narcan_used</t>
+          <t>narcan_received</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Used Narcan Kit</t>
+          <t>Received Narcan kit</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -16365,7 +16359,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>[Have you had to use it?] If respondent was in jail/prison during the past 3 months but not currently, ask:</t>
+          <t>[At your most recent release from [jail/prison], did you receive a Naloxone rescue kit (â€œNarcan kitâ€) to save yourself or someone else in the event of an opioid overdose? [Overdose definition = use enough of the drug to cause a life-threatening reaction that requires medical attention]] If respondent was in jail/prison during the past 3 months but not currently, ask:</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -16381,7 +16375,7 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>o3a</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="J295" t="inlineStr"/>
@@ -16396,7 +16390,7 @@
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o46</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o45</t>
         </is>
       </c>
       <c r="Q295" t="inlineStr"/>
@@ -16411,12 +16405,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>narcan_refilled</t>
+          <t>narcan_used</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Refilled Narcan Kit</t>
+          <t>Used Narcan Kit</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -16426,7 +16420,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>[Have you obtained a refill/replacement kit?] If respondent was in jail/prison during the past 3 months but not currently, ask:</t>
+          <t>[Have you had to use it?] If respondent was in jail/prison during the past 3 months but not currently, ask:</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -16442,7 +16436,7 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>o3b</t>
+          <t>o3a</t>
         </is>
       </c>
       <c r="J296" t="inlineStr"/>
@@ -16457,7 +16451,7 @@
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o47</t>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o46</t>
         </is>
       </c>
       <c r="Q296" t="inlineStr"/>
@@ -16467,39 +16461,43 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>PROMIS 29+2/ PROPr</t>
+          <t>Demographics</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>difficulty_chores</t>
+          <t>narcan_refilled</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Difficulty with chores and house keeping</t>
+          <t>Refilled Narcan Kit</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>[... do chores such as sweeping, mopping, janitorial work or other house cleaning work] In the past 7 days I was able to . . .</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>Without any difficulty|With a little difficulty|With some difficulty|With much difficulty|Unable to do</t>
-        </is>
-      </c>
+          <t>[Have you obtained a refill/replacement kit?] If respondent was in jail/prison during the past 3 months but not currently, ask:</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>p1a</t>
+          <t>o3b</t>
         </is>
       </c>
       <c r="J297" t="inlineStr"/>
@@ -16512,7 +16510,11 @@
           <t>table-schema-time-points</t>
         </is>
       </c>
-      <c r="P297" t="inlineStr"/>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o47</t>
+        </is>
+      </c>
       <c r="Q297" t="inlineStr"/>
       <c r="R297" t="inlineStr"/>
       <c r="S297" t="inlineStr"/>
@@ -16525,12 +16527,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>difficulty_stairs</t>
+          <t>difficulty_chores</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Difficulty using stairs</t>
+          <t>Difficulty with chores and house keeping</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -16540,7 +16542,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>[...go up and down stairs at a normal pace] In the past 7 days I was able to . . .</t>
+          <t>[... do chores such as sweeping, mopping, janitorial work or other house cleaning work] In the past 7 days I was able to . . .</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
@@ -16552,7 +16554,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>p1b</t>
+          <t>p1a</t>
         </is>
       </c>
       <c r="J298" t="inlineStr"/>
@@ -16578,12 +16580,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>difficulty_walking</t>
+          <t>difficulty_stairs</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Difficulty walking</t>
+          <t>Difficulty using stairs</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -16593,7 +16595,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>[...walk around for at least 15 minutes] In the past 7 days I was able to . . .</t>
+          <t>[...go up and down stairs at a normal pace] In the past 7 days I was able to . . .</t>
         </is>
       </c>
       <c r="F299" t="inlineStr"/>
@@ -16605,7 +16607,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>p1c</t>
+          <t>p1b</t>
         </is>
       </c>
       <c r="J299" t="inlineStr"/>
@@ -16631,12 +16633,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>difficulty_traveling</t>
+          <t>difficulty_walking</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Difficulty traveling</t>
+          <t>Difficulty walking</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -16646,7 +16648,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>[... get from place to place] In the past 7 days I was able to . . .</t>
+          <t>[...walk around for at least 15 minutes] In the past 7 days I was able to . . .</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -16658,7 +16660,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>p1d</t>
+          <t>p1c</t>
         </is>
       </c>
       <c r="J300" t="inlineStr"/>
@@ -16684,12 +16686,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>trouble_with_leisure</t>
+          <t>difficulty_traveling</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Trouble with Leisure activities with others</t>
+          <t>Difficulty traveling</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -16699,19 +16701,19 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>[...I had trouble doing all of my regular leisure activities with others ] In the past 7 days...</t>
+          <t>[... get from place to place] In the past 7 days I was able to . . .</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr"/>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Never|Rarely|Sometimes|Often|Always</t>
+          <t>Without any difficulty|With a little difficulty|With some difficulty|With much difficulty|Unable to do</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>p2a</t>
+          <t>p1d</t>
         </is>
       </c>
       <c r="J301" t="inlineStr"/>
@@ -16737,12 +16739,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>trouble_with_family</t>
+          <t>trouble_with_leisure</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Trouble with family activities</t>
+          <t>Trouble with Leisure activities with others</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -16752,7 +16754,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>[...I had trouble doing all of the family activities that I want to do ] In the past 7 days...</t>
+          <t>[...I had trouble doing all of my regular leisure activities with others ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F302" t="inlineStr"/>
@@ -16764,7 +16766,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>p2b</t>
+          <t>p2a</t>
         </is>
       </c>
       <c r="J302" t="inlineStr"/>
@@ -16790,12 +16792,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>trouble_with_work</t>
+          <t>trouble_with_family</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Trouble with work</t>
+          <t>Trouble with family activities</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -16805,7 +16807,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>[...I had trouble doing all of my usual work (include work at home) ] In the past 7 days...</t>
+          <t>[...I had trouble doing all of the family activities that I want to do ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F303" t="inlineStr"/>
@@ -16817,7 +16819,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>p2c</t>
+          <t>p2b</t>
         </is>
       </c>
       <c r="J303" t="inlineStr"/>
@@ -16843,12 +16845,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>trouble_with_activities</t>
+          <t>trouble_with_work</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Trouble with activities with friends</t>
+          <t>Trouble with work</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -16858,7 +16860,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>[...I had trouble doing all of the activities with friends that I want to do ] In the past 7 days...</t>
+          <t>[...I had trouble doing all of my usual work (include work at home) ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F304" t="inlineStr"/>
@@ -16870,7 +16872,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>p2d</t>
+          <t>p2c</t>
         </is>
       </c>
       <c r="J304" t="inlineStr"/>
@@ -16896,12 +16898,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>past_week_fearful</t>
+          <t>trouble_with_activities</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Feeling fearful</t>
+          <t>Trouble with activities with friends</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -16911,7 +16913,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>[...I felt fearful] In the past 7 days...</t>
+          <t>[...I had trouble doing all of the activities with friends that I want to do ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F305" t="inlineStr"/>
@@ -16923,7 +16925,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>p3a</t>
+          <t>p2d</t>
         </is>
       </c>
       <c r="J305" t="inlineStr"/>
@@ -16949,12 +16951,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>past_week_anxiety</t>
+          <t>past_week_fearful</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Feeling hard to focus on anything other than anxiety</t>
+          <t>Feeling fearful</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -16964,7 +16966,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>[...I found it hard to focus on anything other than my anxiety] In the past 7 days...</t>
+          <t>[...I felt fearful] In the past 7 days...</t>
         </is>
       </c>
       <c r="F306" t="inlineStr"/>
@@ -16976,7 +16978,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>p3b</t>
+          <t>p3a</t>
         </is>
       </c>
       <c r="J306" t="inlineStr"/>
@@ -17002,12 +17004,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>past_week_worried</t>
+          <t>past_week_anxiety</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Feeling overwhelming worry</t>
+          <t>Feeling hard to focus on anything other than anxiety</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -17017,7 +17019,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>[...My worries overwhelmed me] In the past 7 days...</t>
+          <t>[...I found it hard to focus on anything other than my anxiety] In the past 7 days...</t>
         </is>
       </c>
       <c r="F307" t="inlineStr"/>
@@ -17029,7 +17031,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>p3c</t>
+          <t>p3b</t>
         </is>
       </c>
       <c r="J307" t="inlineStr"/>
@@ -17055,12 +17057,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>past_week_uneasy</t>
+          <t>past_week_worried</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Feeling uneasy</t>
+          <t>Feeling overwhelming worry</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -17070,7 +17072,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>[...I felt uneasy] In the past 7 days...</t>
+          <t>[...My worries overwhelmed me] In the past 7 days...</t>
         </is>
       </c>
       <c r="F308" t="inlineStr"/>
@@ -17082,7 +17084,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>p3d</t>
+          <t>p3c</t>
         </is>
       </c>
       <c r="J308" t="inlineStr"/>
@@ -17108,12 +17110,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>past_week_worthless</t>
+          <t>past_week_uneasy</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Feeling worthless</t>
+          <t>Feeling uneasy</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -17123,7 +17125,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>[...I felt worthless] In the past 7 days...</t>
+          <t>[...I felt uneasy] In the past 7 days...</t>
         </is>
       </c>
       <c r="F309" t="inlineStr"/>
@@ -17135,7 +17137,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>p4a</t>
+          <t>p3d</t>
         </is>
       </c>
       <c r="J309" t="inlineStr"/>
@@ -17161,12 +17163,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>past_week_helpless</t>
+          <t>past_week_worthless</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Feeling helpless</t>
+          <t>Feeling worthless</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -17176,7 +17178,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>[...I felt helpless] In the past 7 days...</t>
+          <t>[...I felt worthless] In the past 7 days...</t>
         </is>
       </c>
       <c r="F310" t="inlineStr"/>
@@ -17188,7 +17190,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>p4b</t>
+          <t>p4a</t>
         </is>
       </c>
       <c r="J310" t="inlineStr"/>
@@ -17214,12 +17216,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>past_week_depressed</t>
+          <t>past_week_helpless</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Feeling depressed</t>
+          <t>Feeling helpless</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -17229,7 +17231,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>[...I felt depressed] In the past 7 days...</t>
+          <t>[...I felt helpless] In the past 7 days...</t>
         </is>
       </c>
       <c r="F311" t="inlineStr"/>
@@ -17241,7 +17243,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>p4c</t>
+          <t>p4b</t>
         </is>
       </c>
       <c r="J311" t="inlineStr"/>
@@ -17267,12 +17269,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>past_week_hopeless</t>
+          <t>past_week_depressed</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Feeling hopeless</t>
+          <t>Feeling depressed</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -17282,7 +17284,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>[...I felt hopeless ] In the past 7 days...</t>
+          <t>[...I felt depressed] In the past 7 days...</t>
         </is>
       </c>
       <c r="F312" t="inlineStr"/>
@@ -17294,7 +17296,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>p4d</t>
+          <t>p4c</t>
         </is>
       </c>
       <c r="J312" t="inlineStr"/>
@@ -17320,12 +17322,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>past_week_fatigued</t>
+          <t>past_week_hopeless</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Feeling fatigued</t>
+          <t>Feeling hopeless</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -17335,19 +17337,19 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>[...I felt fatigued] In the past 7 days...</t>
+          <t>[...I felt hopeless ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
+          <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>p5a</t>
+          <t>p4d</t>
         </is>
       </c>
       <c r="J313" t="inlineStr"/>
@@ -17373,12 +17375,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>past_week_tired</t>
+          <t>past_week_fatigued</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Trouble starting things because tired</t>
+          <t>Feeling fatigued</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -17388,7 +17390,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>[...I had trouble starting things because I was tired  ] In the past 7 days...</t>
+          <t>[...I felt fatigued] In the past 7 days...</t>
         </is>
       </c>
       <c r="F314" t="inlineStr"/>
@@ -17400,7 +17402,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>p5b</t>
+          <t>p5a</t>
         </is>
       </c>
       <c r="J314" t="inlineStr"/>
@@ -17426,12 +17428,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>past_week_rundown</t>
+          <t>past_week_tired</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Feeling run-down</t>
+          <t>Trouble starting things because tired</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -17441,7 +17443,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>[...how run-down did you feel on average? ] In the past 7 days...</t>
+          <t>[...I had trouble starting things because I was tired  ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F315" t="inlineStr"/>
@@ -17453,7 +17455,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>p5c</t>
+          <t>p5b</t>
         </is>
       </c>
       <c r="J315" t="inlineStr"/>
@@ -17479,12 +17481,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>fatigue_level</t>
+          <t>past_week_rundown</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Fatigue level</t>
+          <t>Feeling run-down</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -17494,7 +17496,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>[...how fatigued were you on average?] In the past 7 days...</t>
+          <t>[...how run-down did you feel on average? ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F316" t="inlineStr"/>
@@ -17506,7 +17508,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>p5d</t>
+          <t>p5c</t>
         </is>
       </c>
       <c r="J316" t="inlineStr"/>
@@ -17532,12 +17534,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>sleep_quality</t>
+          <t>fatigue_level</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Sleep quality</t>
+          <t>Fatigue level</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -17547,19 +17549,19 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>[...my sleep quality was] In the past 7 days...</t>
+          <t>[...how fatigued were you on average?] In the past 7 days...</t>
         </is>
       </c>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Very poor|Poor|Fair|Good|Very good</t>
+          <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>p6a</t>
+          <t>p5d</t>
         </is>
       </c>
       <c r="J317" t="inlineStr"/>
@@ -17585,12 +17587,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>sleep_refreshing</t>
+          <t>sleep_quality</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Refreshing sleep</t>
+          <t>Sleep quality</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -17600,19 +17602,19 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>[...my sleep was refreshing] In the past 7 days...</t>
+          <t>[...my sleep quality was] In the past 7 days...</t>
         </is>
       </c>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="inlineStr"/>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
+          <t>Very poor|Poor|Fair|Good|Very good</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>p6b</t>
+          <t>p6a</t>
         </is>
       </c>
       <c r="J318" t="inlineStr"/>
@@ -17638,12 +17640,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>sleep_problems</t>
+          <t>sleep_refreshing</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Sleep problems</t>
+          <t>Refreshing sleep</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -17653,7 +17655,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>[...I had problems with my sleep] In the past 7 days...</t>
+          <t>[...my sleep was refreshing] In the past 7 days...</t>
         </is>
       </c>
       <c r="F319" t="inlineStr"/>
@@ -17665,7 +17667,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>p6c</t>
+          <t>p6b</t>
         </is>
       </c>
       <c r="J319" t="inlineStr"/>
@@ -17691,12 +17693,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>sleep_difficulty</t>
+          <t>sleep_problems</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Difficulty falling asleep</t>
+          <t>Sleep problems</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -17706,7 +17708,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>[...I had difficulty falling asleep] In the past 7 days...</t>
+          <t>[...I had problems with my sleep] In the past 7 days...</t>
         </is>
       </c>
       <c r="F320" t="inlineStr"/>
@@ -17718,7 +17720,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>p6d</t>
+          <t>p6c</t>
         </is>
       </c>
       <c r="J320" t="inlineStr"/>
@@ -17744,12 +17746,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>can_concentrate</t>
+          <t>sleep_difficulty</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Concentration</t>
+          <t>Difficulty falling asleep</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -17759,7 +17761,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>[...I have been able to concentrate ] In the past 7 days...</t>
+          <t>[...I had difficulty falling asleep] In the past 7 days...</t>
         </is>
       </c>
       <c r="F321" t="inlineStr"/>
@@ -17771,7 +17773,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>p7a</t>
+          <t>p6d</t>
         </is>
       </c>
       <c r="J321" t="inlineStr"/>
@@ -17797,12 +17799,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>can_remember</t>
+          <t>can_concentrate</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Remembering things</t>
+          <t>Concentration</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -17812,7 +17814,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>[...I have been able to remember to do things, like take medicine or buy something I needed ] In the past 7 days...</t>
+          <t>[...I have been able to concentrate ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F322" t="inlineStr"/>
@@ -17824,7 +17826,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>p7b</t>
+          <t>p7a</t>
         </is>
       </c>
       <c r="J322" t="inlineStr"/>
@@ -17850,12 +17852,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>pain_daily_activity</t>
+          <t>can_remember</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Pain interference with day to day activity</t>
+          <t>Remembering things</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -17865,7 +17867,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>[...How much did pain interfere with your day to day activities? ] In the past 7 days...</t>
+          <t>[...I have been able to remember to do things, like take medicine or buy something I needed ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F323" t="inlineStr"/>
@@ -17877,7 +17879,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>p8a</t>
+          <t>p7b</t>
         </is>
       </c>
       <c r="J323" t="inlineStr"/>
@@ -17903,12 +17905,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>pain_work_around_house</t>
+          <t>pain_daily_activity</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Pain inteference with home work</t>
+          <t>Pain interference with day to day activity</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -17918,7 +17920,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>[...How much did pain interfere with work around the home? ] In the past 7 days...</t>
+          <t>[...How much did pain interfere with your day to day activities? ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F324" t="inlineStr"/>
@@ -17930,7 +17932,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>p8b</t>
+          <t>p8a</t>
         </is>
       </c>
       <c r="J324" t="inlineStr"/>
@@ -17956,12 +17958,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>pain_social_activity</t>
+          <t>pain_work_around_house</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Pain interference with social activities</t>
+          <t>Pain inteference with home work</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -17971,7 +17973,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>[...How much did pain interfere with your ability to participate in social activities? ] In the past 7 days...</t>
+          <t>[...How much did pain interfere with work around the home? ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F325" t="inlineStr"/>
@@ -17983,7 +17985,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>p8c</t>
+          <t>p8b</t>
         </is>
       </c>
       <c r="J325" t="inlineStr"/>
@@ -18009,12 +18011,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>pain_household_chores</t>
+          <t>pain_social_activity</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Pain interference with household chores</t>
+          <t>Pain interference with social activities</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -18024,7 +18026,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>[...How much did pain interfere with your household chores? ] In the past 7 days...</t>
+          <t>[...How much did pain interfere with your ability to participate in social activities? ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
@@ -18036,7 +18038,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>p8d</t>
+          <t>p8c</t>
         </is>
       </c>
       <c r="J326" t="inlineStr"/>
@@ -18062,30 +18064,34 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>pain_intensity</t>
+          <t>pain_household_chores</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Pain intensity rating</t>
+          <t>Pain interference with household chores</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>[In the past 7 days, how would you rate your pain on average?] For the next question, please responds on scale from 0 being no pain to 10 being the worst pain imaginable.</t>
+          <t>[...How much did pain interfere with your household chores? ] In the past 7 days...</t>
         </is>
       </c>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr"/>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
+        </is>
+      </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>p9</t>
+          <t>p8d</t>
         </is>
       </c>
       <c r="J327" t="inlineStr"/>
@@ -18101,46 +18107,40 @@
       <c r="P327" t="inlineStr"/>
       <c r="Q327" t="inlineStr"/>
       <c r="R327" t="inlineStr"/>
-      <c r="S327" t="n">
-        <v>10</v>
-      </c>
+      <c r="S327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Risk of Harms and Consequences</t>
+          <t>PROMIS 29+2/ PROPr</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>last_time_multiple_partners</t>
+          <t>pain_intensity</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Multiple sex partners</t>
+          <t>Pain intensity rating</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>[...had two or more sex partners during the same time period?] When was the last time you...</t>
+          <t>[In the past 7 days, how would you rate your pain on average?] For the next question, please responds on scale from 0 being no pain to 10 being the worst pain imaginable.</t>
         </is>
       </c>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
-        </is>
-      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>r1a</t>
+          <t>p9</t>
         </is>
       </c>
       <c r="J328" t="inlineStr"/>
@@ -18153,14 +18153,12 @@
           <t>table-schema-time-points</t>
         </is>
       </c>
-      <c r="P328" t="inlineStr">
-        <is>
-          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
-        </is>
-      </c>
+      <c r="P328" t="inlineStr"/>
       <c r="Q328" t="inlineStr"/>
       <c r="R328" t="inlineStr"/>
-      <c r="S328" t="inlineStr"/>
+      <c r="S328" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -18170,12 +18168,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>last_time_unprotected_sex</t>
+          <t>last_time_multiple_partners</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Unprotected sex</t>
+          <t>Multiple sex partners</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -18185,7 +18183,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>[...had sex without using any kind of condom, dental dam or other barrier to protect you and your partner from diseases or pregnancy?] When was the last time you...</t>
+          <t>[...had two or more sex partners during the same time period?] When was the last time you...</t>
         </is>
       </c>
       <c r="F329" t="inlineStr"/>
@@ -18197,7 +18195,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>r1b</t>
+          <t>r1a</t>
         </is>
       </c>
       <c r="J329" t="inlineStr"/>
@@ -18227,12 +18225,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>last_time_sex_intoxicated</t>
+          <t>last_time_unprotected_sex</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Alcohol and drug intoxication</t>
+          <t>Unprotected sex</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -18242,7 +18240,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>[...had sex while you or your partner was intoxicated from alcohol or other drugs?] When was the last time you...</t>
+          <t>[...had sex without using any kind of condom, dental dam or other barrier to protect you and your partner from diseases or pregnancy?] When was the last time you...</t>
         </is>
       </c>
       <c r="F330" t="inlineStr"/>
@@ -18254,7 +18252,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>r1c</t>
+          <t>r1b</t>
         </is>
       </c>
       <c r="J330" t="inlineStr"/>
@@ -18284,12 +18282,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>last_time_injection_drug</t>
+          <t>last_time_sex_intoxicated</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Drug injection with needle</t>
+          <t>Alcohol and drug intoxication</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -18299,7 +18297,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>[...used a needle to inject drugs like heroin, cocaine or amphetamines?] When was the last time you...</t>
+          <t>[...had sex while you or your partner was intoxicated from alcohol or other drugs?] When was the last time you...</t>
         </is>
       </c>
       <c r="F331" t="inlineStr"/>
@@ -18311,7 +18309,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>r1d</t>
+          <t>r1c</t>
         </is>
       </c>
       <c r="J331" t="inlineStr"/>
@@ -18341,12 +18339,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>last_time_attacked_weapon</t>
+          <t>last_time_injection_drug</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Attacked with weapon</t>
+          <t>Drug injection with needle</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -18356,7 +18354,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>[...were attacked with a weapon, including a gun, knife, stick, bottle or other weapon?] When was the last time you...</t>
+          <t>[...used a needle to inject drugs like heroin, cocaine or amphetamines?] When was the last time you...</t>
         </is>
       </c>
       <c r="F332" t="inlineStr"/>
@@ -18368,7 +18366,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>r1g</t>
+          <t>r1d</t>
         </is>
       </c>
       <c r="J332" t="inlineStr"/>
@@ -18398,12 +18396,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>last_time_physical_abuse</t>
+          <t>last_time_attacked_weapon</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Physical abuse</t>
+          <t>Attacked with weapon</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -18413,7 +18411,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>[...were physically abused, to the point that you had bruises, cuts or broken bones?] When was the last time you...</t>
+          <t>[...were attacked with a weapon, including a gun, knife, stick, bottle or other weapon?] When was the last time you...</t>
         </is>
       </c>
       <c r="F333" t="inlineStr"/>
@@ -18425,7 +18423,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>r1h</t>
+          <t>r1g</t>
         </is>
       </c>
       <c r="J333" t="inlineStr"/>
@@ -18455,12 +18453,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>last_time_sex_abuse</t>
+          <t>last_time_physical_abuse</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Sexually abused</t>
+          <t>Physical abuse</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -18470,7 +18468,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>[...were sexually abused, where someone pressured or forced you to participate in sexual acts against your will, including your regular sex partner, a family member or friend?] When was the last time you...</t>
+          <t>[...were physically abused, to the point that you had bruises, cuts or broken bones?] When was the last time you...</t>
         </is>
       </c>
       <c r="F334" t="inlineStr"/>
@@ -18482,7 +18480,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>r1j</t>
+          <t>r1h</t>
         </is>
       </c>
       <c r="J334" t="inlineStr"/>
@@ -18512,12 +18510,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>last_time_emotional_abuse</t>
+          <t>last_time_sex_abuse</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Emotionally abused</t>
+          <t>Sexually abused</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -18527,7 +18525,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>[...were emotionally abused, where someone did or said things to make you feel very bad about yourself or your life?] When was the last time you...</t>
+          <t>[...were sexually abused, where someone pressured or forced you to participate in sexual acts against your will, including your regular sex partner, a family member or friend?] When was the last time you...</t>
         </is>
       </c>
       <c r="F335" t="inlineStr"/>
@@ -18539,7 +18537,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>r1k</t>
+          <t>r1j</t>
         </is>
       </c>
       <c r="J335" t="inlineStr"/>
@@ -18569,12 +18567,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>last_time_ongoing_abuse</t>
+          <t>last_time_emotional_abuse</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Physically, sexually, or emotionally abused</t>
+          <t>Emotionally abused</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -18584,7 +18582,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>[...were physically, sexual or emotionally abused several times or over a long period of time?] When was the last time you...</t>
+          <t>[...were emotionally abused, where someone did or said things to make you feel very bad about yourself or your life?] When was the last time you...</t>
         </is>
       </c>
       <c r="F336" t="inlineStr"/>
@@ -18596,7 +18594,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>r1m</t>
+          <t>r1k</t>
         </is>
       </c>
       <c r="J336" t="inlineStr"/>
@@ -18626,12 +18624,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>last_time_afraid_abuse</t>
+          <t>last_time_ongoing_abuse</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Afraid for life or serious injury from abuse</t>
+          <t>Physically, sexually, or emotionally abused</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -18641,7 +18639,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>[...were afraid for your life or that you might be seriously injured by the abuse?] When was the last time you...</t>
+          <t>[...were physically, sexual or emotionally abused several times or over a long period of time?] When was the last time you...</t>
         </is>
       </c>
       <c r="F337" t="inlineStr"/>
@@ -18653,7 +18651,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>r1n</t>
+          <t>r1m</t>
         </is>
       </c>
       <c r="J337" t="inlineStr"/>
@@ -18683,12 +18681,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>last_time_distressed_past</t>
+          <t>last_time_afraid_abuse</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Distressed/upset about past</t>
+          <t>Afraid for life or serious injury from abuse</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -18698,7 +18696,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>[...became very distressed and upset when something reminded you of the past?] When was the last time you. . .</t>
+          <t>[...were afraid for your life or that you might be seriously injured by the abuse?] When was the last time you...</t>
         </is>
       </c>
       <c r="F338" t="inlineStr"/>
@@ -18710,7 +18708,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>r2a</t>
+          <t>r1n</t>
         </is>
       </c>
       <c r="J338" t="inlineStr"/>
@@ -18740,12 +18738,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>last_time_suicidal</t>
+          <t>last_time_distressed_past</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Suicidal thoughts</t>
+          <t>Distressed/upset about past</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -18755,7 +18753,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>[...thought about ending your life or dying by suicide?] When was the last time you. . .</t>
+          <t>[...became very distressed and upset when something reminded you of the past?] When was the last time you. . .</t>
         </is>
       </c>
       <c r="F339" t="inlineStr"/>
@@ -18767,7 +18765,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>r2b</t>
+          <t>r2a</t>
         </is>
       </c>
       <c r="J339" t="inlineStr"/>
@@ -18797,38 +18795,34 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>ever_dx_hiv</t>
+          <t>last_time_suicidal</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>HIV/AIDS</t>
+          <t>Suicidal thoughts</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>[Human Immunodeficiency Virus, HIV or AIDS?] Were you ever told by a doctor or nurse that you had...</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H340" t="inlineStr"/>
+          <t>[...thought about ending your life or dying by suicide?] When was the last time you. . .</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
+        </is>
+      </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>r3a</t>
+          <t>r2b</t>
         </is>
       </c>
       <c r="J340" t="inlineStr"/>
@@ -18858,12 +18852,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>ever_dx_hcv</t>
+          <t>ever_dx_hiv</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Hepatitis C</t>
+          <t>HIV/AIDS</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -18873,7 +18867,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>[Hepatitis C? ] Were you ever told by a doctor or nurse that you had...</t>
+          <t>[Human Immunodeficiency Virus, HIV or AIDS?] Were you ever told by a doctor or nurse that you had...</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -18889,7 +18883,7 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>r3b</t>
+          <t>r3a</t>
         </is>
       </c>
       <c r="J341" t="inlineStr"/>
@@ -18919,12 +18913,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>ever_dx_hepb</t>
+          <t>ever_dx_hcv</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Hepatitis B</t>
+          <t>Hepatitis C</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -18934,7 +18928,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>[Hepatitis B? ] Were you ever told by a doctor or nurse that you had...</t>
+          <t>[Hepatitis C? ] Were you ever told by a doctor or nurse that you had...</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -18950,7 +18944,7 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>r3c</t>
+          <t>r3b</t>
         </is>
       </c>
       <c r="J342" t="inlineStr"/>
@@ -18980,12 +18974,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ever_dx_std</t>
+          <t>ever_dx_hepb</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Other sexually transmitted diseases</t>
+          <t>Hepatitis B</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -18995,7 +18989,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>[Other sexually transmitted diseases or infections, such as syphilis.] Were you ever told by a doctor or nurse that you had...</t>
+          <t>[Hepatitis B? ] Were you ever told by a doctor or nurse that you had...</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -19011,7 +19005,7 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>r3d</t>
+          <t>r3c</t>
         </is>
       </c>
       <c r="J343" t="inlineStr"/>
@@ -19041,12 +19035,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ever_dx_tb</t>
+          <t>ever_dx_std</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Tuberculosis</t>
+          <t>Other sexually transmitted diseases</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -19056,7 +19050,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>[Tuberculosis or TB?] Were you ever told by a doctor or nurse that you had...</t>
+          <t>[Other sexually transmitted diseases or infections, such as syphilis.] Were you ever told by a doctor or nurse that you had...</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -19072,7 +19066,7 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>r3e</t>
+          <t>r3d</t>
         </is>
       </c>
       <c r="J344" t="inlineStr"/>
@@ -19102,12 +19096,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>ever_dx_covid</t>
+          <t>ever_dx_tb</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>COVID</t>
+          <t>Tuberculosis</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -19117,7 +19111,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>[Coronavirus 19 or COVID19?] Were you ever told by a doctor or nurse that you had...</t>
+          <t>[Tuberculosis or TB?] Were you ever told by a doctor or nurse that you had...</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -19133,7 +19127,7 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>r3f</t>
+          <t>r3e</t>
         </is>
       </c>
       <c r="J345" t="inlineStr"/>
@@ -19163,34 +19157,38 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>first_dx_hiv</t>
+          <t>ever_dx_covid</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>First diagnosis of HIV/AIDS</t>
+          <t>COVID</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>[Human Immunodeficiency Virus, HIV or AIDS?] If yes, when were you FIRST diagnosed?</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
-        </is>
-      </c>
+          <t>[Coronavirus 19 or COVID19?] Were you ever told by a doctor or nurse that you had...</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>r3a_first_dx</t>
+          <t>r3f</t>
         </is>
       </c>
       <c r="J346" t="inlineStr"/>
@@ -19220,12 +19218,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>first_dx_hcv</t>
+          <t>first_dx_hiv</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>First diagnosis of Hepatitis C</t>
+          <t>First diagnosis of HIV/AIDS</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -19235,7 +19233,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>[Hepatitis C? ] If yes, when were you FIRST diagnosed?</t>
+          <t>[Human Immunodeficiency Virus, HIV or AIDS?] If yes, when were you FIRST diagnosed?</t>
         </is>
       </c>
       <c r="F347" t="inlineStr"/>
@@ -19247,7 +19245,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>r3b_first_dx</t>
+          <t>r3a_first_dx</t>
         </is>
       </c>
       <c r="J347" t="inlineStr"/>
@@ -19277,12 +19275,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>first_dx_hepb</t>
+          <t>first_dx_hcv</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>First diagnosis of Hepatitis B</t>
+          <t>First diagnosis of Hepatitis C</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -19292,7 +19290,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>[Hepatitis B? ] If yes, when were you FIRST diagnosed?</t>
+          <t>[Hepatitis C? ] If yes, when were you FIRST diagnosed?</t>
         </is>
       </c>
       <c r="F348" t="inlineStr"/>
@@ -19304,7 +19302,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>r3c_first_dx</t>
+          <t>r3b_first_dx</t>
         </is>
       </c>
       <c r="J348" t="inlineStr"/>
@@ -19334,12 +19332,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>first_dx_std</t>
+          <t>first_dx_hepb</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>First diagnosis of other STDs</t>
+          <t>First diagnosis of Hepatitis B</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -19349,7 +19347,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>[Other sexually transmitted diseases or infections, such as syphilis.] If yes, when were you FIRST diagnosed?</t>
+          <t>[Hepatitis B? ] If yes, when were you FIRST diagnosed?</t>
         </is>
       </c>
       <c r="F349" t="inlineStr"/>
@@ -19361,7 +19359,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>r3d_first_dx</t>
+          <t>r3c_first_dx</t>
         </is>
       </c>
       <c r="J349" t="inlineStr"/>
@@ -19391,12 +19389,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>first_dx_tb</t>
+          <t>first_dx_std</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>First diagnosis of Tuberculosis</t>
+          <t>First diagnosis of other STDs</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -19406,7 +19404,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>[Tuberculosis or TB?] If yes, when were you FIRST diagnosed?</t>
+          <t>[Other sexually transmitted diseases or infections, such as syphilis.] If yes, when were you FIRST diagnosed?</t>
         </is>
       </c>
       <c r="F350" t="inlineStr"/>
@@ -19418,7 +19416,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>r3e_first_dx</t>
+          <t>r3d_first_dx</t>
         </is>
       </c>
       <c r="J350" t="inlineStr"/>
@@ -19448,12 +19446,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>first_dx_covid</t>
+          <t>first_dx_tb</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>First diagnosis of COVID</t>
+          <t>First diagnosis of Tuberculosis</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -19463,7 +19461,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>[Coronavirus 19 or COVID19?] If yes, when were you FIRST diagnosed?</t>
+          <t>[Tuberculosis or TB?] If yes, when were you FIRST diagnosed?</t>
         </is>
       </c>
       <c r="F351" t="inlineStr"/>
@@ -19475,7 +19473,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>r3f_first_dx</t>
+          <t>r3e_first_dx</t>
         </is>
       </c>
       <c r="J351" t="inlineStr"/>
@@ -19497,6 +19495,63 @@
       <c r="R351" t="inlineStr"/>
       <c r="S351" t="inlineStr"/>
     </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Risk of Harms and Consequences</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>first_dx_covid</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>First diagnosis of COVID</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>[Coronavirus 19 or COVID19?] If yes, when were you FIRST diagnosed?</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>r3f_first_dx</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
+      <c r="M352" t="inlineStr"/>
+      <c r="N352" t="inlineStr"/>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>table-schema-time-points</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
+        </is>
+      </c>
+      <c r="Q352" t="inlineStr"/>
+      <c r="R352" t="inlineStr"/>
+      <c r="S352" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx/core_measures_long.xlsx
+++ b/xlsx/core_measures_long.xlsx
@@ -6780,7 +6780,7 @@
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>^Baseline$|^Month \d+$</t>
+          <t>^Baseline$|^\d+ month$</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>

--- a/xlsx/core_measures_long.xlsx
+++ b/xlsx/core_measures_long.xlsx
@@ -6682,7 +6682,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A number that identifies the visit or timepoint of data collection (baseline=1 and each subsequent follow up is 2 or greater).</t>
+          <t>A number that identifies the visit or timepoint of data collection (baseline=1 and each subsequent follow up is 2 or greater). The main purpose of this field is to provide a unique identifier within each participant. See `visit_month` for a label of the visit.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>

--- a/xlsx/core_measures_long.xlsx
+++ b/xlsx/core_measures_long.xlsx
@@ -641,10 +641,10 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
     <col width="318.5" customWidth="1" min="8" max="8"/>
-    <col width="24" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="21" customWidth="1" min="11" max="11"/>
-    <col width="41" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="21" customWidth="1" min="10" max="10"/>
+    <col width="41" customWidth="1" min="11" max="11"/>
+    <col width="26" customWidth="1" min="12" max="12"/>
     <col width="259" customWidth="1" min="13" max="13"/>
     <col width="30" customWidth="1" min="14" max="14"/>
     <col width="19" customWidth="1" min="15" max="15"/>
@@ -696,27 +696,27 @@
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>original_name</t>
+          <t>constraints.required</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>constraints.required</t>
+          <t>constraints.maxLength</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>constraints.maxLength</t>
+          <t>constraints.pattern</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>constraints.pattern</t>
+          <t>custom.jcoin:original_name</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>custom.jcoin:notes</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>custom.jcoin:source</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
@@ -774,20 +774,20 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[A-Z][0-9][0-9][0-9]-[0-9][0-9][0-9][0-9]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>jdc_person_id</t>
-        </is>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[A-Z][0-9][0-9][0-9]-[0-9][0-9][0-9][0-9]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -830,20 +830,20 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[0-9][0-9][0-9][0-9]Q[0-9]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>quarter_enrolled</t>
-        </is>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[0-9][0-9][0-9][0-9]Q[0-9]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -886,20 +886,20 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[A-Z][A-Z]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>state_of_site_enrollment</t>
-        </is>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[A-Z][A-Z]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -946,16 +946,16 @@
           <t>On study|Dropped out|Withdrawn by investigator|Completed study|Unknown</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
         <is>
           <t>current_study_status</t>
         </is>
       </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
@@ -996,14 +996,14 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>d1a</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>d1a</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
@@ -1048,14 +1048,14 @@
           <t>Male|Female|Decline to answer|Something else</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>o1</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>o1</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
@@ -1100,14 +1100,14 @@
           <t>Male|Female|Transgender man/trans man/female-to-male (FTM)|Transgender woman/trans woman/male-to-female (MTF)|Genderqueer/gender nonconforming/neither exclusively male nor female|Additional gender category (or other)|Not reported</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>o2</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>o2</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]
@@ -1157,14 +1157,14 @@
           <t>Male|Female|Transgender|Gender nonconforming|Something else|Not reported</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>d4b</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>d4b</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]</t>
@@ -1217,16 +1217,16 @@
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t>d3_white</t>
         </is>
       </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
@@ -1275,16 +1275,16 @@
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>d3_black</t>
         </is>
       </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
@@ -1333,16 +1333,16 @@
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
         <is>
           <t>d3_american_indian</t>
         </is>
       </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
@@ -1391,16 +1391,16 @@
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
         <is>
           <t>d3_hawaiian</t>
         </is>
       </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
@@ -1449,16 +1449,16 @@
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
         <is>
           <t>d3_asian</t>
         </is>
       </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
         <is>
           <t>d3_other</t>
         </is>
       </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
@@ -1557,16 +1557,16 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>80</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
         <is>
           <t>d3_specify_tribe</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>80</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
@@ -1607,16 +1607,16 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>80</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
         <is>
           <t>d3_specify_other</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>80</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
@@ -1665,16 +1665,16 @@
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
         <is>
           <t>d2</t>
         </is>
       </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
@@ -1722,16 +1722,16 @@
           <t>White|Black or African American|American Indian or Alaska Native|Asian|Native Hawaiian or Other Pacific Islander|Some other race|Multiracial</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
         <is>
           <t>d3</t>
         </is>
       </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
@@ -1776,14 +1776,14 @@
           <t>Straight or heterosexual|Lesbian or gay|Bisexual|Queer,pansexual, and/or questioning|Something else</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>d4c</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>d4c</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
@@ -1824,14 +1824,14 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>d4c_specify_other</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>d4c_specify_other</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
@@ -1876,14 +1876,14 @@
           <t>Never been pregnant|Currently pregnant|Previously pregnant, had a child|Previously pregnant, did not have a child|Not applicable|Don't know</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>d4d</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>d4d</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>Does this just apply to that past 90 days?  If not, then the participant should be able to check more than one response.</t>
@@ -1932,14 +1932,14 @@
           <t>Married|Widowed|Divorced|Separated|Never married</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>d5</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>d5</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
@@ -1984,14 +1984,14 @@
           <t>Yes, I am living as married with partner|No, I am not living as married with partner</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>d5a</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>d5a</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
@@ -2036,14 +2036,14 @@
           <t>Did not complete high school|GED or equivalent|Regular high school diploma|Some college credit but less than 1 year of college credit|1 or more years of college credit but no degree|Associate's degree (e.g., AA or AS)|Bachelor's degree (e.g.,  BA or BS)|Graduate degree (e.g., MSW, MA, MS, JD, MD, DSW, EdD, PhD)|Other (specify)</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>d6</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>d6</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
@@ -2084,14 +2084,14 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>d6_grade</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>d6_grade</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
@@ -2132,14 +2132,14 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>d6_specify_other</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>d6_specify_other</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>u14f</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>u14f</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
@@ -2236,14 +2236,14 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>u14g</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>u14g</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
@@ -2292,14 +2292,14 @@
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>u15</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>u15</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
@@ -2340,14 +2340,14 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>u15a1</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>u15a1</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
@@ -2388,14 +2388,14 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>u15b1</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>u15b1</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
@@ -2436,14 +2436,14 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>u15c1</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>u15c1</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
@@ -2484,14 +2484,14 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>u15d1</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>u15d1</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
@@ -2532,14 +2532,14 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>u15e1</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>u15e1</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
@@ -2580,14 +2580,14 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>u15f1</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>u15f1</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
@@ -2628,14 +2628,14 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>u15g1</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>u15g1</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
@@ -2676,14 +2676,14 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>u15h1</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>u15h1</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
@@ -2724,18 +2724,18 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[A-Z][0-9]{3}-[0-9]{4}</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>jdc_person_id</t>
-        </is>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>[A-Z][0-9]{3}-[0-9]{4}</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
@@ -2778,20 +2778,20 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[0-9][0-9][0-9][0-9]Q[0-9]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>quarter_enrolled</t>
-        </is>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>[0-9][0-9][0-9][0-9]Q[0-9]</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -2834,16 +2834,16 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>80</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
         <is>
           <t>staff_type</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>80</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
@@ -2888,16 +2888,16 @@
           <t>On study|Dropped out|Withdrawn by investigator|Completed study|Unknown</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
         <is>
           <t>current_study_status</t>
         </is>
       </c>
-      <c r="J42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
@@ -2938,14 +2938,14 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>d1a</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>d1a</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
@@ -2990,14 +2990,14 @@
           <t>Male|Female|Decline to answer|Something else</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>o1</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>o1</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
@@ -3042,14 +3042,14 @@
           <t>Male|Female|Transgender man/trans man/female-to-male (FTM)|Transgender woman/trans woman/male-to-female (MTF)|Genderqueer/gender nonconforming/neither exclusively male nor female|Additional gender category (or other)|Not reported</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>o2</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>o2</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
           <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.] 
@@ -3099,14 +3099,14 @@
           <t>Male|Female|Transgender|Gender nonconforming|Something else|Not reported</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>d4b</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>d4b</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
           <t>For gender/orientation/identity, use items O1-O2 if possible, otherwise use D4a-D4c.   [Must use one or the other.]</t>
@@ -3159,14 +3159,14 @@
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>d3_white</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>d3_white</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
@@ -3215,14 +3215,14 @@
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>d3_black</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>d3_black</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
@@ -3271,14 +3271,14 @@
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>d3_american_indian</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>d3_american_indian</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
@@ -3327,14 +3327,14 @@
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>d3_hawaiian</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>d3_hawaiian</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
@@ -3383,14 +3383,14 @@
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>d3_asian</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>d3_asian</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
@@ -3439,14 +3439,14 @@
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>d3_other</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>d3_other</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
@@ -3487,16 +3487,16 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>80</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
         <is>
           <t>d3_specify_tribe</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>80</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
@@ -3537,16 +3537,16 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>80</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
         <is>
           <t>d3_specify_other</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>80</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
@@ -3594,16 +3594,16 @@
           <t>White|Black or African American|American Indian or Alaska Native|Asian|Native Hawaiian or Other Pacific Islander|Some other race|Multiracial</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
         <is>
           <t>d3</t>
         </is>
       </c>
-      <c r="J55" t="b">
-        <v>1</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
@@ -3652,14 +3652,14 @@
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>d2</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>d2</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
@@ -3704,14 +3704,14 @@
           <t>Straight or heterosexual|Lesbian or gay|Bisexual|Queer,pansexual, and/or questioning|Something else</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>d4c</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>d4c</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
@@ -3752,14 +3752,14 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>d4c_specify_other</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>d4c_specify_other</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
@@ -3804,14 +3804,14 @@
           <t>Never been pregnant|Currently pregnant|Previously pregnant, had a child|Previously pregnant, did not have a child|Not applicable|Don't know</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>d4d</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>d4d</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
           <t>Does this just apply to that past 90 days?  If not, then the participant should be able to check more than one response.</t>
@@ -3860,14 +3860,14 @@
           <t>Married|Widowed|Divorced|Separated|Never married</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>d5</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>d5</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
@@ -3912,14 +3912,14 @@
           <t>Yes, I am living as married with partner|No, I am not living as married with partner</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>d5a</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>d5a</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
@@ -3964,14 +3964,14 @@
           <t>Did not complete high school|GED or equivalent|Regular high school diploma|Some college credit but less than 1 year of college credit|1 or more years of college credit but no degree|Associate's degree (e.g., AA or AS)|Bachelor's degree (e.g.,  BA or BS)|Graduate degree (e.g., MSW, MA, MS, JD, MD, DSW, EdD, PhD)|Other (specify)</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>d6</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>d6</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
@@ -4012,14 +4012,14 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>d6_grade</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>d6_grade</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
@@ -4060,14 +4060,14 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>d6_specify_other</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>d6_specify_other</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
@@ -4108,18 +4108,18 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>[A-Z][0-9]{3}-[0-9]{4}</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>jdc_person_id</t>
-        </is>
-      </c>
-      <c r="J65" t="b">
-        <v>1</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>[A-Z][0-9]{3}-[0-9]{4}</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -4162,16 +4162,16 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
         <is>
           <t>visit_number</t>
         </is>
       </c>
-      <c r="J66" t="b">
-        <v>1</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
@@ -4214,16 +4214,16 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
         <is>
           <t>shifted_visit_dt</t>
         </is>
       </c>
-      <c r="J67" t="b">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
@@ -4272,16 +4272,16 @@
           <t>Baseline|Follow-up</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
         <is>
           <t>visit_type</t>
         </is>
       </c>
-      <c r="J68" t="b">
-        <v>1</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
@@ -4326,14 +4326,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>or1</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>or1</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
@@ -4383,14 +4383,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>or2</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>or2</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
@@ -4440,14 +4440,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>or3</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>or3</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
@@ -4497,14 +4497,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>or4</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>or4</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
@@ -4554,14 +4554,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>or5</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>or5</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
@@ -4611,14 +4611,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>or6</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>or6</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
@@ -4668,14 +4668,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>or7</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>or7</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
@@ -4725,14 +4725,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>or8</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>or8</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
@@ -4782,14 +4782,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>or9</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>or9</t>
+        </is>
+      </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
@@ -4839,14 +4839,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>or10</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>or10</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
@@ -4896,14 +4896,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>or11</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>or11</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
@@ -4953,14 +4953,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>or12</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>or12</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
@@ -5010,14 +5010,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>oc1</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>oc1</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
@@ -5066,14 +5066,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>oc2</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>oc2</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
@@ -5122,14 +5122,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>oc3</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>oc3</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
@@ -5178,14 +5178,14 @@
           <t>1 Disagree|2|3|4|5 Agree</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>oc4</t>
-        </is>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>oc4</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
@@ -5234,14 +5234,14 @@
           <t>1 Not at all Effective|2|3|4|5|6|7 Very Effective</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>sm1</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>sm1</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
@@ -5286,14 +5286,14 @@
           <t>1 Not at all Effective|2|3|4|5|6|7 Very Effective</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>sm2</t>
-        </is>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>sm2</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
@@ -5338,14 +5338,14 @@
           <t>1 Not at all Effective|2|3|4|5|6|7 Very Effective</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>sm3</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>sm3</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
@@ -5390,14 +5390,14 @@
           <t>1 Not at all Effective|2|3|4|5|6|7 Very Effective</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>sm4</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>sm4</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
@@ -5442,14 +5442,14 @@
           <t>1 Not at all Effective|2|3|4|5|6|7 Very Effective</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>sm5</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>sm5</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
@@ -5494,14 +5494,14 @@
           <t>1 Completely unacceptable|2|3|4|5|6|7 Very Acceptable</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>sm6</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>sm6</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
@@ -5546,14 +5546,14 @@
           <t>1 Completely unacceptable|2|3|4|5|6|7 Very Acceptable</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>sm7</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>sm7</t>
+        </is>
+      </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
@@ -5598,14 +5598,14 @@
           <t>1 Completely unacceptable|2|3|4|5|6|7 Very Acceptable</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>sm8</t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>sm8</t>
+        </is>
+      </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
@@ -5650,14 +5650,14 @@
           <t>1 Completely unacceptable|2|3|4|5|6|7 Very Acceptable</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>sm9</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>sm9</t>
+        </is>
+      </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
@@ -5702,14 +5702,14 @@
           <t>1 Completely unacceptable|2|3|4|5|6|7 Very Acceptable</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>sm10</t>
-        </is>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>sm10</t>
+        </is>
+      </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
@@ -5754,14 +5754,14 @@
           <t>1 No training|2|3|4|5|6|7 Extensive Training</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>sm11</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>sm11</t>
+        </is>
+      </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
@@ -5806,14 +5806,14 @@
           <t>1 No training|2|3|4|5|6|7 Extensive Training</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>sm12</t>
-        </is>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>sm12</t>
+        </is>
+      </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
@@ -5858,14 +5858,14 @@
           <t>1 No training|2|3|4|5|6|7 Extensive Training</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>sm13</t>
-        </is>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>sm13</t>
+        </is>
+      </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
@@ -5910,14 +5910,14 @@
           <t>1 No training|2|3|4|5|6|7 Extensive Training</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>sm14</t>
-        </is>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>sm14</t>
+        </is>
+      </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
@@ -5962,14 +5962,14 @@
           <t>1 No training|2|3|4|5|6|7 Extensive Training</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>sm15</t>
-        </is>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>sm15</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
@@ -6014,14 +6014,14 @@
           <t>1 Completely disagree|2 Disagree|3 Neither agree nor disagree|4 Agree|5 Completely agree</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>im1</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>im1</t>
+        </is>
+      </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
@@ -6066,14 +6066,14 @@
           <t>1 Completely disagree|2 Disagree|3 Neither agree nor disagree|4 Agree|5 Completely agree</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>im2</t>
-        </is>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>im2</t>
+        </is>
+      </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
@@ -6118,14 +6118,14 @@
           <t>1 Completely disagree|2 Disagree|3 Neither agree nor disagree|4 Agree|5 Completely agree</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>im3</t>
-        </is>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>im3</t>
+        </is>
+      </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
@@ -6170,14 +6170,14 @@
           <t>1 Completely disagree|2 Disagree|3 Neither agree nor disagree|4 Agree|5 Completely agree</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>im4</t>
-        </is>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>im4</t>
+        </is>
+      </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
@@ -6222,14 +6222,14 @@
           <t>1 Completely disagree|2 Disagree|3 Neither agree nor disagree|4 Agree|5 Completely agree</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>im5</t>
-        </is>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>im5</t>
+        </is>
+      </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
@@ -6274,14 +6274,14 @@
           <t>1 Completely disagree|2 Disagree|3 Neither agree nor disagree|4 Agree|5 Completely agree</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>im6</t>
-        </is>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>im6</t>
+        </is>
+      </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
@@ -6326,14 +6326,14 @@
           <t>1 Completely disagree|2 Disagree|3 Neither agree nor disagree|4 Agree|5 Completely agree</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>im7</t>
-        </is>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>im7</t>
+        </is>
+      </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
@@ -6378,14 +6378,14 @@
           <t>1 Completely disagree|2 Disagree|3 Neither agree nor disagree|4 Agree|5 Completely agree</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>im8</t>
-        </is>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>im8</t>
+        </is>
+      </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
@@ -6430,14 +6430,14 @@
           <t>1 Completely disagree|2 Disagree|3 Neither agree nor disagree|4 Agree|5 Completely agree</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>im9</t>
-        </is>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>im9</t>
+        </is>
+      </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
@@ -6482,14 +6482,14 @@
           <t>1 Completely disagree|2 Disagree|3 Neither agree nor disagree|4 Agree|5 Completely agree</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>im10</t>
-        </is>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>im10</t>
+        </is>
+      </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
@@ -6534,14 +6534,14 @@
           <t>1 Completely disagree|2 Disagree|3 Neither agree nor disagree|4 Agree|5 Completely agree</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>im11</t>
-        </is>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>im11</t>
+        </is>
+      </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
@@ -6586,14 +6586,14 @@
           <t>1 Completely disagree|2 Disagree|3 Neither agree nor disagree|4 Agree|5 Completely agree</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>im12</t>
-        </is>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>im12</t>
+        </is>
+      </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
@@ -6634,18 +6634,18 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr">
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>[A-Z][0-9]{3}-[0-9]{4}</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>jdc_person_id</t>
-        </is>
-      </c>
-      <c r="J112" t="b">
-        <v>1</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>[A-Z][0-9]{3}-[0-9]{4}</t>
         </is>
       </c>
       <c r="M112" t="inlineStr"/>
@@ -6688,16 +6688,16 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr">
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
         <is>
           <t>visit_number</t>
         </is>
       </c>
-      <c r="J113" t="b">
-        <v>1</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
@@ -6740,18 +6740,18 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr">
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>^Baseline$|^\d+ month$</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>visit_month</t>
-        </is>
-      </c>
-      <c r="J114" t="b">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>^Baseline$|^\d+ month$</t>
         </is>
       </c>
       <c r="M114" t="inlineStr"/>
@@ -6794,16 +6794,16 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
         <is>
           <t>shifted_visit_dt</t>
         </is>
       </c>
-      <c r="J115" t="b">
-        <v>1</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
@@ -6852,16 +6852,16 @@
           <t>Baseline|Follow-up</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
         <is>
           <t>visit_type</t>
         </is>
       </c>
-      <c r="J116" t="b">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
@@ -6906,14 +6906,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>s1a</t>
-        </is>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>s1a</t>
+        </is>
+      </c>
       <c r="M117" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
@@ -6962,14 +6962,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>s1b</t>
-        </is>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>s1b</t>
+        </is>
+      </c>
       <c r="M118" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
@@ -7018,14 +7018,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>s1c</t>
-        </is>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>s1c</t>
+        </is>
+      </c>
       <c r="M119" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
@@ -7074,14 +7074,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>s1d</t>
-        </is>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>s1d</t>
+        </is>
+      </c>
       <c r="M120" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
@@ -7130,14 +7130,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>s1e</t>
-        </is>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>s1e</t>
+        </is>
+      </c>
       <c r="M121" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
@@ -7186,14 +7186,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>s2a</t>
-        </is>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>s2a</t>
+        </is>
+      </c>
       <c r="M122" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
@@ -7242,14 +7242,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>s2b</t>
-        </is>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>s2b</t>
+        </is>
+      </c>
       <c r="M123" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
@@ -7298,14 +7298,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>s2c</t>
-        </is>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>s2c</t>
+        </is>
+      </c>
       <c r="M124" t="inlineStr">
         <is>
           <t>Not reported not a part of the core measures but id'ed a few missing values that cant be accounted for by skip logic. In future, may want to make more precise</t>
@@ -7350,14 +7350,14 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>s3a</t>
-        </is>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>s3a</t>
+        </is>
+      </c>
       <c r="M125" t="inlineStr">
         <is>
           <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
@@ -7402,14 +7402,14 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>s3b</t>
-        </is>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>s3b</t>
+        </is>
+      </c>
       <c r="M126" t="inlineStr">
         <is>
           <t>Overdose means that you took enough of the drug that it caused a life-threatening reaction that required medical attention</t>
@@ -7454,14 +7454,14 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>s3c</t>
-        </is>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>s3c</t>
+        </is>
+      </c>
       <c r="M127" t="inlineStr">
         <is>
           <t>TODO: expand fields to each of the possible selections</t>
@@ -7506,14 +7506,14 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>s3d</t>
-        </is>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>s3d</t>
+        </is>
+      </c>
       <c r="M128" t="inlineStr">
         <is>
           <t>TODO: expand fields to each of the possible selections</t>
@@ -7558,14 +7558,14 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>s3e</t>
-        </is>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>s3e</t>
+        </is>
+      </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
@@ -7606,14 +7606,14 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>s3f</t>
-        </is>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>s3f</t>
+        </is>
+      </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
@@ -7654,14 +7654,14 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>s3g</t>
-        </is>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>s3g</t>
+        </is>
+      </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
@@ -7702,14 +7702,14 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>s3h</t>
-        </is>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>s3h</t>
+        </is>
+      </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
@@ -7750,14 +7750,14 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>s4a</t>
-        </is>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>s4a</t>
+        </is>
+      </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
@@ -7798,14 +7798,14 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>s4b</t>
-        </is>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>s4b</t>
+        </is>
+      </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
@@ -7846,14 +7846,14 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>s4c</t>
-        </is>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>s4c</t>
+        </is>
+      </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
@@ -7894,14 +7894,14 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>s4d</t>
-        </is>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>s4d</t>
+        </is>
+      </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
@@ -7942,14 +7942,14 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>s4e</t>
-        </is>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>s4e</t>
+        </is>
+      </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
@@ -7990,14 +7990,14 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>s4f</t>
-        </is>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>s4f</t>
+        </is>
+      </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
@@ -8038,14 +8038,14 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>s4g</t>
-        </is>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>s4g</t>
+        </is>
+      </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
@@ -8086,14 +8086,14 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>s4h</t>
-        </is>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>s4h</t>
+        </is>
+      </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
@@ -8134,14 +8134,14 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>s4j</t>
-        </is>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>s4j</t>
+        </is>
+      </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
@@ -8182,14 +8182,14 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>s4k</t>
-        </is>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>s4k</t>
+        </is>
+      </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
@@ -8230,14 +8230,14 @@
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>s4m</t>
-        </is>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>s4m</t>
+        </is>
+      </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
@@ -8278,14 +8278,14 @@
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>s4n</t>
-        </is>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>s4n</t>
+        </is>
+      </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
@@ -8326,14 +8326,14 @@
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>s4p</t>
-        </is>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>s4p</t>
+        </is>
+      </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
@@ -8374,14 +8374,14 @@
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>s4z</t>
-        </is>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>s4z</t>
+        </is>
+      </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
@@ -8422,14 +8422,14 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>s4z_describe</t>
-        </is>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>s4z_describe</t>
+        </is>
+      </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
@@ -8470,14 +8470,14 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
@@ -8518,14 +8518,14 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>j1</t>
-        </is>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>j1</t>
+        </is>
+      </c>
       <c r="M149" t="inlineStr">
         <is>
           <t>[IF 0, GO TO J2]</t>
@@ -8570,14 +8570,14 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>j1a1</t>
-        </is>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>j1a1</t>
+        </is>
+      </c>
       <c r="M150" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -8622,14 +8622,14 @@
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>j1a2</t>
-        </is>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>j1a2</t>
+        </is>
+      </c>
       <c r="M151" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -8674,14 +8674,14 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>j1a3</t>
-        </is>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>j1a3</t>
+        </is>
+      </c>
       <c r="M152" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -8726,14 +8726,14 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>j1a4</t>
-        </is>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>j1a4</t>
+        </is>
+      </c>
       <c r="M153" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -8778,14 +8778,14 @@
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>j1a5</t>
-        </is>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>j1a5</t>
+        </is>
+      </c>
       <c r="M154" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -8830,14 +8830,14 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>j1a6</t>
-        </is>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>j1a6</t>
+        </is>
+      </c>
       <c r="M155" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -8882,14 +8882,14 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>j1a7</t>
-        </is>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>j1a7</t>
+        </is>
+      </c>
       <c r="M156" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -8934,14 +8934,14 @@
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>j1a8</t>
-        </is>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>j1a8</t>
+        </is>
+      </c>
       <c r="M157" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -8986,14 +8986,14 @@
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>j1a9</t>
-        </is>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>j1a9</t>
+        </is>
+      </c>
       <c r="M158" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -9038,14 +9038,14 @@
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>j1a10</t>
-        </is>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>j1a10</t>
+        </is>
+      </c>
       <c r="M159" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -9090,14 +9090,14 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>j1a11</t>
-        </is>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>j1a11</t>
+        </is>
+      </c>
       <c r="M160" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -9142,14 +9142,14 @@
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>j1a12</t>
-        </is>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>j1a12</t>
+        </is>
+      </c>
       <c r="M161" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -9194,14 +9194,14 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>j1a13</t>
-        </is>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>j1a13</t>
+        </is>
+      </c>
       <c r="M162" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -9246,14 +9246,14 @@
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>j1a14</t>
-        </is>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>j1a14</t>
+        </is>
+      </c>
       <c r="M163" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -9298,14 +9298,14 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>j1a15</t>
-        </is>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>j1a15</t>
+        </is>
+      </c>
       <c r="M164" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -9350,14 +9350,14 @@
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>j1a16</t>
-        </is>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>j1a16</t>
+        </is>
+      </c>
       <c r="M165" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -9402,14 +9402,14 @@
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>j1a17</t>
-        </is>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>j1a17</t>
+        </is>
+      </c>
       <c r="M166" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -9454,14 +9454,14 @@
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>j1a18</t>
-        </is>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>j1a18</t>
+        </is>
+      </c>
       <c r="M167" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -9506,14 +9506,14 @@
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>j1a19</t>
-        </is>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>j1a19</t>
+        </is>
+      </c>
       <c r="M168" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -9558,14 +9558,14 @@
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>j1a99</t>
-        </is>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>j1a99</t>
+        </is>
+      </c>
       <c r="M169" t="inlineStr">
         <is>
           <t>(common charge names associated with behavior for reference only)</t>
@@ -9610,14 +9610,14 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>j2</t>
-        </is>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>j2</t>
+        </is>
+      </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr">
         <is>
@@ -9658,14 +9658,14 @@
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>j2a</t>
-        </is>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>j2a</t>
+        </is>
+      </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
@@ -9706,14 +9706,14 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>j2b</t>
-        </is>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>j2b</t>
+        </is>
+      </c>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr">
         <is>
@@ -9754,14 +9754,14 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>j2c</t>
-        </is>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>j2c</t>
+        </is>
+      </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
@@ -9802,14 +9802,14 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>j2d</t>
-        </is>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>j2d</t>
+        </is>
+      </c>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
@@ -9850,14 +9850,14 @@
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>j2e</t>
-        </is>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>j2e</t>
+        </is>
+      </c>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
@@ -9898,14 +9898,14 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>j2f</t>
-        </is>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>j2f</t>
+        </is>
+      </c>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr">
         <is>
@@ -9946,14 +9946,14 @@
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>j2g</t>
-        </is>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>j2g</t>
+        </is>
+      </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr">
         <is>
@@ -9994,14 +9994,14 @@
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>j2h</t>
-        </is>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>j2h</t>
+        </is>
+      </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr">
         <is>
@@ -10042,14 +10042,14 @@
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>j2i</t>
-        </is>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>j2i</t>
+        </is>
+      </c>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
@@ -10090,14 +10090,14 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>j2j</t>
-        </is>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>j2j</t>
+        </is>
+      </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
@@ -10138,14 +10138,14 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>j2k</t>
-        </is>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>j2k</t>
+        </is>
+      </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
@@ -10186,14 +10186,14 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>j2l</t>
-        </is>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>j2l</t>
+        </is>
+      </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
@@ -10234,14 +10234,14 @@
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>j2m</t>
-        </is>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>j2m</t>
+        </is>
+      </c>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
@@ -10282,14 +10282,14 @@
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>j2n</t>
-        </is>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>j2n</t>
+        </is>
+      </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
@@ -10330,14 +10330,14 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>j2o</t>
-        </is>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>j2o</t>
+        </is>
+      </c>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
@@ -10378,14 +10378,14 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>j2p</t>
-        </is>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>j2p</t>
+        </is>
+      </c>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
@@ -10426,14 +10426,14 @@
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>j2q</t>
-        </is>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>j2q</t>
+        </is>
+      </c>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr">
         <is>
@@ -10474,14 +10474,14 @@
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>j2r</t>
-        </is>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>j2r</t>
+        </is>
+      </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr">
         <is>
@@ -10522,14 +10522,14 @@
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>j2s</t>
-        </is>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>j2s</t>
+        </is>
+      </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr">
         <is>
@@ -10570,14 +10570,14 @@
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>j2t</t>
-        </is>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>j2t</t>
+        </is>
+      </c>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr">
         <is>
@@ -10618,14 +10618,14 @@
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>j3a</t>
-        </is>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>j3a</t>
+        </is>
+      </c>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr">
         <is>
@@ -10666,14 +10666,14 @@
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>j3b</t>
-        </is>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>j3b</t>
+        </is>
+      </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
@@ -10714,14 +10714,14 @@
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>j3c</t>
-        </is>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>j3c</t>
+        </is>
+      </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr">
         <is>
@@ -10762,14 +10762,14 @@
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>j3d</t>
-        </is>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>j3d</t>
+        </is>
+      </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
@@ -10818,14 +10818,14 @@
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>j3e</t>
-        </is>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>j3e</t>
+        </is>
+      </c>
       <c r="M195" t="inlineStr">
         <is>
           <t>MBK: added Unknown to satisfy a small amount of respondents for one hub.</t>
@@ -10870,14 +10870,14 @@
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>j3f</t>
-        </is>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>j3f</t>
+        </is>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr">
         <is>
@@ -10918,14 +10918,14 @@
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>j4a</t>
-        </is>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>j4a</t>
+        </is>
+      </c>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr">
         <is>
@@ -10966,14 +10966,14 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>j4b</t>
-        </is>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>j4b</t>
+        </is>
+      </c>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr">
         <is>
@@ -11014,14 +11014,14 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>j4c</t>
-        </is>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>j4c</t>
+        </is>
+      </c>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
@@ -11062,14 +11062,14 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>j4d</t>
-        </is>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>j4d</t>
+        </is>
+      </c>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
@@ -11110,14 +11110,14 @@
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>j4e</t>
-        </is>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>j4e</t>
+        </is>
+      </c>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
@@ -11158,14 +11158,14 @@
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>j5a</t>
-        </is>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>j5a</t>
+        </is>
+      </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
@@ -11206,14 +11206,14 @@
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>j5b</t>
-        </is>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>j5b</t>
+        </is>
+      </c>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
@@ -11254,14 +11254,14 @@
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>j5c_years</t>
-        </is>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>j5c_years</t>
+        </is>
+      </c>
       <c r="M204" t="inlineStr">
         <is>
           <t>MBK: changed from integer to number to allow partial years/months</t>
@@ -11306,14 +11306,14 @@
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>j5c_months</t>
-        </is>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>j5c_months</t>
+        </is>
+      </c>
       <c r="M205" t="inlineStr">
         <is>
           <t>MBK: changed from integer to number to allow partial years/months</t>
@@ -11358,14 +11358,14 @@
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>j5d</t>
-        </is>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>j5d</t>
+        </is>
+      </c>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr">
         <is>
@@ -11406,14 +11406,14 @@
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>j5e</t>
-        </is>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>j5e</t>
+        </is>
+      </c>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr">
         <is>
@@ -11454,14 +11454,14 @@
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>u1</t>
-        </is>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>u1</t>
+        </is>
+      </c>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr">
         <is>
@@ -11502,14 +11502,14 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>u2</t>
-        </is>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>u2</t>
+        </is>
+      </c>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr">
         <is>
@@ -11550,14 +11550,14 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>u3</t>
-        </is>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>u3</t>
+        </is>
+      </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr">
         <is>
@@ -11598,14 +11598,14 @@
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>u4</t>
-        </is>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>u4</t>
+        </is>
+      </c>
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr">
         <is>
@@ -11646,14 +11646,14 @@
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>u5a</t>
-        </is>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>u5a</t>
+        </is>
+      </c>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr">
         <is>
@@ -11694,14 +11694,14 @@
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>u5b</t>
-        </is>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>u5b</t>
+        </is>
+      </c>
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr">
         <is>
@@ -11742,14 +11742,14 @@
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>u5c</t>
-        </is>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>u5c</t>
+        </is>
+      </c>
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr">
         <is>
@@ -11790,14 +11790,14 @@
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>u6</t>
-        </is>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>u6</t>
+        </is>
+      </c>
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr">
         <is>
@@ -11846,14 +11846,14 @@
         </is>
       </c>
       <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>u6a</t>
-        </is>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>u6a</t>
+        </is>
+      </c>
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr">
         <is>
@@ -11902,14 +11902,14 @@
         </is>
       </c>
       <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>u6b</t>
-        </is>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>u6b</t>
+        </is>
+      </c>
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
@@ -11958,14 +11958,14 @@
         </is>
       </c>
       <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>u6c</t>
-        </is>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>u6c</t>
+        </is>
+      </c>
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr">
         <is>
@@ -12014,14 +12014,14 @@
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>u6d</t>
-        </is>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>u6d</t>
+        </is>
+      </c>
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr">
         <is>
@@ -12062,14 +12062,14 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>u6d_specify</t>
-        </is>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>u6d_specify</t>
+        </is>
+      </c>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr">
         <is>
@@ -12110,14 +12110,14 @@
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>u7</t>
-        </is>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>u7</t>
+        </is>
+      </c>
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
@@ -12158,14 +12158,14 @@
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>u7a</t>
-        </is>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>u7a</t>
+        </is>
+      </c>
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
@@ -12206,14 +12206,14 @@
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>u7b</t>
-        </is>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>u7b</t>
+        </is>
+      </c>
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr">
         <is>
@@ -12254,14 +12254,14 @@
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>u7c</t>
-        </is>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>u7c</t>
+        </is>
+      </c>
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr">
         <is>
@@ -12302,14 +12302,14 @@
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>u7d</t>
-        </is>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>u7d</t>
+        </is>
+      </c>
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
@@ -12350,14 +12350,14 @@
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>u7e</t>
-        </is>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>u7e</t>
+        </is>
+      </c>
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
@@ -12398,14 +12398,14 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>u8</t>
-        </is>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>u8</t>
+        </is>
+      </c>
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr">
         <is>
@@ -12446,14 +12446,14 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>u8a</t>
-        </is>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>u8a</t>
+        </is>
+      </c>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr">
         <is>
@@ -12494,14 +12494,14 @@
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>u8b</t>
-        </is>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>u8b</t>
+        </is>
+      </c>
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr">
         <is>
@@ -12542,14 +12542,14 @@
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>u9</t>
-        </is>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>u9</t>
+        </is>
+      </c>
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
@@ -12590,14 +12590,14 @@
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>u9a</t>
-        </is>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>u9a</t>
+        </is>
+      </c>
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr">
         <is>
@@ -12638,14 +12638,14 @@
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>u9b</t>
-        </is>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>u9b</t>
+        </is>
+      </c>
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
@@ -12686,14 +12686,14 @@
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>u13</t>
-        </is>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>u13</t>
+        </is>
+      </c>
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr">
         <is>
@@ -12742,14 +12742,14 @@
         </is>
       </c>
       <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>u14</t>
-        </is>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>u14</t>
+        </is>
+      </c>
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr">
         <is>
@@ -12794,14 +12794,14 @@
           <t>Strongly agree|Somewhat agree|Neutral|Somewhat disagree|Strongly disagree</t>
         </is>
       </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>u14a</t>
-        </is>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>u14a</t>
+        </is>
+      </c>
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr">
         <is>
@@ -12846,14 +12846,14 @@
           <t>Strongly agree|Somewhat agree|Neutral|Somewhat disagree|Strongly disagree</t>
         </is>
       </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>u14b</t>
-        </is>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>u14b</t>
+        </is>
+      </c>
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr">
         <is>
@@ -12898,14 +12898,14 @@
           <t>Strongly agree|Somewhat agree|Neutral|Somewhat disagree|Strongly disagree</t>
         </is>
       </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>u14c</t>
-        </is>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>u14c</t>
+        </is>
+      </c>
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
@@ -12950,14 +12950,14 @@
           <t>Strongly agree|Somewhat agree|Neutral|Somewhat disagree|Strongly disagree</t>
         </is>
       </c>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>u14d</t>
-        </is>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>u14d</t>
+        </is>
+      </c>
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
@@ -13002,14 +13002,14 @@
           <t>Strongly agree|Somewhat agree|Neutral|Somewhat disagree|Strongly disagree</t>
         </is>
       </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>u14e</t>
-        </is>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>u14e</t>
+        </is>
+      </c>
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
@@ -13058,14 +13058,14 @@
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>m1</t>
-        </is>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>m1</t>
+        </is>
+      </c>
       <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
@@ -13114,14 +13114,14 @@
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>m2_meds</t>
-        </is>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>m2_meds</t>
+        </is>
+      </c>
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr">
         <is>
@@ -13170,14 +13170,14 @@
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>m2_detox</t>
-        </is>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>m2_detox</t>
+        </is>
+      </c>
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr">
         <is>
@@ -13226,14 +13226,14 @@
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>m2_outpt_counsel</t>
-        </is>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>m2_outpt_counsel</t>
+        </is>
+      </c>
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr">
         <is>
@@ -13282,14 +13282,14 @@
         </is>
       </c>
       <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>m2_outpt_intensive</t>
-        </is>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>m2_outpt_intensive</t>
+        </is>
+      </c>
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr">
         <is>
@@ -13338,14 +13338,14 @@
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>m2_residential</t>
-        </is>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>m2_residential</t>
+        </is>
+      </c>
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr">
         <is>
@@ -13394,14 +13394,14 @@
         </is>
       </c>
       <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>m2_other</t>
-        </is>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>m2_other</t>
+        </is>
+      </c>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr">
         <is>
@@ -13450,14 +13450,14 @@
         </is>
       </c>
       <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>m2_other_specify</t>
-        </is>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>m2_other_specify</t>
+        </is>
+      </c>
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr">
         <is>
@@ -13506,14 +13506,14 @@
         </is>
       </c>
       <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>m2_none</t>
-        </is>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>m2_none</t>
+        </is>
+      </c>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr">
         <is>
@@ -13562,14 +13562,14 @@
         </is>
       </c>
       <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>m2_dont_know</t>
-        </is>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>m2_dont_know</t>
+        </is>
+      </c>
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="inlineStr">
         <is>
@@ -13614,14 +13614,14 @@
           <t>Methadone|Buprenorphine/Suboxone|Naltrexone/Vivitrol|Don't know/No preference</t>
         </is>
       </c>
-      <c r="I250" t="inlineStr">
-        <is>
-          <t>m3</t>
-        </is>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr">
         <is>
@@ -13666,14 +13666,14 @@
           <t>I would prefer to receive daily buprenorphine-naloxone sublingual tablets or films (Suboxone)|I would prefer to receive monthly or weekly buprenorphine injections (e.g., Sublocade, Brixadi)|I would prefer to receive the 6-month buprenorphine implant|Don't know/No preference</t>
         </is>
       </c>
-      <c r="I251" t="inlineStr">
-        <is>
-          <t>m4</t>
-        </is>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>m4</t>
+        </is>
+      </c>
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr">
         <is>
@@ -13718,14 +13718,14 @@
           <t>I would prefer to receive daily naltrexone oral (Revia)|I would prefer to receive monthly naltrexone injections (Vivitrol)|Don't know/No preference</t>
         </is>
       </c>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>m5</t>
-        </is>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>m5</t>
+        </is>
+      </c>
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr">
         <is>
@@ -13766,14 +13766,14 @@
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>d7a</t>
-        </is>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>d7a</t>
+        </is>
+      </c>
       <c r="M253" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o3</t>
@@ -13818,14 +13818,14 @@
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr">
-        <is>
-          <t>d7b</t>
-        </is>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>d7b</t>
+        </is>
+      </c>
       <c r="M254" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o4</t>
@@ -13870,14 +13870,14 @@
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr">
-        <is>
-          <t>d7c</t>
-        </is>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>d7c</t>
+        </is>
+      </c>
       <c r="M255" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o5</t>
@@ -13926,14 +13926,14 @@
           <t>Less than $12,500|$12,500 - $20,000|$20,001 - $30,000|$30,001 - $40,000|$40,001 - $50,000|$50,001 - $100,000|More than $100,000</t>
         </is>
       </c>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>d7d</t>
-        </is>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>d7d</t>
+        </is>
+      </c>
       <c r="M256" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o6</t>
@@ -13986,14 +13986,14 @@
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>d7d1</t>
-        </is>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>d7d1</t>
+        </is>
+      </c>
       <c r="M257" t="inlineStr">
         <is>
           <t>If No, then skip to d7e1. The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o7</t>
@@ -14038,14 +14038,14 @@
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr">
-        <is>
-          <t>d7d2</t>
-        </is>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>d7d2</t>
+        </is>
+      </c>
       <c r="M258" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o8</t>
@@ -14090,14 +14090,14 @@
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>d7e1</t>
-        </is>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>d7e1</t>
+        </is>
+      </c>
       <c r="M259" t="inlineStr">
         <is>
           <t>If No, [GO TO D7f1] The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o9</t>
@@ -14142,14 +14142,14 @@
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr">
-        <is>
-          <t>d7e2</t>
-        </is>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>d7e2</t>
+        </is>
+      </c>
       <c r="M260" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o10</t>
@@ -14202,14 +14202,14 @@
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>d7f1</t>
-        </is>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>d7f1</t>
+        </is>
+      </c>
       <c r="M261" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o11</t>
@@ -14254,14 +14254,14 @@
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr">
-        <is>
-          <t>d7f2</t>
-        </is>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>d7f2</t>
+        </is>
+      </c>
       <c r="M262" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o12</t>
@@ -14310,14 +14310,14 @@
           <t>Working full-time, 35 hours or more a week|Working part-time, less than 35 hours a week|Have a job where you are paid one day at a time (day labor)|Have a job, but not at work because of treatment, extended illness, maternity leave, furlough or strike|Have a job, but not at work because it is seasonal work|Unemployed or laid off and looking for work|Unemployed or laid off and not looking for work|Full-time homemaker (keeping house)|In school or training|In school or training, but not currently going to classes|Retired|In jail, prison or detention|Too disabled for work|In the military|Doing volunteer work|Some other work situation</t>
         </is>
       </c>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>d8</t>
-        </is>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>d8</t>
+        </is>
+      </c>
       <c r="M263" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o13</t>
@@ -14362,14 +14362,14 @@
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr">
-        <is>
-          <t>d8a</t>
-        </is>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>d8a</t>
+        </is>
+      </c>
       <c r="M264" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o14</t>
@@ -14414,14 +14414,14 @@
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>d8b</t>
-        </is>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>d8b</t>
+        </is>
+      </c>
       <c r="M265" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o15</t>
@@ -14466,14 +14466,14 @@
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr">
-        <is>
-          <t>d8b1</t>
-        </is>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>d8b1</t>
+        </is>
+      </c>
       <c r="M266" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o16</t>
@@ -14518,14 +14518,14 @@
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr">
-        <is>
-          <t>d8c</t>
-        </is>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>d8c</t>
+        </is>
+      </c>
       <c r="M267" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o17</t>
@@ -14578,14 +14578,14 @@
         </is>
       </c>
       <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr">
-        <is>
-          <t>d8d_health_insurance</t>
-        </is>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>d8d_health_insurance</t>
+        </is>
+      </c>
       <c r="M268" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o18</t>
@@ -14638,14 +14638,14 @@
         </is>
       </c>
       <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr">
-        <is>
-          <t>d8d_paid_time_off</t>
-        </is>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>d8d_paid_time_off</t>
+        </is>
+      </c>
       <c r="M269" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o19</t>
@@ -14698,14 +14698,14 @@
         </is>
       </c>
       <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr">
-        <is>
-          <t>d8d_benefit_plan</t>
-        </is>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>d8d_benefit_plan</t>
+        </is>
+      </c>
       <c r="M270" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o20</t>
@@ -14758,14 +14758,14 @@
         </is>
       </c>
       <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr">
-        <is>
-          <t>d8d_retirement_plan</t>
-        </is>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>d8d_retirement_plan</t>
+        </is>
+      </c>
       <c r="M271" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o21</t>
@@ -14810,14 +14810,14 @@
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr">
-        <is>
-          <t>d8e</t>
-        </is>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>d8e</t>
+        </is>
+      </c>
       <c r="M272" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o22</t>
@@ -14870,14 +14870,14 @@
         </is>
       </c>
       <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr">
-        <is>
-          <t>d9</t>
-        </is>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>d9</t>
+        </is>
+      </c>
       <c r="M273" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
@@ -14930,14 +14930,14 @@
         </is>
       </c>
       <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr">
-        <is>
-          <t>d9a_private</t>
-        </is>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>d9a_private</t>
+        </is>
+      </c>
       <c r="M274" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o23</t>
@@ -14990,14 +14990,14 @@
         </is>
       </c>
       <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr">
-        <is>
-          <t>d9a_medicare</t>
-        </is>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>d9a_medicare</t>
+        </is>
+      </c>
       <c r="M275" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o24</t>
@@ -15050,14 +15050,14 @@
         </is>
       </c>
       <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr">
-        <is>
-          <t>d9a_medigap</t>
-        </is>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>d9a_medigap</t>
+        </is>
+      </c>
       <c r="M276" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o25</t>
@@ -15110,14 +15110,14 @@
         </is>
       </c>
       <c r="H277" t="inlineStr"/>
-      <c r="I277" t="inlineStr">
-        <is>
-          <t>d9a_medicaid</t>
-        </is>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>d9a_medicaid</t>
+        </is>
+      </c>
       <c r="M277" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o26</t>
@@ -15170,14 +15170,14 @@
         </is>
       </c>
       <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr">
-        <is>
-          <t>d9a_schip</t>
-        </is>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>d9a_schip</t>
+        </is>
+      </c>
       <c r="M278" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o27</t>
@@ -15230,14 +15230,14 @@
         </is>
       </c>
       <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr">
-        <is>
-          <t>d9a_military</t>
-        </is>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>d9a_military</t>
+        </is>
+      </c>
       <c r="M279" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o28</t>
@@ -15290,14 +15290,14 @@
         </is>
       </c>
       <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr">
-        <is>
-          <t>d9a_indian</t>
-        </is>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>d9a_indian</t>
+        </is>
+      </c>
       <c r="M280" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o29</t>
@@ -15350,14 +15350,14 @@
         </is>
       </c>
       <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr">
-        <is>
-          <t>d9a_state</t>
-        </is>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>d9a_state</t>
+        </is>
+      </c>
       <c r="M281" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o30</t>
@@ -15410,14 +15410,14 @@
         </is>
       </c>
       <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>d9a_other_government</t>
-        </is>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>d9a_other_government</t>
+        </is>
+      </c>
       <c r="M282" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o31</t>
@@ -15470,14 +15470,14 @@
         </is>
       </c>
       <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>d9a_single_service</t>
-        </is>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>d9a_single_service</t>
+        </is>
+      </c>
       <c r="M283" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o32</t>
@@ -15530,14 +15530,14 @@
         </is>
       </c>
       <c r="H284" t="inlineStr"/>
-      <c r="I284" t="inlineStr">
-        <is>
-          <t>d9a_dont_know</t>
-        </is>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>d9a_dont_know</t>
+        </is>
+      </c>
       <c r="M284" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o33</t>
@@ -15582,14 +15582,14 @@
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr"/>
       <c r="H285" t="inlineStr"/>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>d10</t>
-        </is>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>d10</t>
+        </is>
+      </c>
       <c r="M285" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o34</t>
@@ -15634,14 +15634,14 @@
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr">
-        <is>
-          <t>d11a</t>
-        </is>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>d11a</t>
+        </is>
+      </c>
       <c r="M286" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o35</t>
@@ -15686,14 +15686,14 @@
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr"/>
-      <c r="I287" t="inlineStr">
-        <is>
-          <t>d11b</t>
-        </is>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>d11b</t>
+        </is>
+      </c>
       <c r="M287" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o36</t>
@@ -15738,14 +15738,14 @@
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr">
-        <is>
-          <t>d11c</t>
-        </is>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>d11c</t>
+        </is>
+      </c>
       <c r="M288" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o37</t>
@@ -15790,14 +15790,14 @@
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr"/>
       <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr">
-        <is>
-          <t>d11d</t>
-        </is>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>d11d</t>
+        </is>
+      </c>
       <c r="M289" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o38</t>
@@ -15842,14 +15842,14 @@
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr">
-        <is>
-          <t>d11e</t>
-        </is>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>d11e</t>
+        </is>
+      </c>
       <c r="M290" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o39</t>
@@ -15894,14 +15894,14 @@
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr">
-        <is>
-          <t>d11f</t>
-        </is>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>d11f</t>
+        </is>
+      </c>
       <c r="M291" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o40</t>
@@ -15946,14 +15946,14 @@
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr"/>
-      <c r="I292" t="inlineStr">
-        <is>
-          <t>d11g</t>
-        </is>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>d11g</t>
+        </is>
+      </c>
       <c r="M292" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o41</t>
@@ -15998,14 +15998,14 @@
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>d11h</t>
-        </is>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>d11h</t>
+        </is>
+      </c>
       <c r="M293" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o42</t>
@@ -16050,14 +16050,14 @@
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
-      <c r="I294" t="inlineStr">
-        <is>
-          <t>d11i</t>
-        </is>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>d11i</t>
+        </is>
+      </c>
       <c r="M294" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o43</t>
@@ -16102,14 +16102,14 @@
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr"/>
-      <c r="I295" t="inlineStr">
-        <is>
-          <t>d11j</t>
-        </is>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>d11j</t>
+        </is>
+      </c>
       <c r="M295" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o44</t>
@@ -16162,14 +16162,14 @@
         </is>
       </c>
       <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr">
-        <is>
-          <t>o3</t>
-        </is>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
       <c r="M296" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o45</t>
@@ -16222,14 +16222,14 @@
         </is>
       </c>
       <c r="H297" t="inlineStr"/>
-      <c r="I297" t="inlineStr">
-        <is>
-          <t>o3a</t>
-        </is>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>o3a</t>
+        </is>
+      </c>
       <c r="M297" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o46</t>
@@ -16282,14 +16282,14 @@
         </is>
       </c>
       <c r="H298" t="inlineStr"/>
-      <c r="I298" t="inlineStr">
-        <is>
-          <t>o3b</t>
-        </is>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>o3b</t>
+        </is>
+      </c>
       <c r="M298" t="inlineStr">
         <is>
           <t>The demographics core measure section was split between data models for demographic subsections collected only at baseline (i.e., d1 - d6) and all time points (d7 - d11; o47</t>
@@ -16338,14 +16338,14 @@
           <t>Without any difficulty|With a little difficulty|With some difficulty|With much difficulty|Unable to do</t>
         </is>
       </c>
-      <c r="I299" t="inlineStr">
-        <is>
-          <t>p1a</t>
-        </is>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>p1a</t>
+        </is>
+      </c>
       <c r="M299" t="inlineStr"/>
       <c r="N299" t="inlineStr">
         <is>
@@ -16390,14 +16390,14 @@
           <t>Without any difficulty|With a little difficulty|With some difficulty|With much difficulty|Unable to do</t>
         </is>
       </c>
-      <c r="I300" t="inlineStr">
-        <is>
-          <t>p1b</t>
-        </is>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>p1b</t>
+        </is>
+      </c>
       <c r="M300" t="inlineStr"/>
       <c r="N300" t="inlineStr">
         <is>
@@ -16442,14 +16442,14 @@
           <t>Without any difficulty|With a little difficulty|With some difficulty|With much difficulty|Unable to do</t>
         </is>
       </c>
-      <c r="I301" t="inlineStr">
-        <is>
-          <t>p1c</t>
-        </is>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>p1c</t>
+        </is>
+      </c>
       <c r="M301" t="inlineStr"/>
       <c r="N301" t="inlineStr">
         <is>
@@ -16494,14 +16494,14 @@
           <t>Without any difficulty|With a little difficulty|With some difficulty|With much difficulty|Unable to do</t>
         </is>
       </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>p1d</t>
-        </is>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>p1d</t>
+        </is>
+      </c>
       <c r="M302" t="inlineStr"/>
       <c r="N302" t="inlineStr">
         <is>
@@ -16546,14 +16546,14 @@
           <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
-      <c r="I303" t="inlineStr">
-        <is>
-          <t>p2a</t>
-        </is>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>p2a</t>
+        </is>
+      </c>
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="inlineStr">
         <is>
@@ -16598,14 +16598,14 @@
           <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
-      <c r="I304" t="inlineStr">
-        <is>
-          <t>p2b</t>
-        </is>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>p2b</t>
+        </is>
+      </c>
       <c r="M304" t="inlineStr"/>
       <c r="N304" t="inlineStr">
         <is>
@@ -16650,14 +16650,14 @@
           <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>p2c</t>
-        </is>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>p2c</t>
+        </is>
+      </c>
       <c r="M305" t="inlineStr"/>
       <c r="N305" t="inlineStr">
         <is>
@@ -16702,14 +16702,14 @@
           <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
-      <c r="I306" t="inlineStr">
-        <is>
-          <t>p2d</t>
-        </is>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>p2d</t>
+        </is>
+      </c>
       <c r="M306" t="inlineStr"/>
       <c r="N306" t="inlineStr">
         <is>
@@ -16754,14 +16754,14 @@
           <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
-      <c r="I307" t="inlineStr">
-        <is>
-          <t>p3a</t>
-        </is>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>p3a</t>
+        </is>
+      </c>
       <c r="M307" t="inlineStr"/>
       <c r="N307" t="inlineStr">
         <is>
@@ -16806,14 +16806,14 @@
           <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>p3b</t>
-        </is>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>p3b</t>
+        </is>
+      </c>
       <c r="M308" t="inlineStr"/>
       <c r="N308" t="inlineStr">
         <is>
@@ -16858,14 +16858,14 @@
           <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
-      <c r="I309" t="inlineStr">
-        <is>
-          <t>p3c</t>
-        </is>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>p3c</t>
+        </is>
+      </c>
       <c r="M309" t="inlineStr"/>
       <c r="N309" t="inlineStr">
         <is>
@@ -16910,14 +16910,14 @@
           <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
-      <c r="I310" t="inlineStr">
-        <is>
-          <t>p3d</t>
-        </is>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>p3d</t>
+        </is>
+      </c>
       <c r="M310" t="inlineStr"/>
       <c r="N310" t="inlineStr">
         <is>
@@ -16962,14 +16962,14 @@
           <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
-      <c r="I311" t="inlineStr">
-        <is>
-          <t>p4a</t>
-        </is>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>p4a</t>
+        </is>
+      </c>
       <c r="M311" t="inlineStr"/>
       <c r="N311" t="inlineStr">
         <is>
@@ -17014,14 +17014,14 @@
           <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>p4b</t>
-        </is>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>p4b</t>
+        </is>
+      </c>
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="inlineStr">
         <is>
@@ -17066,14 +17066,14 @@
           <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
-      <c r="I313" t="inlineStr">
-        <is>
-          <t>p4c</t>
-        </is>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>p4c</t>
+        </is>
+      </c>
       <c r="M313" t="inlineStr"/>
       <c r="N313" t="inlineStr">
         <is>
@@ -17118,14 +17118,14 @@
           <t>Never|Rarely|Sometimes|Often|Always</t>
         </is>
       </c>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>p4d</t>
-        </is>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>p4d</t>
+        </is>
+      </c>
       <c r="M314" t="inlineStr"/>
       <c r="N314" t="inlineStr">
         <is>
@@ -17170,14 +17170,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I315" t="inlineStr">
-        <is>
-          <t>p5a</t>
-        </is>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>p5a</t>
+        </is>
+      </c>
       <c r="M315" t="inlineStr"/>
       <c r="N315" t="inlineStr">
         <is>
@@ -17222,14 +17222,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I316" t="inlineStr">
-        <is>
-          <t>p5b</t>
-        </is>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>p5b</t>
+        </is>
+      </c>
       <c r="M316" t="inlineStr"/>
       <c r="N316" t="inlineStr">
         <is>
@@ -17274,14 +17274,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I317" t="inlineStr">
-        <is>
-          <t>p5c</t>
-        </is>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>p5c</t>
+        </is>
+      </c>
       <c r="M317" t="inlineStr"/>
       <c r="N317" t="inlineStr">
         <is>
@@ -17326,14 +17326,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I318" t="inlineStr">
-        <is>
-          <t>p5d</t>
-        </is>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>p5d</t>
+        </is>
+      </c>
       <c r="M318" t="inlineStr"/>
       <c r="N318" t="inlineStr">
         <is>
@@ -17378,14 +17378,14 @@
           <t>Very poor|Poor|Fair|Good|Very good</t>
         </is>
       </c>
-      <c r="I319" t="inlineStr">
-        <is>
-          <t>p6a</t>
-        </is>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>p6a</t>
+        </is>
+      </c>
       <c r="M319" t="inlineStr"/>
       <c r="N319" t="inlineStr">
         <is>
@@ -17430,14 +17430,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>p6b</t>
-        </is>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>p6b</t>
+        </is>
+      </c>
       <c r="M320" t="inlineStr"/>
       <c r="N320" t="inlineStr">
         <is>
@@ -17482,14 +17482,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I321" t="inlineStr">
-        <is>
-          <t>p6c</t>
-        </is>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>p6c</t>
+        </is>
+      </c>
       <c r="M321" t="inlineStr"/>
       <c r="N321" t="inlineStr">
         <is>
@@ -17534,14 +17534,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I322" t="inlineStr">
-        <is>
-          <t>p6d</t>
-        </is>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>p6d</t>
+        </is>
+      </c>
       <c r="M322" t="inlineStr"/>
       <c r="N322" t="inlineStr">
         <is>
@@ -17586,14 +17586,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I323" t="inlineStr">
-        <is>
-          <t>p7a</t>
-        </is>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>p7a</t>
+        </is>
+      </c>
       <c r="M323" t="inlineStr"/>
       <c r="N323" t="inlineStr">
         <is>
@@ -17638,14 +17638,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I324" t="inlineStr">
-        <is>
-          <t>p7b</t>
-        </is>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>p7b</t>
+        </is>
+      </c>
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="inlineStr">
         <is>
@@ -17690,14 +17690,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I325" t="inlineStr">
-        <is>
-          <t>p8a</t>
-        </is>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>p8a</t>
+        </is>
+      </c>
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="inlineStr">
         <is>
@@ -17742,14 +17742,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I326" t="inlineStr">
-        <is>
-          <t>p8b</t>
-        </is>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>p8b</t>
+        </is>
+      </c>
       <c r="M326" t="inlineStr"/>
       <c r="N326" t="inlineStr">
         <is>
@@ -17794,14 +17794,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I327" t="inlineStr">
-        <is>
-          <t>p8c</t>
-        </is>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>p8c</t>
+        </is>
+      </c>
       <c r="M327" t="inlineStr"/>
       <c r="N327" t="inlineStr">
         <is>
@@ -17846,14 +17846,14 @@
           <t>Not at all|A little bit|Somewhat|Quite a bit|Very much</t>
         </is>
       </c>
-      <c r="I328" t="inlineStr">
-        <is>
-          <t>p8d</t>
-        </is>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>p8d</t>
+        </is>
+      </c>
       <c r="M328" t="inlineStr"/>
       <c r="N328" t="inlineStr">
         <is>
@@ -17894,14 +17894,14 @@
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr"/>
-      <c r="I329" t="inlineStr">
-        <is>
-          <t>p9</t>
-        </is>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>p9</t>
+        </is>
+      </c>
       <c r="M329" t="inlineStr"/>
       <c r="N329" t="inlineStr">
         <is>
@@ -17948,14 +17948,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I330" t="inlineStr">
-        <is>
-          <t>r1a</t>
-        </is>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>r1a</t>
+        </is>
+      </c>
       <c r="M330" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18004,14 +18004,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I331" t="inlineStr">
-        <is>
-          <t>r1b</t>
-        </is>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>r1b</t>
+        </is>
+      </c>
       <c r="M331" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18060,14 +18060,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I332" t="inlineStr">
-        <is>
-          <t>r1c</t>
-        </is>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>r1c</t>
+        </is>
+      </c>
       <c r="M332" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18116,14 +18116,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I333" t="inlineStr">
-        <is>
-          <t>r1d</t>
-        </is>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>r1d</t>
+        </is>
+      </c>
       <c r="M333" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18172,14 +18172,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I334" t="inlineStr">
-        <is>
-          <t>r1g</t>
-        </is>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>r1g</t>
+        </is>
+      </c>
       <c r="M334" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18228,14 +18228,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I335" t="inlineStr">
-        <is>
-          <t>r1h</t>
-        </is>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>r1h</t>
+        </is>
+      </c>
       <c r="M335" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18284,14 +18284,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I336" t="inlineStr">
-        <is>
-          <t>r1j</t>
-        </is>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>r1j</t>
+        </is>
+      </c>
       <c r="M336" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18340,14 +18340,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I337" t="inlineStr">
-        <is>
-          <t>r1k</t>
-        </is>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>r1k</t>
+        </is>
+      </c>
       <c r="M337" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18396,14 +18396,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I338" t="inlineStr">
-        <is>
-          <t>r1m</t>
-        </is>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>r1m</t>
+        </is>
+      </c>
       <c r="M338" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18452,14 +18452,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I339" t="inlineStr">
-        <is>
-          <t>r1n</t>
-        </is>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>r1n</t>
+        </is>
+      </c>
       <c r="M339" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18508,14 +18508,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I340" t="inlineStr">
-        <is>
-          <t>r2a</t>
-        </is>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>r2a</t>
+        </is>
+      </c>
       <c r="M340" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18564,14 +18564,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I341" t="inlineStr">
-        <is>
-          <t>r2b</t>
-        </is>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>r2b</t>
+        </is>
+      </c>
       <c r="M341" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18624,14 +18624,14 @@
         </is>
       </c>
       <c r="H342" t="inlineStr"/>
-      <c r="I342" t="inlineStr">
-        <is>
-          <t>r3a</t>
-        </is>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>r3a</t>
+        </is>
+      </c>
       <c r="M342" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18684,14 +18684,14 @@
         </is>
       </c>
       <c r="H343" t="inlineStr"/>
-      <c r="I343" t="inlineStr">
-        <is>
-          <t>r3b</t>
-        </is>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>r3b</t>
+        </is>
+      </c>
       <c r="M343" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18744,14 +18744,14 @@
         </is>
       </c>
       <c r="H344" t="inlineStr"/>
-      <c r="I344" t="inlineStr">
-        <is>
-          <t>r3c</t>
-        </is>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>r3c</t>
+        </is>
+      </c>
       <c r="M344" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18804,14 +18804,14 @@
         </is>
       </c>
       <c r="H345" t="inlineStr"/>
-      <c r="I345" t="inlineStr">
-        <is>
-          <t>r3d</t>
-        </is>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>r3d</t>
+        </is>
+      </c>
       <c r="M345" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18864,14 +18864,14 @@
         </is>
       </c>
       <c r="H346" t="inlineStr"/>
-      <c r="I346" t="inlineStr">
-        <is>
-          <t>r3e</t>
-        </is>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>r3e</t>
+        </is>
+      </c>
       <c r="M346" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18924,14 +18924,14 @@
         </is>
       </c>
       <c r="H347" t="inlineStr"/>
-      <c r="I347" t="inlineStr">
-        <is>
-          <t>r3f</t>
-        </is>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>r3f</t>
+        </is>
+      </c>
       <c r="M347" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -18980,14 +18980,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I348" t="inlineStr">
-        <is>
-          <t>r3a_first_dx</t>
-        </is>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>r3a_first_dx</t>
+        </is>
+      </c>
       <c r="M348" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -19036,14 +19036,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I349" t="inlineStr">
-        <is>
-          <t>r3b_first_dx</t>
-        </is>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>r3b_first_dx</t>
+        </is>
+      </c>
       <c r="M349" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -19092,14 +19092,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I350" t="inlineStr">
-        <is>
-          <t>r3c_first_dx</t>
-        </is>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>r3c_first_dx</t>
+        </is>
+      </c>
       <c r="M350" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -19148,14 +19148,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I351" t="inlineStr">
-        <is>
-          <t>r3d_first_dx</t>
-        </is>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>r3d_first_dx</t>
+        </is>
+      </c>
       <c r="M351" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -19204,14 +19204,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I352" t="inlineStr">
-        <is>
-          <t>r3e_first_dx</t>
-        </is>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>r3e_first_dx</t>
+        </is>
+      </c>
       <c r="M352" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
@@ -19260,14 +19260,14 @@
           <t>Never|More than a year ago|4 to 12 months ago|2 to 3 months ago|Past month|Do not know|Not reported</t>
         </is>
       </c>
-      <c r="I353" t="inlineStr">
-        <is>
-          <t>r3f_first_dx</t>
-        </is>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>r3f_first_dx</t>
+        </is>
+      </c>
       <c r="M353" t="inlineStr">
         <is>
           <t>RECOMMENDED:  BEFORE SENSITIVE ITEMS SUCH AS THIS REMIND RESPONDENT ABOUT CONFIDENTIALITY OF INTERVIEW AND SECURITY PROCEDURES TO PROTECT DATA AND THAT THERE ARE NO ADVERSE CONSEQUENCES FOR PARTICIPATION IN SURVEY/INTERVIEW (CONSISTENT WITH HUB CONSENT FORMS)</t>
